--- a/outputs/ML_Results/dist_LR/Nimes.xlsx
+++ b/outputs/ML_Results/dist_LR/Nimes.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ50579896" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ50810541" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ51048088" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ51285150" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ51523168" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ51760838" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ51993818" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ52228882" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ52465014" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ52699573" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ52955266" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ53193367" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ53427935" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ53665487" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ53900376" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ54148984" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ54388370" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ54628942" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ54865733" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ55113552" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ55356044" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ55597527" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ55833719" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ56078288" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ56317066" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ56555788" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ56793721" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ57029453" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ57265130" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ57515412" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ57756073" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ57994167" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ58227218" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ58476985" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ58712448" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ58956306" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ59194325" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ59428929" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ59679655" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ59921368" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ00335788" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ00569348" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ00823255" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ01096018" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ01338256" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ01573523" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ01806885" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ02062572" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ02303743" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ02543547" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ17472117" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ17732574" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ18075329" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ18430403" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ18766068" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ19138498" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ19417185" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ19740887" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ20054334" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ20367269" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ20660523" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ20962757" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ21261819" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ21541695" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ21850942" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ22147901" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ22465431" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ22764240" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ23067778" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ23357748" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ23655230" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ23998542" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ24298843" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ24593920" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ24897452" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ25213047" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ25519641" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ25810947" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ26104540" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ26395617" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ26700961" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ27001802" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ27278046" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ27583061" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ27870460" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ28161991" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ28471537" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ28775998" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ29072060" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ29390812" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ29733601" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ30080537" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ30444501" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ30790328" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ31107817" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ31446039" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ31757442" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ32055339" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ32357711" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ32664054" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Nimes.xlsx
+++ b/outputs/ML_Results/dist_LR/Nimes.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ17472117" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ17732574" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ18075329" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ18430403" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ18766068" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ19138498" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ19417185" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ19740887" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ20054334" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ20367269" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ20660523" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ20962757" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ21261819" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ21541695" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ21850942" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ22147901" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ22465431" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ22764240" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ23067778" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ23357748" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ23655230" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ23998542" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ24298843" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ24593920" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ24897452" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ25213047" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ25519641" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ25810947" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ26104540" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ26395617" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ26700961" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ27001802" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ27278046" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ27583061" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ27870460" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ28161991" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ28471537" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ28775998" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ29072060" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ29390812" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ29733601" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ30080537" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ30444501" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ30790328" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ31107817" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ31446039" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ31757442" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ32055339" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ32357711" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ32664054" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ26235275" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ26434645" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ26625727" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ26820483" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ27019999" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ27208928" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ27402681" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ27600865" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ27803481" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ28007394" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ28209007" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ28453666" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ28753375" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ29025899" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ29278608" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ29580227" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ29849614" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ30208659" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ30491829" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ30742103" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ31011594" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ31266595" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ31512589" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ31760812" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ32070712" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ32327139" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ32599689" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ32902711" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ33192527" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ33440266" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ33719625" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ33968082" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ34205682" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ34458718" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ34713996" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ34973876" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ35235018" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ35487211" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ35761383" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ36096284" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ36338874" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ36613642" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ36863660" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ37164557" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ37517255" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ37784748" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ38040503" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ38281842" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ38536623" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ38786945" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1043.921353995773</v>
+        <v>1910.875651243221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5451603235318443</v>
+        <v>0.2934524068291165</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.0046571350733</v>
+        <v>80.94733368773859</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3999430922808304</v>
+        <v>0.7281205470923089</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>558.9658101329138</v>
+        <v>398.4415293686761</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004624448100310301</v>
+        <v>0.2954275807216972</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09136217728004656</v>
+        <v>-0.05871744133696483</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07228938251156805</v>
+        <v>0.3466543049087433</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.086392035600761e-05</v>
+        <v>2.141849189623527e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6617946147241884</v>
+        <v>0.850776387616181</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.995695115606381</v>
+        <v>5.127975252607413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4432021286239293</v>
+        <v>0.7176915964659671</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.519132199296692</v>
+        <v>9.418619346005528</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5739319504258846</v>
+        <v>0.5177720551046761</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2928.499563633683</v>
+        <v>-2695.895287083048</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02495548844036869</v>
+        <v>0.126424542966584</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-940.050866339192</v>
+        <v>-1054.3087005415</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1140611919313389</v>
+        <v>0.4008828158523235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7420.711027820775</v>
+        <v>3219.146143188166</v>
       </c>
       <c r="C11" t="n">
-        <v>0.240826857278296</v>
+        <v>0.1743012153445522</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>696.2056851693042</v>
+        <v>-29.63726481550501</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6079362233252916</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.643628035579837</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9424191907470991</v>
+        <v>0.3281307052191786</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2697.084229315523</v>
+        <v>1894.474523522367</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01864988296730052</v>
+        <v>0.1539956063909982</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.35088739789444</v>
+        <v>-92.16847033217982</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7773002229388117</v>
+        <v>0.5098227973546188</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361.6020079282536</v>
+        <v>872.0208274978313</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05194638589672977</v>
+        <v>0.008007251982361727</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08846630783396678</v>
+        <v>-0.1403930032118116</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04795224512530865</v>
+        <v>0.006215762559616839</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.001122653918298e-05</v>
+        <v>0.0001247429242981799</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2560916517698592</v>
+        <v>0.05991924503507712</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7247660654172812</v>
+        <v>10.40238063551143</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9231365344607706</v>
+        <v>0.2688745848816798</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11143139838013</v>
+        <v>11.42387662779958</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5098632972851405</v>
+        <v>0.1861254078364844</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2894.374211761031</v>
+        <v>-4264.263466397593</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01262114001670996</v>
+        <v>0.0002499410383699984</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-819.8749725300549</v>
+        <v>-177.0895944782933</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3230947279880881</v>
+        <v>0.8271610092902367</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-13256.87761813882</v>
+        <v>2752.90704416824</v>
       </c>
       <c r="C11" t="n">
-        <v>0.118718318566305</v>
+        <v>0.0652774620577692</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3127.676861708014</v>
+        <v>-70.14179451903237</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07259574113131009</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-25.54815588225783</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1633258867158565</v>
+        <v>0.007894743361518014</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3693.103850098844</v>
+        <v>948.2648446071867</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003482709788407693</v>
+        <v>0.6525655775804186</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.40763399667298</v>
+        <v>-93.01502880591647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7505079693598801</v>
+        <v>0.6984803660498317</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.7452503397582</v>
+        <v>694.0109969505118</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1392134073383047</v>
+        <v>0.1706277560836317</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0632448675937084</v>
+        <v>-0.06733074950745604</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09648891472398471</v>
+        <v>0.2153909829659287</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.592568164209465e-05</v>
+        <v>1.099954966460846e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3585479781949051</v>
+        <v>0.9889913490464946</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.489743396272402</v>
+        <v>13.64747918681729</v>
       </c>
       <c r="C7" t="n">
-        <v>0.634533505473828</v>
+        <v>0.3782374963454346</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.30258287913761</v>
+        <v>12.2857004929723</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7389847770487128</v>
+        <v>0.3751132089654341</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3328.92736508093</v>
+        <v>-3130.834330309754</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002755092491302132</v>
+        <v>0.022876209610342</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1547.191161252116</v>
+        <v>-485.8967830224997</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02814006671403824</v>
+        <v>0.7058978232898094</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11600.91776295048</v>
+        <v>3897.279120041762</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1055770784251772</v>
+        <v>0.1359097521376031</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417.078809184071</v>
+        <v>-40.86428482507139</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3052280263821526</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-15.95308434912965</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3559991661894492</v>
+        <v>0.2014449556877112</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2467.235656896746</v>
+        <v>-238.2407649118986</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03834114098757873</v>
+        <v>0.9345656862866484</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.20200709749713</v>
+        <v>-81.18682866154381</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5985247821410764</v>
+        <v>0.6264698291016667</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>254.8012001644865</v>
+        <v>744.1897289541414</v>
       </c>
       <c r="C4" t="n">
-        <v>0.246999480217348</v>
+        <v>0.07011205649711198</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04717193727597116</v>
+        <v>-0.09176306265510728</v>
       </c>
       <c r="C5" t="n">
-        <v>0.269519192886239</v>
+        <v>0.08827896154142724</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.035078332694925e-05</v>
+        <v>3.92049044260192e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8719903515293612</v>
+        <v>0.5997872579714351</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.520743881236985</v>
+        <v>17.966820797674</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7531163177788782</v>
+        <v>0.1865043195188659</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.433891386764827</v>
+        <v>20.83914398432509</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5367382253791757</v>
+        <v>0.1351841768670423</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2523.075497059093</v>
+        <v>-3365.581725461872</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02382903742054409</v>
+        <v>0.02211488293125879</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1575.352579309186</v>
+        <v>-724.4925187670469</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08043162271574157</v>
+        <v>0.4756495486357166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12531.67382207652</v>
+        <v>1533.735166672443</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1786549926785437</v>
+        <v>0.3838202485380143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2337.15816136502</v>
+        <v>-36.5878930241721</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1581213813531828</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-14.85267015441486</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4589486667659554</v>
+        <v>0.2003053918238242</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2488.122681063471</v>
+        <v>1665.573510801109</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02652392829736468</v>
+        <v>0.281536338780946</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-65.62606010887198</v>
+        <v>-144.8790082536638</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6657560184603182</v>
+        <v>0.5259684422222564</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233.3740410862065</v>
+        <v>497.0313160009352</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3020915861325456</v>
+        <v>0.1420753703389606</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06627362944101246</v>
+        <v>-0.1024929843134731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1156918136038142</v>
+        <v>0.1068459788789687</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.164586734733744e-05</v>
+        <v>6.961619460835644e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3012720256526231</v>
+        <v>0.3458731523221847</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.607866118803507</v>
+        <v>2.328212662974</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6462214782353952</v>
+        <v>0.8606111613636211</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.972084082053712</v>
+        <v>1.881146412419582</v>
       </c>
       <c r="C8" t="n">
-        <v>0.785672763484755</v>
+        <v>0.8824255488694982</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3465.065783868762</v>
+        <v>-3768.733307834081</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005926927275109977</v>
+        <v>0.01518241470548536</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1076.608118762672</v>
+        <v>-567.4151189300919</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2363605267926569</v>
+        <v>0.5797092890524085</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7952.74469785449</v>
+        <v>2761.147248911318</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2527023286245885</v>
+        <v>0.17075255766989</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3347.418465669621</v>
+        <v>3.625916951959564</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06418301359590135</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.589675825366697</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7493616729385844</v>
+        <v>0.9138104178660234</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2243.638503808774</v>
+        <v>2406.3340874929</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02254699420728043</v>
+        <v>0.1320738466154322</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.91273492494571</v>
+        <v>-152.7170547720202</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4350353106012594</v>
+        <v>0.520151700847115</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1278892770885</v>
+        <v>162.5526136253295</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09419292042432993</v>
+        <v>0.5658366597312083</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04467016197391854</v>
+        <v>-0.04293965183451612</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1670658478190133</v>
+        <v>0.3561028052458103</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.576094428756906e-05</v>
+        <v>3.23983716752101e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7426168088922689</v>
+        <v>0.7217476865866499</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.800860937180879</v>
+        <v>3.831105052892099</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3512645344906449</v>
+        <v>0.7474768228286943</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.455636092986225</v>
+        <v>17.5540018716946</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3000993194743911</v>
+        <v>0.1265501973137884</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2303.851010285714</v>
+        <v>-4225.89251796734</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0108906904641371</v>
+        <v>0.007161418947647653</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1526.600349297483</v>
+        <v>-2365.311772932019</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02083009646892168</v>
+        <v>0.1369106019572408</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12499.43058674294</v>
+        <v>3970.735523524549</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04498394648405381</v>
+        <v>0.05335056870339127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2823.468869975653</v>
+        <v>-17.47514856029528</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03879767096315207</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-18.34243030366009</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2568146809532812</v>
+        <v>0.4506253068605173</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305.366357417312</v>
+        <v>3368.103799972107</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8714479861109581</v>
+        <v>0.01682418914369803</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.48276592258625</v>
+        <v>450.9749390042091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9197450560755248</v>
+        <v>0.03484353896168173</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>442.3988942020059</v>
+        <v>807.0673976468299</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02458964994288135</v>
+        <v>0.007926132273798941</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0747641022733551</v>
+        <v>-0.001906994666634382</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09788402706528911</v>
+        <v>0.9617309275908987</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.233450203646104e-05</v>
+        <v>-5.595542873759014e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8811495339533358</v>
+        <v>0.3145545029079077</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.07156038497313</v>
+        <v>2.114327598542962</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1600491936099246</v>
+        <v>0.8181935131582772</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.33523622350686</v>
+        <v>-19.76566086552726</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1531782106921745</v>
+        <v>0.1234685816001579</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2368.41811552211</v>
+        <v>-2611.256102586363</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06063043525879076</v>
+        <v>0.006104424588747625</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1068.304244731772</v>
+        <v>-2084.975493631071</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1141535892403213</v>
+        <v>0.03407445955245818</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11288.47020319991</v>
+        <v>-1223.034998231138</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0991851855251845</v>
+        <v>0.4732593783500573</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2539.078066321737</v>
+        <v>-3.395134756431176</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1680603187604297</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-12.49828373098649</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5575761136378675</v>
+        <v>0.8769778605544125</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3014.73115327974</v>
+        <v>1557.442976137611</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008967978251938442</v>
+        <v>0.3128410284080721</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-66.49346494149682</v>
+        <v>-160.6759378162317</v>
       </c>
       <c r="C3" t="n">
-        <v>0.658952047202026</v>
+        <v>0.5005496860953216</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.0044497739881</v>
+        <v>303.8093609982275</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3574295865496641</v>
+        <v>0.3644313343113986</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04865301382511697</v>
+        <v>-0.05390183126891067</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1751930687598459</v>
+        <v>0.2646159512060359</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.239365970228062e-07</v>
+        <v>3.716755404648124e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9921639160539608</v>
+        <v>0.6175623742836426</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.110371140122146</v>
+        <v>7.04963790015805</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4578353500944621</v>
+        <v>0.5280315422049522</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.88319647238907</v>
+        <v>15.94314269603872</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1338094295241201</v>
+        <v>0.21943318302361</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3390.556319950113</v>
+        <v>-4173.475777707819</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003675639466580847</v>
+        <v>0.01049055437099127</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1924.947025205404</v>
+        <v>-2120.853030851352</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02752777582386607</v>
+        <v>0.09893397499585463</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8218.095363604978</v>
+        <v>4553.145876318027</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3152322216897968</v>
+        <v>0.0561595450327815</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1752.493545832089</v>
+        <v>-11.46337654236314</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2131790762025876</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-26.81259644269549</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1566579606244557</v>
+        <v>0.6604740809198083</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2897.289774651527</v>
+        <v>763.4994038273649</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005940846380034854</v>
+        <v>0.7312538563742055</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107.4287971144576</v>
+        <v>-217.9997426580829</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4438974260282772</v>
+        <v>0.4398498959467346</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>366.0798383435034</v>
+        <v>504.8031268131091</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0333406615379295</v>
+        <v>0.1843412253793212</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05197134714293836</v>
+        <v>-0.06944204779401923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1032242028056241</v>
+        <v>0.1619868525533875</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.12926553966687e-05</v>
+        <v>4.540350736158787e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6527634283375481</v>
+        <v>0.5468746776697639</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5081577777271846</v>
+        <v>3.86332985688766</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9393284449207855</v>
+        <v>0.7930081624512528</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9588879754561646</v>
+        <v>5.253221232176582</v>
       </c>
       <c r="C8" t="n">
-        <v>0.914221858543988</v>
+        <v>0.7156366081149026</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3281.707181473806</v>
+        <v>-3059.19958189192</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002474526577430998</v>
+        <v>0.008514632648854208</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1768.3381292731</v>
+        <v>-534.362218256987</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01154348511990229</v>
+        <v>0.6210949641705472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9817.311848771978</v>
+        <v>3751.559928239048</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1177951641580236</v>
+        <v>0.1338519630153098</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2726.13479895186</v>
+        <v>9.398124122331893</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04247693686637408</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-7.468856078931495</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6438781358476148</v>
+        <v>0.7739469506504353</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1334.243799916869</v>
+        <v>-720.4937578770696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5259208013133796</v>
+        <v>0.8693811953251382</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.7615985926683</v>
+        <v>1.500935825924671</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4262524249707675</v>
+        <v>0.9950586714552827</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>416.7898723688347</v>
+        <v>528.4155127979193</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03808180444154143</v>
+        <v>0.1547359433040166</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06526531126070521</v>
+        <v>-0.06360484132136163</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2033252806512845</v>
+        <v>0.3243521122642862</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.439376412585051e-05</v>
+        <v>-1.232852480011822e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8620534389604682</v>
+        <v>0.9265044410778314</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.243441642566879</v>
+        <v>16.44727954004884</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5181083901233992</v>
+        <v>0.4632234461986691</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.373382139406615</v>
+        <v>23.23810159621746</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5502366320819789</v>
+        <v>0.3727501014982009</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2343.662002377562</v>
+        <v>-2066.356581671986</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06893828296276117</v>
+        <v>0.3065549329625473</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1260.48449651608</v>
+        <v>-806.1930378162178</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08496874406134269</v>
+        <v>0.5142474971224669</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-13078.11295833064</v>
+        <v>1124.177680154822</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06849832918593382</v>
+        <v>0.7305534666477584</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1765.758077157005</v>
+        <v>-17.39739614410821</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3355501904927909</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-4.878678905683245</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8446799144753552</v>
+        <v>0.6481548318121408</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1844.046218317425</v>
+        <v>2349.062738302052</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08445126591428971</v>
+        <v>0.1237368029406843</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-109.5756942635981</v>
+        <v>-78.97796735212893</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4766078099301087</v>
+        <v>0.6417385280003276</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.4517731851274</v>
+        <v>750.4566293255552</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3131340220567077</v>
+        <v>0.04461490476292745</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06422590573535646</v>
+        <v>-0.1679404121358502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05800267055153199</v>
+        <v>0.02450401427662002</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.71141048911297e-05</v>
+        <v>0.0001014712847815229</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7315426830438005</v>
+        <v>0.1208078364784415</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.610136304361834</v>
+        <v>11.65868460467882</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6466864582443966</v>
+        <v>0.3268428802432313</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.20378201845565</v>
+        <v>9.556950824418628</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3041951720979103</v>
+        <v>0.3169987939275117</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2639.998646998015</v>
+        <v>-4554.28854633661</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008088917665140537</v>
+        <v>0.001215134372771028</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1229.279349150894</v>
+        <v>-335.6043213706253</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08157873956495776</v>
+        <v>0.7504791408778826</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11512.85946328258</v>
+        <v>2031.449246184056</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08937480454352641</v>
+        <v>0.1973432965327767</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2730.552445495311</v>
+        <v>-59.31764289619963</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08751094385925197</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.642209585621451</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9362517855321869</v>
+        <v>0.01593776089165905</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2620.524774425592</v>
+        <v>2111.359818525294</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03591586425400979</v>
+        <v>0.2137094071396691</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.5112444017404</v>
+        <v>-276.7500967458758</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5316885481874363</v>
+        <v>0.3293249962561593</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>375.8265502634656</v>
+        <v>260.5414108895925</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1677288806912001</v>
+        <v>0.4695445331021367</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04879562169556989</v>
+        <v>-0.0819737591862171</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3603270566567977</v>
+        <v>0.1072921453786769</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.07712835018352e-05</v>
+        <v>5.837905571234064e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7604713368327859</v>
+        <v>0.4914686725829975</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.686657560185324</v>
+        <v>-2.976110211753713</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8474888980213995</v>
+        <v>0.8015334045122311</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.283145126380717</v>
+        <v>2.879257411783002</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7803405467615455</v>
+        <v>0.8123812044224672</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2966.615854132639</v>
+        <v>-3654.078002661619</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06176009011498742</v>
+        <v>0.005617335289829007</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1438.648545080283</v>
+        <v>-951.0539704806342</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1538552704046428</v>
+        <v>0.3944666271509345</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-13161.58056968148</v>
+        <v>1975.998641092672</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1159944189829963</v>
+        <v>0.3051644661533536</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2254.589898682425</v>
+        <v>26.16168700502752</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1912608811001719</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-15.37448982006245</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5219884340247923</v>
+        <v>0.5510940023263476</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2341.740293075574</v>
+        <v>2282.946655656634</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04307018722164706</v>
+        <v>0.1543215689159799</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.26420407232632</v>
+        <v>134.5584426702186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8294424105606426</v>
+        <v>0.5104525551113102</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339.8684449433424</v>
+        <v>683.9636328888247</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1456727968062482</v>
+        <v>0.07731719582987784</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0698063223153365</v>
+        <v>-0.03226454704398179</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1693456774380671</v>
+        <v>0.5490554344619304</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.457796723856227e-05</v>
+        <v>-3.066710907208997e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5702345862014504</v>
+        <v>0.6627172341303909</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.147016996636864</v>
+        <v>10.29964610856693</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7129592893627001</v>
+        <v>0.3534401384091229</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.143854139452259</v>
+        <v>-1.327166800960967</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4285951588968635</v>
+        <v>0.9183731945809985</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2914.161412812529</v>
+        <v>-3164.332294258344</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01215339236596935</v>
+        <v>0.008182819665774723</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1129.51119849195</v>
+        <v>-2005.085087874486</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1735956313773869</v>
+        <v>0.1179909545588695</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9673.826322586436</v>
+        <v>483.5882266446206</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1933402930533828</v>
+        <v>0.814327206898662</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2897.913381387994</v>
+        <v>-18.627313712952</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09476968704233489</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-22.22370311885723</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3209118967414716</v>
+        <v>0.509797121003895</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1962.465292852647</v>
+        <v>2085.387356841831</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05507639321298197</v>
+        <v>0.2183457515143356</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182.2669145505187</v>
+        <v>139.3197346259265</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2234843226410957</v>
+        <v>0.5599229238698513</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.00664927654304</v>
+        <v>359.1448769177332</v>
       </c>
       <c r="C4" t="n">
-        <v>0.792115949053161</v>
+        <v>0.3371470317399496</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01478113867197806</v>
+        <v>-0.06019875192985526</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6939386439318784</v>
+        <v>0.2573693737090434</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.147522902266956e-05</v>
+        <v>-1.221852361960556e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5449734508880993</v>
+        <v>0.8744913229392088</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.099233777208983</v>
+        <v>6.070971234507681</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5521925257075126</v>
+        <v>0.649016587143094</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.731214044706604</v>
+        <v>10.01013461593993</v>
       </c>
       <c r="C8" t="n">
-        <v>0.34037021534195</v>
+        <v>0.5140686612360876</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1717.105508411048</v>
+        <v>-1942.72685959611</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06837659204391872</v>
+        <v>0.2289796486309637</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2233.621647612761</v>
+        <v>-804.7451462745871</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01710863071142598</v>
+        <v>0.4835540840847784</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12788.30274989656</v>
+        <v>2627.773893772401</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04273319442753879</v>
+        <v>0.2322130825558543</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2344.420141416434</v>
+        <v>-35.59402740387162</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1461167018294316</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-1.018354976118701</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9585210054720874</v>
+        <v>0.23702822146307</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2687.756723279347</v>
+        <v>2552.779904623395</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01696853282090942</v>
+        <v>0.1476161330522385</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.05968355354145</v>
+        <v>79.96191928455107</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6628203328050197</v>
+        <v>0.6793540407999044</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.7029914956858</v>
+        <v>349.6114398702639</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06318328200903209</v>
+        <v>0.3872070483141902</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0715060881858573</v>
+        <v>-0.07472223563892189</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1130614924207762</v>
+        <v>0.4950773525020286</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.247847503738176e-05</v>
+        <v>3.657153911374063e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7438821361766514</v>
+        <v>0.8827864914140957</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.485528652300331</v>
+        <v>8.345761966400168</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6329937414967</v>
+        <v>0.5016042557440332</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.302820471835915</v>
+        <v>11.99730240554091</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4941773806145495</v>
+        <v>0.3721645876494384</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2758.167486537306</v>
+        <v>-3828.477477287957</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0136326550152422</v>
+        <v>0.1182322731456479</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1273.986219091254</v>
+        <v>-1296.360945123895</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08439885391543903</v>
+        <v>0.3607463690702506</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12794.83854223878</v>
+        <v>2067.884508366329</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1310860966873062</v>
+        <v>0.2898876142296651</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2562.27294963615</v>
+        <v>-42.28342530516989</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07638722784263821</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-23.76383042747729</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1892577486581948</v>
+        <v>0.1406664466411995</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2404.622718994255</v>
+        <v>2869.945265883836</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02699447203111459</v>
+        <v>0.04572247069100305</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-45.67823647512222</v>
+        <v>-262.0921917330932</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7796850842060885</v>
+        <v>0.1477525385364231</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.4970030882522</v>
+        <v>278.7352872064689</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08540350195472095</v>
+        <v>0.2810911203251618</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08969951378525715</v>
+        <v>-0.1170506965098436</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06316063010554225</v>
+        <v>0.02472516101454374</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.792486782445027e-05</v>
+        <v>0.000106056905240585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3778094477734414</v>
+        <v>0.1114828868390675</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.211876581070156</v>
+        <v>-5.937599610754766</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4523563762443895</v>
+        <v>0.5391173760562349</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.685431991773321</v>
+        <v>3.807424096470541</v>
       </c>
       <c r="C8" t="n">
-        <v>0.366125451348536</v>
+        <v>0.6867587509107433</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4177.088251665051</v>
+        <v>-4253.191179356508</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002469419759578028</v>
+        <v>0.000659794554350427</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1709.216411754971</v>
+        <v>-715.8819290782749</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05806642336621003</v>
+        <v>0.4799064417020176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6332.110925422412</v>
+        <v>2359.945982896799</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3956490396391437</v>
+        <v>0.1973112029744396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3403.720317439305</v>
+        <v>7.070599205481557</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04046521670885322</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-18.80576734777608</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3211120937334724</v>
+        <v>0.7973415164455004</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>269.85943070332</v>
+        <v>-1439.373149394642</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8840368790440727</v>
+        <v>0.6400185721155849</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>189.5449752562777</v>
+        <v>397.3278981480686</v>
       </c>
       <c r="C3" t="n">
-        <v>0.205137725631284</v>
+        <v>0.1454860875523645</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.6140820879252</v>
+        <v>424.5342459253989</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01376749682206239</v>
+        <v>0.2160531023970139</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03115860116180105</v>
+        <v>-0.01309229229508191</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4162821062174663</v>
+        <v>0.7598586110331892</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.912993805743755e-06</v>
+        <v>-1.209180663345376e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9154481406722603</v>
+        <v>0.9840095607298621</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.758478720899831</v>
+        <v>-3.458536860434009</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6421898966941997</v>
+        <v>0.8176738185211011</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.381304210233793</v>
+        <v>12.9371580702635</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5547065450205041</v>
+        <v>0.3490883863030876</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1944.866267805769</v>
+        <v>-679.4033974886347</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09400276811394026</v>
+        <v>0.6578859361980829</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1229.112277642587</v>
+        <v>693.2662796623251</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05811328948225848</v>
+        <v>0.6012336246873923</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12579.07694412394</v>
+        <v>23.81732665921845</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0479858857251541</v>
+        <v>0.9916987081397786</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>918.9364426793545</v>
+        <v>22.7740895111743</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5485171449795045</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.03730813651015</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3899095284215934</v>
+        <v>0.4742241755284273</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2395.58833917013</v>
+        <v>896.0535479260989</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02983483394954969</v>
+        <v>0.4532964278070791</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-145.8505779805189</v>
+        <v>25.54474061553461</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3099541006073771</v>
+        <v>0.8701867275084991</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.7041282879321</v>
+        <v>1052.529472401061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2229043797721584</v>
+        <v>0.004232746558866277</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06005515064508053</v>
+        <v>-0.03993417173848303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05135216918801163</v>
+        <v>0.4307520758448234</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.345176181808849e-05</v>
+        <v>-3.960394208795296e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5998742201496259</v>
+        <v>0.941020406204931</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.759242096684872</v>
+        <v>20.93328851139799</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6990094503362629</v>
+        <v>0.04955470551975726</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.39128091452186</v>
+        <v>1.313743649331826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2379285164653313</v>
+        <v>0.8945930468399997</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2968.587523303489</v>
+        <v>-3709.881427592037</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001516934041876895</v>
+        <v>0.0007558995901229919</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1451.716866351343</v>
+        <v>-2265.688337978937</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02708936447830486</v>
+        <v>0.03825852902110997</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-13708.3587450907</v>
+        <v>609.1157371193935</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03375772407489303</v>
+        <v>0.7044346326227902</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2326.339220825452</v>
+        <v>-28.10568931826205</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1155115489824647</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-3.502356260463934</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8599792436941081</v>
+        <v>0.2252261878573365</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1227.679096728716</v>
+        <v>3045.725112539414</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6058250609367817</v>
+        <v>0.1469060286216862</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.7063979792872</v>
+        <v>116.7163169580887</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7307840548717299</v>
+        <v>0.659862172756695</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>343.5924326139778</v>
+        <v>492.4517619095857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06758284489783294</v>
+        <v>0.2164827275367201</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05606431432155627</v>
+        <v>-0.05523636026652262</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1288396318650139</v>
+        <v>0.3623852546774531</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.562448931288697e-08</v>
+        <v>3.31539822787415e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9988159601657142</v>
+        <v>0.6792893849610382</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.871202654094461</v>
+        <v>-3.015771649456966</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4153532041766342</v>
+        <v>0.8641387666541873</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.67494990487732</v>
+        <v>-2.727193879682986</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3537320033884253</v>
+        <v>0.88640860935397</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2207.732458997471</v>
+        <v>-3757.407181508588</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05154890964219283</v>
+        <v>0.01444219595991368</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1408.692346289275</v>
+        <v>-968.8163325537962</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05924672728786911</v>
+        <v>0.4240057797996879</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-17688.38190504607</v>
+        <v>2136.886852055439</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0531057726960236</v>
+        <v>0.3436008625365519</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1994.750675589759</v>
+        <v>-14.30351010183585</v>
       </c>
       <c r="C12" t="n">
-        <v>0.386087732135203</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-12.01740000686858</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6491751534706787</v>
+        <v>0.6812423083417682</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1964.107879413528</v>
+        <v>1305.943380241215</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08997167611984529</v>
+        <v>0.3506984812117708</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>149.6750744663993</v>
+        <v>-159.0254854911277</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3456501172969564</v>
+        <v>0.4034275245175264</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.8150878372605</v>
+        <v>598.8590646507458</v>
       </c>
       <c r="C4" t="n">
-        <v>0.28205777658701</v>
+        <v>0.09043599222644334</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0211498020890944</v>
+        <v>-0.09467073740472257</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5963685206538526</v>
+        <v>0.1022364902548828</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.741142332580544e-05</v>
+        <v>5.246029933257039e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7546550241633116</v>
+        <v>0.4107123292009659</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.515149990319831</v>
+        <v>8.07191568972344</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6325708452087273</v>
+        <v>0.5325467172764327</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.311963401472028</v>
+        <v>7.044472178972882</v>
       </c>
       <c r="C8" t="n">
-        <v>0.447219766789163</v>
+        <v>0.5176727230800956</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1985.178699532025</v>
+        <v>-3600.182561638702</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04977081526387375</v>
+        <v>0.004384128956051505</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1683.134680268473</v>
+        <v>-714.0221305000669</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1359959565339966</v>
+        <v>0.4394188855781566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-10475.12853697667</v>
+        <v>2637.669221939823</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1021366714915169</v>
+        <v>0.1149453661468843</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2504.105084957675</v>
+        <v>-14.32950929935875</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1914408435578204</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-9.395566716541111</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6367684683514674</v>
+        <v>0.7028009499499586</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3497.780760467206</v>
+        <v>3438.791984512707</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002086664591500509</v>
+        <v>0.03145320462831214</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-56.01465777162127</v>
+        <v>-130.1199435836054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6829341268111133</v>
+        <v>0.5216054649955424</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>275.0906256883663</v>
+        <v>19.07418486307733</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1412362276280089</v>
+        <v>0.9482535440174653</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07386545458843219</v>
+        <v>-0.03816152733877154</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05303891482143665</v>
+        <v>0.3109195820418165</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.787648901024221e-05</v>
+        <v>-1.382150107813809e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1664339007355949</v>
+        <v>0.8160869190521788</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.0453243861255</v>
+        <v>5.282789311386956</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3236722346680507</v>
+        <v>0.5928978753720615</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.9879579782134229</v>
+        <v>20.03212958719118</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9081873559269011</v>
+        <v>0.06402815143932769</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3467.493776841658</v>
+        <v>-4488.737607796033</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0006419209074794138</v>
+        <v>0.002014212531923926</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1239.363836153293</v>
+        <v>-2819.621285747434</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06144882486072596</v>
+        <v>0.04171971062249129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8135.04075137484</v>
+        <v>2545.845256119958</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1715262173984284</v>
+        <v>0.167498743561701</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1259.733410206959</v>
+        <v>-27.43441011461348</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2804887493955468</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.357878215233811</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8248593342159292</v>
+        <v>0.2202577093506875</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2659.295925076925</v>
+        <v>2242.924420252133</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02085142278265131</v>
+        <v>0.6110746614993279</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.12842605116339</v>
+        <v>53.62858684313483</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7285947922070061</v>
+        <v>0.8172588609349033</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>387.2145462262984</v>
+        <v>453.1752925785661</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09364489681874327</v>
+        <v>0.2180896549105162</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1148542531160079</v>
+        <v>-0.08310184019525579</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1598114515975332</v>
+        <v>0.2369259304950632</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001746501689731916</v>
+        <v>5.373475979567619e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3344094583485344</v>
+        <v>0.681194304745252</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.021636537999846</v>
+        <v>2.38630239606357</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9004444612768185</v>
+        <v>0.9062022975733816</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.067962784134131</v>
+        <v>7.427298827312796</v>
       </c>
       <c r="C8" t="n">
-        <v>0.715238692868349</v>
+        <v>0.7401557384759717</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4347.722750468122</v>
+        <v>-3232.969829722801</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0188026007606271</v>
+        <v>0.08139731254507127</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1161.838482334541</v>
+        <v>-703.6850923743427</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1657750805044542</v>
+        <v>0.5540555403735465</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12884.68760684342</v>
+        <v>2740.511685850345</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1054473723829855</v>
+        <v>0.4076482351529767</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2608.720019195005</v>
+        <v>-30.77740037262458</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08750184485992379</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-18.45244550896931</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3525135158984222</v>
+        <v>0.4144608375293615</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2491.866079513831</v>
+        <v>1532.478443476649</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0181914741167643</v>
+        <v>0.2264036864391618</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-80.77387390130389</v>
+        <v>-26.53437593218155</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6333519775230715</v>
+        <v>0.8547508850937557</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.01307525475</v>
+        <v>1002.068281876162</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1297929231903902</v>
+        <v>0.004165164296689554</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07678753039578079</v>
+        <v>-0.1250211118693553</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05317597862084959</v>
+        <v>0.09538058098542113</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.816085660867757e-05</v>
+        <v>6.459706634235959e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5137452335931529</v>
+        <v>0.3364634447384148</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.213758704973829</v>
+        <v>18.46991476496917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9786447791788057</v>
+        <v>0.07580467140827622</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.485456693693187</v>
+        <v>3.327243616981434</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6139432290865963</v>
+        <v>0.719115989382909</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3064.878898577565</v>
+        <v>-4407.844914552104</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005366956922245095</v>
+        <v>0.0006150134101788039</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1055.086601453954</v>
+        <v>-1322.695357790594</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1989109829810936</v>
+        <v>0.2404313077209846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9139.117166700293</v>
+        <v>1063.005708268447</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1967873895149063</v>
+        <v>0.4864469695369974</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2275.824175910494</v>
+        <v>-43.73725642030541</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1280155290831394</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.346438689617258</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.95194387837424</v>
+        <v>0.07800800258262951</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1883.204060998167</v>
+        <v>1917.625668003355</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07367784420038856</v>
+        <v>0.324745371914856</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-52.85738270945205</v>
+        <v>143.0843089045613</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6837146958796516</v>
+        <v>0.5748648991241305</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356.1323769586283</v>
+        <v>670.0096106273254</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04737261920574071</v>
+        <v>0.1079319970144843</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07679637556870222</v>
+        <v>-0.02955711305739839</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06807244783635302</v>
+        <v>0.6037465481220852</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.609042139703553e-05</v>
+        <v>-2.183768930384236e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7463514193661283</v>
+        <v>0.7649691609276339</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.60248259376629</v>
+        <v>9.541979596805888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2571157111836579</v>
+        <v>0.4794354201829548</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.63100965690155</v>
+        <v>-0.4843829239790693</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1611150621712169</v>
+        <v>0.9768203346390152</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3465.10625658113</v>
+        <v>-2952.409637647539</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002537803353150492</v>
+        <v>0.01865815068755849</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1454.816125952299</v>
+        <v>-1850.962660447125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03704911873235016</v>
+        <v>0.1918494632295933</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6733.557852596939</v>
+        <v>956.0986030489385</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3477590984796979</v>
+        <v>0.743584320270348</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3880.69935119534</v>
+        <v>-16.18026289766178</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01825971860765375</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-22.73140782170618</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1865976405952144</v>
+        <v>0.5966950445666805</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2933.898469576565</v>
+        <v>2687.748959817995</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04163182864134864</v>
+        <v>0.1570908998215184</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.257786735651791</v>
+        <v>31.70240605063168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9735438759067103</v>
+        <v>0.8789734651046621</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.6970440013166</v>
+        <v>346.8243621572874</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1797069901139291</v>
+        <v>0.4209227919265328</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05108819139036297</v>
+        <v>-0.09722469559222993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2371120055211428</v>
+        <v>0.1560879677989148</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.214040999797646e-05</v>
+        <v>-1.188436046072679e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8329264051875764</v>
+        <v>0.9886989739399044</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.095433907333614</v>
+        <v>9.237137040906504</v>
       </c>
       <c r="C7" t="n">
-        <v>0.811347707896652</v>
+        <v>0.4723333516690791</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.696314342036572</v>
+        <v>11.21765210251818</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4570248855719277</v>
+        <v>0.3876438283494485</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2816.215122835329</v>
+        <v>-3814.617971117498</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01166512203177014</v>
+        <v>0.007902008456528158</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1631.298592806742</v>
+        <v>-1248.304267612753</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02686102816002817</v>
+        <v>0.3378258941004179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-10364.29329494278</v>
+        <v>1852.021906391392</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1683035070807301</v>
+        <v>0.3899874037446589</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1787.27378469086</v>
+        <v>-36.71375321569086</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3940047085095829</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-18.35945451593289</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3487831330732076</v>
+        <v>0.223649150366947</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1861.830041274925</v>
+        <v>2775.579476368862</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03565852697163981</v>
+        <v>0.05354633166957815</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.63364238648091</v>
+        <v>-25.82772787259182</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4251059560374011</v>
+        <v>0.8936911149993163</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>457.8062747797601</v>
+        <v>330.708758878654</v>
       </c>
       <c r="C4" t="n">
-        <v>0.023673979049533</v>
+        <v>0.1808615640152965</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09039771609595516</v>
+        <v>-0.008444844264147405</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03010729339943733</v>
+        <v>0.8392419608841619</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.331042929537493e-05</v>
+        <v>8.839173034385484e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8280866456764211</v>
+        <v>0.1462845826832407</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.44860685440876</v>
+        <v>-14.50633282300878</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1315484648783519</v>
+        <v>0.2615281267047609</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.713992216132695</v>
+        <v>-6.548354301952237</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2341754086184094</v>
+        <v>0.6077506681508635</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2479.890081030003</v>
+        <v>-5674.713732439431</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008481060608444547</v>
+        <v>0.0008204631597725825</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1080.316349636142</v>
+        <v>-2438.234143317502</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0784156602505076</v>
+        <v>0.02322801693485729</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-15749.9427376097</v>
+        <v>6006.542003932168</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009866401625802573</v>
+        <v>0.01153783510349564</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3386.88407781465</v>
+        <v>37.59766422753458</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00813701479152344</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-31.96615388772403</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05902293441890909</v>
+        <v>0.2216413046627815</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2355.417929421854</v>
+        <v>-241.513614652612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03904729464064538</v>
+        <v>0.8863486907508097</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-81.8948932716205</v>
+        <v>-282.1650426714691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6144926813165115</v>
+        <v>0.1651106694830943</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>260.3437619833703</v>
+        <v>677.111447211736</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1510177793453867</v>
+        <v>0.03852600269492325</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06926150978810476</v>
+        <v>-0.06716689511501833</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07085773537084943</v>
+        <v>0.132396390643865</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.933712366456918e-05</v>
+        <v>1.323765333221508e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3967045571012034</v>
+        <v>0.8788218277241826</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8211507231490707</v>
+        <v>16.76516323608286</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9292635687471551</v>
+        <v>0.2197945154730463</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.822896318710775</v>
+        <v>15.02084196893374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5233805018892299</v>
+        <v>0.1782067409814036</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3346.373268501693</v>
+        <v>-3183.726710186828</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01065519467350978</v>
+        <v>0.008802799905583494</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1162.823167820331</v>
+        <v>-840.2450523168332</v>
       </c>
       <c r="C10" t="n">
-        <v>0.348225627289709</v>
+        <v>0.3194718367184996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5928.728389557848</v>
+        <v>4300.276357453893</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4326051554447622</v>
+        <v>0.03980382605281311</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2961.499750065157</v>
+        <v>-16.60300026851493</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07948826764965328</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-2.475858231221599</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.924988357162809</v>
+        <v>0.5458667331297744</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-22.24576835358585</v>
+        <v>853.7245714229562</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9903178809677963</v>
+        <v>0.7758592857416178</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.6489697799089</v>
+        <v>49.42511730417834</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3062544549758818</v>
+        <v>0.7794965032523906</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>422.9738310534871</v>
+        <v>281.2272461866908</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04001590261352056</v>
+        <v>0.4149715992094919</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02719113513658791</v>
+        <v>-0.03866276489952364</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4169342571587441</v>
+        <v>0.4033204061071471</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.427053986821527e-05</v>
+        <v>-3.954168412961437e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.784953023337291</v>
+        <v>0.5827153517315994</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.105909785853836</v>
+        <v>9.297116008970022</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4555083243076522</v>
+        <v>0.4702250545282473</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.17363688626361</v>
+        <v>20.33264477153023</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4010419228353784</v>
+        <v>0.1968217186395623</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1763.292214128245</v>
+        <v>-2205.835153735291</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0883038689244186</v>
+        <v>0.1292771770160572</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1316.318246770332</v>
+        <v>-1005.021550333884</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04521056251918072</v>
+        <v>0.3188679043075419</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11957.030120838</v>
+        <v>1060.032458342555</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05222234293539399</v>
+        <v>0.5694866478129408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>917.6054266190877</v>
+        <v>-19.24418301187113</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5395281202051412</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19.875886926787</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3946073595247164</v>
+        <v>0.5188375463162431</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2470.878265758789</v>
+        <v>2458.998555384004</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03524995580652627</v>
+        <v>0.1464207913274854</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.12024437755883</v>
+        <v>119.381458632673</v>
       </c>
       <c r="C3" t="n">
-        <v>0.920340648823224</v>
+        <v>0.6113529256124834</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>266.3050550732291</v>
+        <v>607.4192413372939</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2208145320829121</v>
+        <v>0.1116672020636338</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0590053144105033</v>
+        <v>-0.0604796330138958</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1568132848925744</v>
+        <v>0.3781791304033796</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.468109387469035e-05</v>
+        <v>3.115442902859139e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8212534988711533</v>
+        <v>0.7297894027828928</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.660303242785521</v>
+        <v>2.893965427866874</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5866018417571294</v>
+        <v>0.843968305676903</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.639536687591786</v>
+        <v>-1.021393098495111</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4092722681786287</v>
+        <v>0.9386096961830493</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3076.48405227245</v>
+        <v>-3216.774674657203</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02063915163789755</v>
+        <v>0.03092993544102316</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1598.605793795595</v>
+        <v>-1239.686490123423</v>
       </c>
       <c r="C10" t="n">
-        <v>0.067790083757424</v>
+        <v>0.5241292342643958</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-10847.19936351967</v>
+        <v>1599.345534160564</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1951600512931996</v>
+        <v>0.5667619342544404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2444.331718772288</v>
+        <v>-20.51725213107653</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1652049887748747</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-17.53556750505557</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3888442092815401</v>
+        <v>0.5002998656299051</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1948.748344067668</v>
+        <v>-1903.204663700311</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07547360969235005</v>
+        <v>0.687753549501794</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-321.4341957403624</v>
+        <v>-62.53889309239253</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1763620076437546</v>
+        <v>0.7661509812356042</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8043262054478</v>
+        <v>440.9389519185249</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2589439345283647</v>
+        <v>0.3111146679057699</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05931002032722439</v>
+        <v>-0.08989632018536678</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08572345205638121</v>
+        <v>0.1915429876079583</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.626929352353013e-05</v>
+        <v>-1.153683844900206e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2824131366489555</v>
+        <v>0.9032118389115524</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.768680568023974</v>
+        <v>22.04106759609341</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3355960850825813</v>
+        <v>0.3081682944508782</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.12470885857854</v>
+        <v>35.07561282196578</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07347094970298521</v>
+        <v>0.1941314080312183</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4933.496347139245</v>
+        <v>-1304.485152048849</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001862033180849521</v>
+        <v>0.5959938123752053</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2970.52451174665</v>
+        <v>-580.056452362591</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01652071851460665</v>
+        <v>0.6431130408550879</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5025.334705905978</v>
+        <v>-7.074589406911855</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4929445350814471</v>
+        <v>0.9978487013835917</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4667.551132041513</v>
+        <v>-17.35280833709088</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01587144368214366</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-1.766617774194259</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.931536721972075</v>
+        <v>0.5905846357371642</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1688.560633180911</v>
+        <v>2696.103782376375</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1820828041476194</v>
+        <v>0.09011798424832076</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9413089571051501</v>
+        <v>-181.4248631840717</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9956434372929832</v>
+        <v>0.3244030162286486</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>376.0874616355328</v>
+        <v>286.0586446617414</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07108442307355758</v>
+        <v>0.3153449216084081</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08971313551785538</v>
+        <v>-0.06515384584919309</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07967600035757558</v>
+        <v>0.1705178275362216</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.736152748664442e-06</v>
+        <v>5.692485103395246e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9562830642312903</v>
+        <v>0.5243493703430336</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.7174246378687</v>
+        <v>-4.949203613360785</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2915730079638558</v>
+        <v>0.6404381313671018</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.50578197155226</v>
+        <v>4.690972181935578</v>
       </c>
       <c r="C8" t="n">
-        <v>0.336142466251319</v>
+        <v>0.6328765361042127</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2817.678765099461</v>
+        <v>-3398.711545349372</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02698509942631819</v>
+        <v>0.008249473688956144</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1313.195083077833</v>
+        <v>-515.292785182276</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09834820205919555</v>
+        <v>0.571934575809386</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-14054.52926554948</v>
+        <v>1864.450169420777</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08341889525873644</v>
+        <v>0.24214086111531</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3512.433456506151</v>
+        <v>-0.8858901923069524</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06710710751623265</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-19.18852183854416</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3234673588514356</v>
+        <v>0.9746851549846771</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2357.74700185549</v>
+        <v>473.0583769484538</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04012307659805231</v>
+        <v>0.7722273391141156</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.36112658294351</v>
+        <v>-183.9280970751018</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8447071516884349</v>
+        <v>0.352402611555563</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>311.8847905698373</v>
+        <v>505.480209975539</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2405773943872022</v>
+        <v>0.1203894130215459</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06125638678850551</v>
+        <v>-0.06767002718326787</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1977057797632868</v>
+        <v>0.212365552555537</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.276305525203599e-06</v>
+        <v>2.009917050498249e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9258192121103666</v>
+        <v>0.7406442109002669</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.245675772471028</v>
+        <v>14.80718462781166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3566952970815339</v>
+        <v>0.2326581044592058</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.49197289217112</v>
+        <v>18.28556517105333</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3260369300283305</v>
+        <v>0.1125709285243901</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2832.03774735319</v>
+        <v>-3889.764785236396</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01397157241094629</v>
+        <v>0.002668094205686459</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1460.201550666268</v>
+        <v>-1632.796532511431</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08383458378744138</v>
+        <v>0.1369604661945486</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9192.890199049794</v>
+        <v>5826.212451895944</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2187572068609211</v>
+        <v>0.02160858410504823</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2354.809137575241</v>
+        <v>-23.81656341165957</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09788117729386273</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-24.6398952870081</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2234329216200298</v>
+        <v>0.3187912602308886</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2509.419847397739</v>
+        <v>1764.388481126105</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005485111704684726</v>
+        <v>0.3023424396102035</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-80.40427430572004</v>
+        <v>17.35324555678142</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4862219595290901</v>
+        <v>0.9332926620415989</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.3221315072716</v>
+        <v>681.3846101426992</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3022117962337134</v>
+        <v>0.06708057463693771</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05756931830776793</v>
+        <v>-0.08353116429788301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06332088200883658</v>
+        <v>0.08826715013874178</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.252218329277253e-05</v>
+        <v>7.513112801004547e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3480077116444815</v>
+        <v>0.9162174502049474</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.043071003731175</v>
+        <v>16.21168317983935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.733201535886595</v>
+        <v>0.1976173350901012</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.430408692425374</v>
+        <v>11.01996889207067</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2602902309888575</v>
+        <v>0.3311604755777928</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2741.650692533966</v>
+        <v>-3533.397846742612</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001434112843713665</v>
+        <v>0.008108099483015548</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1153.912526516459</v>
+        <v>-1133.551200577701</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07318096255957286</v>
+        <v>0.2520815188862212</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11159.02523475498</v>
+        <v>2009.935109913977</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03410879327919745</v>
+        <v>0.2873620279263523</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2637.246129473493</v>
+        <v>-50.72855221179469</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03167139825466054</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-1.554247565405561</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9255475154310855</v>
+        <v>0.06746728047002233</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1505.162563032961</v>
+        <v>2197.170374935844</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2008415826874383</v>
+        <v>0.3284788195180621</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.09020028093164</v>
+        <v>31.01468109335008</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8410473780692027</v>
+        <v>0.8970370490740076</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>308.086346695403</v>
+        <v>266.5457120901362</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08526720284976649</v>
+        <v>0.5353924572547537</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04230335179220826</v>
+        <v>-0.04929752545296656</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2389131473746425</v>
+        <v>0.3252405178889742</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.270620212282927e-05</v>
+        <v>3.322450864530816e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8083019368297197</v>
+        <v>0.9964313921180454</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.581179607031981</v>
+        <v>3.055713680966115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3448341234629415</v>
+        <v>0.8428827415197233</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.78557531613558</v>
+        <v>13.465416788987</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2059190486648345</v>
+        <v>0.3155954079431224</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2221.717359219311</v>
+        <v>-2732.550144170864</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02752831152109022</v>
+        <v>0.0564778863388507</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1245.925987048146</v>
+        <v>-734.8902743257891</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1153643031235801</v>
+        <v>0.5870690284435284</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12300.49072595685</v>
+        <v>2941.94324230981</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07896240846068552</v>
+        <v>0.2565873818869581</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3946.371282569064</v>
+        <v>-33.24375302815798</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02457024342088888</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-18.59579950652454</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2839843982032449</v>
+        <v>0.2116838090177076</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1386.075139543109</v>
+        <v>2881.048236550037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3744538214853084</v>
+        <v>0.07216895273639196</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>375.8614803412653</v>
+        <v>325.4169435931526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01620966562313983</v>
+        <v>0.1968971850978866</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>557.9204275686062</v>
+        <v>693.5984111729681</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001740003127708217</v>
+        <v>0.05120795757133616</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001771892742178205</v>
+        <v>-0.005626574749819493</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9536754615429566</v>
+        <v>0.9108487446631396</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.156712074999158e-06</v>
+        <v>-3.436848794706069e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9792641088045475</v>
+        <v>0.9602840944833382</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.152577056461404</v>
+        <v>-2.935198071188495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5275666301018131</v>
+        <v>0.8341485426976551</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.7708489805411</v>
+        <v>-15.91064436102235</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4135552723782476</v>
+        <v>0.2994023395287289</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1942.879969325473</v>
+        <v>-2839.641521087202</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04192510531863359</v>
+        <v>0.03207009943821829</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1377.17940493926</v>
+        <v>-1947.622327766065</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01224046332503046</v>
+        <v>0.2439401278198157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-13292.86940469277</v>
+        <v>512.1757985499898</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01595633871775061</v>
+        <v>0.8410013002103562</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>227.2451324385738</v>
+        <v>8.184864633966754</v>
       </c>
       <c r="C12" t="n">
-        <v>0.879557184800174</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>34.6510580162109</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1158991629457421</v>
+        <v>0.7714991225594796</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2528.549193934615</v>
+        <v>2583.830641172686</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03536362096657203</v>
+        <v>0.3931145858502135</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.43691727125179</v>
+        <v>-33.07627481975186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9089819151958349</v>
+        <v>0.8800638397360228</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344.9102782409846</v>
+        <v>287.604736835453</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06553461888143948</v>
+        <v>0.6643367814959931</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06229688817509677</v>
+        <v>-0.05424002681451889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08253772836169809</v>
+        <v>0.5059490791305856</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.706894234894014e-05</v>
+        <v>-1.15655038395449e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4684482427551692</v>
+        <v>0.9878604287654706</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.045338546372903</v>
+        <v>5.341330264324117</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9067775312677692</v>
+        <v>0.7821321475772826</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.049473896571783</v>
+        <v>14.37586752310423</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9241259245606599</v>
+        <v>0.3639510895734341</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2761.526927690375</v>
+        <v>-3013.004712170276</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009321554364481279</v>
+        <v>0.04513851059559403</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1218.050679326585</v>
+        <v>-1230.458867706811</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1441231203987278</v>
+        <v>0.3864274533083107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-14520.11201180019</v>
+        <v>2082.569939873181</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07874028248439864</v>
+        <v>0.5468354798773842</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2637.276932790783</v>
+        <v>-35.683714916694</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1243638987335964</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.6128869133543873</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.978076009448793</v>
+        <v>0.2250668762266777</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2370.598739021539</v>
+        <v>2543.537089826275</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02284832930753522</v>
+        <v>0.1648566416443898</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-112.330974338438</v>
+        <v>130.6069247220163</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4543501647557573</v>
+        <v>0.5507764911926654</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.7819894493342</v>
+        <v>440.5703253508125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2662186786104027</v>
+        <v>0.1920225059822729</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04566257021379952</v>
+        <v>-0.06449928707165795</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1902098442490758</v>
+        <v>0.2562689379907163</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.179763051009899e-05</v>
+        <v>-2.048885579937227e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8258417423916927</v>
+        <v>0.849025711240475</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.502871867391097</v>
+        <v>8.529324772897958</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4155988033244854</v>
+        <v>0.4895620511675329</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.32978627500756</v>
+        <v>7.611563394711069</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09916702392620777</v>
+        <v>0.5285661922594445</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4308.631488235491</v>
+        <v>-2902.568306325787</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001876871041413142</v>
+        <v>0.04142141029774454</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2098.448460090718</v>
+        <v>-1053.220292648205</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01301917772479546</v>
+        <v>0.3477204880922888</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1769.513013985186</v>
+        <v>1849.181645870109</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8325679146424736</v>
+        <v>0.3719326978116766</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3457.058744764989</v>
+        <v>-39.67661993264041</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03282987471993674</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-23.2663030607988</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2332692546260828</v>
+        <v>0.1526378469131804</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1209.960680645258</v>
+        <v>2842.764336933652</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5725391005878617</v>
+        <v>0.05934556379465253</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.49079797077428</v>
+        <v>-207.888920222545</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6397994237146534</v>
+        <v>0.3075629701396686</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.0870708363506</v>
+        <v>565.4869311839936</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0766573230550084</v>
+        <v>0.06520311509043351</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05634426836679224</v>
+        <v>-0.1308906816216851</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1537953629088318</v>
+        <v>0.01826090998112114</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.274328117352149e-05</v>
+        <v>0.0001551365579537167</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8395364218568995</v>
+        <v>0.06286427045985217</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.01625446249692</v>
+        <v>-12.51879933830087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3431355887224355</v>
+        <v>0.2636663081826255</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.35255976657317</v>
+        <v>-9.590161909436715</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3432620717682665</v>
+        <v>0.4146998622147805</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2191.30566292971</v>
+        <v>-3922.881327080983</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1040701940930323</v>
+        <v>0.0008185578083113575</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1390.924499243892</v>
+        <v>314.8649588686276</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06190895980379611</v>
+        <v>0.7455870411935825</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11724.58899055664</v>
+        <v>1879.640462798543</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0957510984477349</v>
+        <v>0.207525631570185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1728.148459917342</v>
+        <v>17.43961486201307</v>
       </c>
       <c r="C12" t="n">
-        <v>0.368139974305509</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-12.37784726570587</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5853746019830031</v>
+        <v>0.5369438624317951</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2494.341426389426</v>
+        <v>-2383.186252631142</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02311678184514496</v>
+        <v>0.225503245786135</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-28.49283626922511</v>
+        <v>-221.0077268280993</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8280794733985989</v>
+        <v>0.1268949562994295</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>568.6582315620365</v>
+        <v>626.9737698485006</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02533063451166367</v>
+        <v>0.02393780215655511</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1467479336389972</v>
+        <v>-0.05626220742502169</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01788556162100164</v>
+        <v>0.1008291964518451</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.040865994672777e-05</v>
+        <v>2.01233700985186e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3031779952747826</v>
+        <v>0.6846421515271546</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.73503777148283</v>
+        <v>24.87999038708119</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4008974413527948</v>
+        <v>0.02344989225094287</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.205662383778886</v>
+        <v>32.90394630684998</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5457173588020175</v>
+        <v>0.01089021200437331</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3885.04518066831</v>
+        <v>-3430.412354940705</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002107638082211721</v>
+        <v>0.005179392150296218</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-587.9096405480645</v>
+        <v>-1728.369306195706</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4608209040085151</v>
+        <v>0.03755034311252915</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6554.419719044927</v>
+        <v>3416.581951464127</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3263434203440917</v>
+        <v>0.03604950329796657</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2406.032420403975</v>
+        <v>-8.510284935878317</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09516776669798253</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-33.06807761747297</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1057292970253256</v>
+        <v>0.6644708499184719</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2361.823287645328</v>
+        <v>2013.687370510605</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0100516588254643</v>
+        <v>0.2053777784544622</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.88436042793808</v>
+        <v>162.7815177032813</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5030654986833976</v>
+        <v>0.5113887525451326</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.2999321865263</v>
+        <v>641.379166290729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4355823937224047</v>
+        <v>0.1013500417877336</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02399722447957714</v>
+        <v>-0.03509908495028069</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3968746422516426</v>
+        <v>0.5476618985334739</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.699165558413778e-06</v>
+        <v>5.886186759051418e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8657204384305044</v>
+        <v>0.9453796039513079</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.929808186885758</v>
+        <v>4.830683804267537</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6013438043649934</v>
+        <v>0.7525653951335319</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.16665765061819</v>
+        <v>-1.55997496556202</v>
       </c>
       <c r="C8" t="n">
-        <v>0.158953447209763</v>
+        <v>0.90905629142629</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2132.197244659934</v>
+        <v>-2850.950961263183</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01018611185989535</v>
+        <v>0.0604315589232207</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1825.632442188085</v>
+        <v>-1460.105825731449</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002946867447688871</v>
+        <v>0.4990979278269891</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-13349.88779441537</v>
+        <v>1783.213617829777</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01595478812287957</v>
+        <v>0.5727118108892086</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2458.723500014363</v>
+        <v>-16.42132759750965</v>
       </c>
       <c r="C12" t="n">
-        <v>0.047543723100003</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-15.59188616140689</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.267501541957771</v>
+        <v>0.6112662764177101</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1504.849234510235</v>
+        <v>3334.532389991789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2694283201857204</v>
+        <v>0.1124585217281064</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-15.47248395050099</v>
+        <v>88.11384856110146</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9229741356067098</v>
+        <v>0.6957834774977043</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>355.5405381329203</v>
+        <v>144.8220287226518</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1779572253912995</v>
+        <v>0.7540527416209633</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05763304659478515</v>
+        <v>-0.05499157256722281</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2214872697835712</v>
+        <v>0.4356854473259439</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.041350820666476e-05</v>
+        <v>7.403148398001634e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.911158724969389</v>
+        <v>0.925266304020315</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.876813411728627</v>
+        <v>-0.1279676451690648</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3152541483241262</v>
+        <v>0.9930117516521144</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.2337485468194</v>
+        <v>13.62807560144089</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2458366539672953</v>
+        <v>0.3021645453216313</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2428.410347314936</v>
+        <v>-3291.926428492408</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05628138049301535</v>
+        <v>0.02134993298719739</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1182.804881627945</v>
+        <v>-974.3028305285216</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2142853619469263</v>
+        <v>0.5144066741070333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11534.15234077173</v>
+        <v>1961.841094380207</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1342722147167681</v>
+        <v>0.3696941300908786</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3574.234875739119</v>
+        <v>-43.50517000074947</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05607406231515596</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-23.80514979696737</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2751195890317737</v>
+        <v>0.1289400001320286</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2874.428929212912</v>
+        <v>3580.543804828359</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009019641651850359</v>
+        <v>0.01100291624201643</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.59323959320898</v>
+        <v>558.6366802150199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8523454972230837</v>
+        <v>0.01651952404802167</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>292.3258774899085</v>
+        <v>796.6025217487468</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1478557340976449</v>
+        <v>0.007258625301138788</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05465862295093933</v>
+        <v>0.001921135778259864</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1313727207026087</v>
+        <v>0.9591247760820958</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.522509264589375e-05</v>
+        <v>-5.032626431106176e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4388152981848589</v>
+        <v>0.3380969267991087</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.314502346799312</v>
+        <v>-2.606156809608386</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6113035973679473</v>
+        <v>0.7782926812669304</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6034533166407137</v>
+        <v>-24.36298122362466</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9600391413295569</v>
+        <v>0.0637282414002836</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3316.016586879294</v>
+        <v>-2105.441265039861</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006343174027216033</v>
+        <v>0.02511190650426987</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1592.471688874969</v>
+        <v>-1743.58836873799</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07909410380648497</v>
+        <v>0.06501075245506675</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8824.621227217478</v>
+        <v>-603.654741686847</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2576929704251953</v>
+        <v>0.7135386521192897</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2521.167355146308</v>
+        <v>-1.247519561285017</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09884370136375803</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.463661012038727</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7361763360953271</v>
+        <v>0.9518838789048235</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2826.875220168522</v>
+        <v>130.1297247349485</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01135106029907707</v>
+        <v>0.9303807407932059</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.59738158602795</v>
+        <v>-340.8175128689476</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7676391132801523</v>
+        <v>0.09364956491926406</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403.1547373668533</v>
+        <v>512.1823654707282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02685346317501772</v>
+        <v>0.07304989604342341</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.140519204127502</v>
+        <v>-0.06871558433398545</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01721313458824592</v>
+        <v>0.09118293544819416</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.609770492623686e-05</v>
+        <v>4.213858948720328e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1195850146113871</v>
+        <v>0.4634461458711635</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6716233250081736</v>
+        <v>10.34385495036455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9200370597664365</v>
+        <v>0.3584085663717752</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.267131315672387</v>
+        <v>13.04183465618402</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4204470422286302</v>
+        <v>0.2174549542331396</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3313.059700516478</v>
+        <v>-3762.388137928933</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003176229268390872</v>
+        <v>0.002668990469559597</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-341.6570715937214</v>
+        <v>-1133.04232280197</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6532353534759012</v>
+        <v>0.2391368691032804</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11752.49939731812</v>
+        <v>5399.255952994509</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06559317661695643</v>
+        <v>0.02115914176010304</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3193.417728787678</v>
+        <v>5.871750446841432</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02624669075212039</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-34.88061727880591</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05336751976982019</v>
+        <v>0.8091957508903687</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1784.575005103534</v>
+        <v>1835.297051064644</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3029211023501966</v>
+        <v>0.234756744338533</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-12.50505860138477</v>
+        <v>-105.6711382926052</v>
       </c>
       <c r="C3" t="n">
-        <v>0.913849911211627</v>
+        <v>0.5390657016215894</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224.9272309812817</v>
+        <v>756.7286656062315</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1492206383223463</v>
+        <v>0.02905210963144898</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05362010479659939</v>
+        <v>-0.1125378379577736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08968170375759002</v>
+        <v>0.06009654175611111</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.179201505214915e-05</v>
+        <v>8.947566933863041e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8084495307688148</v>
+        <v>0.3493012129376507</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.77131372813605</v>
+        <v>12.00878799546312</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2387356315613364</v>
+        <v>0.2950658612153194</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.74774125181308</v>
+        <v>12.10631996494173</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1275991141974916</v>
+        <v>0.2486090903486764</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2273.479174018553</v>
+        <v>-4264.389764109465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03508252448341687</v>
+        <v>0.003715648713401349</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1743.21178315026</v>
+        <v>-643.6283832155523</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006428208221578849</v>
+        <v>0.5091045728722827</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-13398.82689012433</v>
+        <v>2434.736907648083</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01814371777769605</v>
+        <v>0.1478760092728197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1388.670572537965</v>
+        <v>-57.31318648530073</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3498907899418673</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-18.85524789012568</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2964529594600617</v>
+        <v>0.03740457328860061</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2574.389646698554</v>
+        <v>-799.5190794652755</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009208659535322093</v>
+        <v>0.6784118542070998</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-135.9157102816413</v>
+        <v>56.44392959772847</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3375046254186483</v>
+        <v>0.6998857498918177</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.16385800694172</v>
+        <v>443.4666221331747</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5881912263711987</v>
+        <v>0.04955752014743869</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04775042856434066</v>
+        <v>-0.02027330819376844</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1089912663096435</v>
+        <v>0.531077984741788</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.174847756784292e-05</v>
+        <v>3.563851267813665e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4905035142501166</v>
+        <v>0.9395703724992823</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.914145579424435</v>
+        <v>5.115198901397196</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6213927938020559</v>
+        <v>0.5625664755916326</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.25306750558811</v>
+        <v>15.1175733269102</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06231218186273099</v>
+        <v>0.1565472706525481</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3619.980562013979</v>
+        <v>-2845.068971707273</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001230597911654052</v>
+        <v>0.00914355657036107</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2233.503651292646</v>
+        <v>-1574.037573657446</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003620164047236891</v>
+        <v>0.05367142200786386</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9232.6479493484</v>
+        <v>2235.399097920572</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1344139043329704</v>
+        <v>0.154917384474257</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3395.428706699968</v>
+        <v>29.80299923665325</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02111059654927853</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-14.25629637178458</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3494128098912054</v>
+        <v>0.2382742144826423</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2621.716454283442</v>
+        <v>-2217.099869078269</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02284314747758309</v>
+        <v>0.4956989711069602</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.74238114324112</v>
+        <v>-52.22860932382935</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5871118963770812</v>
+        <v>0.7820138541752956</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340.3040258669674</v>
+        <v>304.8560343064894</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07317266801919427</v>
+        <v>0.3906845964482685</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04789030101294495</v>
+        <v>-0.06152054377176705</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2213905384781212</v>
+        <v>0.2027091913411873</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.890823182306776e-05</v>
+        <v>-5.902020238094325e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7252175007503336</v>
+        <v>0.4647943798340018</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.586165389029887</v>
+        <v>24.64873521492805</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8387988510729478</v>
+        <v>0.1481833180362301</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.260395929623058</v>
+        <v>39.18482203140962</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6966532972116128</v>
+        <v>0.09430733180519378</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2857.960398837165</v>
+        <v>-1059.348008052569</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01091152326347201</v>
+        <v>0.5456715835253374</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1539.263400121033</v>
+        <v>-1007.852208591647</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04317648492429714</v>
+        <v>0.3280299759040882</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9534.332054127795</v>
+        <v>-108.061989455633</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2111901841732013</v>
+        <v>0.9637521766975122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1988.283660712754</v>
+        <v>-10.86033689692202</v>
       </c>
       <c r="C12" t="n">
-        <v>0.238956788740692</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-13.56433716347399</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4955212188972323</v>
+        <v>0.6961871341118245</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3640.413264760466</v>
+        <v>3695.652304451441</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001825802102355627</v>
+        <v>0.05956110359712665</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>362.4279800125412</v>
+        <v>226.676089148071</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04688618982450007</v>
+        <v>0.3886754118603275</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>529.3550135465334</v>
+        <v>304.029090575772</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006946822527046624</v>
+        <v>0.3823695518244085</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01536634226598357</v>
+        <v>-0.05213884965890733</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6843335030327643</v>
+        <v>0.3035738429188654</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.243650686988271e-05</v>
+        <v>2.103707802916002e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4431253922222743</v>
+        <v>0.7592200458972128</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.05634138368983</v>
+        <v>-5.961692856539894</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1503548849375264</v>
+        <v>0.6974222101006473</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-20.23280530302341</v>
+        <v>0.1320704744132897</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1438022012171491</v>
+        <v>0.9940003671085487</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3239.626712607786</v>
+        <v>-2663.226412857027</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003299735968229667</v>
+        <v>0.06558399727554448</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1467.452305615091</v>
+        <v>-856.260126856544</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01975076671524681</v>
+        <v>0.4240553923433645</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11619.82625791818</v>
+        <v>1757.75540971785</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06101253885275237</v>
+        <v>0.4006135907041468</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1380.077687711348</v>
+        <v>-26.93715750846845</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2826159047415571</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19.70764175873389</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.35967433733225</v>
+        <v>0.4089602598011975</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2117.161286121746</v>
+        <v>496.5252440418708</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08746586169864702</v>
+        <v>0.793865437119358</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-30.32941827405773</v>
+        <v>-213.9869644562079</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8334573700815504</v>
+        <v>0.3387268974147934</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.9716412400537</v>
+        <v>480.1573313045122</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2665845981583476</v>
+        <v>0.164606971385386</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0436219412215095</v>
+        <v>-0.04590265869250236</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1709732567408359</v>
+        <v>0.3483941141185845</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.49124953011464e-06</v>
+        <v>-3.52562173499607e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9413590364937749</v>
+        <v>0.7338396577476429</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.01068220007005</v>
+        <v>17.16597632151404</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4098088859175432</v>
+        <v>0.2309886041910432</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.06284236446392</v>
+        <v>19.91291678971532</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1012586818418297</v>
+        <v>0.1328859427233682</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2521.37775337698</v>
+        <v>-3570.763065999648</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007503950043339131</v>
+        <v>0.01247914580238777</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1592.888313131932</v>
+        <v>-1942.909185521492</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02409576516871349</v>
+        <v>0.085119317286916</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-14807.56027035672</v>
+        <v>5505.049356842349</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02510648513754061</v>
+        <v>0.04400166705729903</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3441.357033955026</v>
+        <v>-22.34722410504762</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04770338097160903</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-22.43430449570037</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1980596341419658</v>
+        <v>0.3505502346102108</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2358.613565776195</v>
+        <v>-469.6923124916984</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0300596348684351</v>
+        <v>0.8961686532801794</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-42.72600823062299</v>
+        <v>159.2856992966014</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7656566242874946</v>
+        <v>0.4836928117770247</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.1195861535007</v>
+        <v>619.7478754750618</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3089888902619308</v>
+        <v>0.1525098426769902</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06129614389960059</v>
+        <v>-0.05122408796631248</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07251319103793788</v>
+        <v>0.4588709378999209</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.713428707167388e-06</v>
+        <v>-2.004234360448052e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8469032109894963</v>
+        <v>0.7993344923078465</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.242472277428091</v>
+        <v>13.20191128895769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5894898977957603</v>
+        <v>0.3448581059966153</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.840411773747313</v>
+        <v>13.20356337132858</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3188914293377787</v>
+        <v>0.5080732422379461</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2946.497630240736</v>
+        <v>-2211.344062392606</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01236895989564345</v>
+        <v>0.2604449279318682</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1782.076055627879</v>
+        <v>-670.1019004950881</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07079813447848132</v>
+        <v>0.7671556385780879</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-10377.68558977385</v>
+        <v>1076.839101136181</v>
       </c>
       <c r="C11" t="n">
-        <v>0.139204901974707</v>
+        <v>0.6653288495145444</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2643.27255900127</v>
+        <v>-9.958382505608597</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07634738856167907</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-5.07639845852394</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8137590734466339</v>
+        <v>0.7640628778709805</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>368.8440085595039</v>
+        <v>1488.150432848357</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8508160101947111</v>
+        <v>0.282491935651043</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.05459627105586</v>
+        <v>-169.8677275928471</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7656847759126394</v>
+        <v>0.3755698973819805</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.9819394396316</v>
+        <v>387.8755235697606</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05628745054151056</v>
+        <v>0.1874256899237881</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08942310894652557</v>
+        <v>-0.05979103601692121</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07911300576495726</v>
+        <v>0.1852776660290319</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.546166100514085e-05</v>
+        <v>4.039659183619886e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8015176298382212</v>
+        <v>0.5349422964724415</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.70102591122594</v>
+        <v>0.1160875540282209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1658205965222051</v>
+        <v>0.9911378211255669</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.81255944109667</v>
+        <v>4.266898094891118</v>
       </c>
       <c r="C8" t="n">
-        <v>0.21352369192984</v>
+        <v>0.6718118699883743</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2620.672154075613</v>
+        <v>-3039.293773257932</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03453042731041853</v>
+        <v>0.01038067461546742</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-987.0320127035197</v>
+        <v>-639.6798479481708</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2144607317636545</v>
+        <v>0.4872916430250569</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-10482.45588911008</v>
+        <v>2831.171165399212</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1269524123482833</v>
+        <v>0.0966081559041868</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1930.295544819135</v>
+        <v>9.442312214349634</v>
       </c>
       <c r="C12" t="n">
-        <v>0.22444814131664</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-11.99434776750376</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6054700579215355</v>
+        <v>0.7366944715823405</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Nimes.xlsx
+++ b/outputs/ML_Results/dist_LR/Nimes.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ26235275" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ26434645" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ26625727" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ26820483" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ27019999" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ27208928" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ27402681" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ27600865" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ27803481" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ28007394" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ28209007" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ28453666" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ28753375" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ29025899" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ29278608" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ29580227" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ29849614" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ30208659" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ30491829" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ30742103" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ31011594" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ31266595" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ31512589" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ31760812" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ32070712" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ32327139" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ32599689" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ32902711" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ33192527" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ33440266" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ33719625" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ33968082" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ34205682" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ34458718" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ34713996" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ34973876" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ35235018" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ35487211" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ35761383" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ36096284" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ36338874" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ36613642" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ36863660" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ37164557" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ37517255" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ37784748" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ38040503" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ38281842" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ38536623" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ38786945" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ09779051" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ09981079" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ10175210" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ10372236" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ10584754" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ10802780" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ11340166" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ11709331" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ12047680" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ12355483" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ12718705" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ13008552" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ13262608" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ13558815" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ13834316" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ14093341" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ14380891" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ14640520" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ14901562" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ15143086" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ15412430" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ15683743" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ15951351" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ16244119" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ16525019" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ16785037" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ17092010" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ17378411" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ17650590" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ17908028" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ18202380" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ18464132" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ18701792" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ18952638" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ19209193" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ19508190" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ19796391" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ20057376" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ20297499" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ20577443" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ20821484" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ21073506" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ21392030" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ21647895" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ21909437" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ22206236" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ22458399" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ22721146" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ23014133" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ23328844" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Nimes.xlsx
+++ b/outputs/ML_Results/dist_LR/Nimes.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ09779051" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ09981079" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ10175210" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ10372236" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ10584754" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ10802780" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ11340166" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ11709331" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ12047680" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ12355483" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ12718705" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ13008552" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ13262608" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ13558815" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ13834316" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ14093341" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ14380891" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ14640520" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ14901562" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ15143086" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ15412430" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ15683743" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ15951351" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ16244119" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ16525019" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ16785037" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ17092010" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ17378411" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ17650590" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ17908028" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ18202380" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ18464132" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ18701792" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ18952638" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ19209193" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ19508190" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ19796391" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ20057376" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ20297499" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ20577443" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ20821484" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ21073506" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ21392030" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ21647895" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ21909437" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ22206236" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ22458399" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ22721146" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ23014133" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ23328844" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ40729593" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ41079986" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ41412584" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ41708218" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ42063367" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ42479529" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ42798994" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ43144876" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ43543076" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ44099152" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ44624468" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ44960809" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ45427932" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ45740564" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ46045832" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ46412651" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ46692462" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ46937961" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ47192384" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ47453488" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ47758109" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ48042085" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ48328468" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ48628372" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ48951437" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ49295024" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ49568031" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ49863672" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ50170361" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ50458844" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ50764010" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ51084163" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ51542060" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ52000965" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ52547796" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ52895491" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ53208981" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ53549679" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ53851019" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ54155807" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ54455198" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ54792328" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ55080277" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ55371925" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ55619252" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ55980254" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ56269579" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ56550920" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ56784103" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ57029558" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,140 +507,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1910.875651243221</v>
+        <v>-663.4919721397891</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2934524068291165</v>
+        <v>0.6176613399248408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.94733368773859</v>
+        <v>959.4947467947669</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7281205470923089</v>
+        <v>0.001941303879772848</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.4415293686761</v>
+        <v>-0.05832887453368857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2954275807216972</v>
+        <v>0.3060293433250559</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05871744133696483</v>
+        <v>4413.069102616835</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3466543049087433</v>
+        <v>0.2863802208342373</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.141849189623527e-05</v>
+        <v>1691.321098487183</v>
       </c>
       <c r="C6" t="n">
-        <v>0.850776387616181</v>
+        <v>0.1209244915954386</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.127975252607413</v>
+        <v>630.7601641832133</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7176915964659671</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.418619346005528</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5177720551046761</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2695.895287083048</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.126424542966584</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1054.3087005415</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4008828158523235</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3219.146143188166</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1743012153445522</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-29.63726481550501</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3281307052191786</v>
+        <v>0.04971097656013261</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,140 +621,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1894.474523522367</v>
+        <v>79.43837635906652</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1539956063909982</v>
+        <v>0.956338792575088</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-92.16847033217982</v>
+        <v>529.7518567201828</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5098227973546188</v>
+        <v>0.03143196399243867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>872.0208274978313</v>
+        <v>-0.05876560929112996</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008007251982361727</v>
+        <v>0.3326450323682574</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1403930032118116</v>
+        <v>10325.38018269274</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006215762559616839</v>
+        <v>0.01173131888776805</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001247429242981799</v>
+        <v>1278.731417313576</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05991924503507712</v>
+        <v>0.2601456267282342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.40238063551143</v>
+        <v>319.6980067201605</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2688745848816798</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.42387662779958</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1861254078364844</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4264.263466397593</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0002499410383699984</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-177.0895944782933</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8271610092902367</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2752.90704416824</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0652774620577692</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-70.14179451903237</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.007894743361518014</v>
+        <v>0.1334429185936755</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,140 +735,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>948.2648446071867</v>
+        <v>1020.220577301389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6525655775804186</v>
+        <v>0.5737986151955251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-93.01502880591647</v>
+        <v>632.2962075067355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6984803660498317</v>
+        <v>0.02486555219812277</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>694.0109969505118</v>
+        <v>-0.05557908026594893</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1706277560836317</v>
+        <v>0.3350431035193738</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06733074950745604</v>
+        <v>4076.909647681943</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2153909829659287</v>
+        <v>0.3959562571254192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.099954966460846e-06</v>
+        <v>453.7783271091084</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9889913490464946</v>
+        <v>0.7265477090649508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.64747918681729</v>
+        <v>424.4324227056323</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3782374963454346</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.2857004929723</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3751132089654341</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3130.834330309754</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.022876209610342</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-485.8967830224997</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7058978232898094</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3897.279120041762</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1359097521376031</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-40.86428482507139</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2014449556877112</v>
+        <v>0.04517606283803318</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,140 +849,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-238.2407649118986</v>
+        <v>1216.187860328316</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9345656862866484</v>
+        <v>0.4490182751769971</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-81.18682866154381</v>
+        <v>454.6761467802259</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6264698291016667</v>
+        <v>0.1224350236091026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>744.1897289541414</v>
+        <v>-0.121127498328576</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07011205649711198</v>
+        <v>0.1075414594700653</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09176306265510728</v>
+        <v>7331.12274981695</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08827896154142724</v>
+        <v>0.1220665189039041</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.92049044260192e-05</v>
+        <v>2317.281831749656</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5997872579714351</v>
+        <v>0.1170066539194777</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.966820797674</v>
+        <v>12.9459483225213</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1865043195188659</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20.83914398432509</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1351841768670423</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3365.581725461872</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02211488293125879</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-724.4925187670469</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4756495486357166</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1533.735166672443</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3838202485380143</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-36.5878930241721</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2003053918238242</v>
+        <v>0.9647544752463784</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,140 +963,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1665.573510801109</v>
+        <v>821.4901496283483</v>
       </c>
       <c r="C2" t="n">
-        <v>0.281536338780946</v>
+        <v>0.5490595364288433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-144.8790082536638</v>
+        <v>493.0291486230833</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5259684422222564</v>
+        <v>0.05708801938898454</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>497.0313160009352</v>
+        <v>-0.06926191834930072</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1420753703389606</v>
+        <v>0.232079828936618</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1024929843134731</v>
+        <v>8820.045039624572</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1068459788789687</v>
+        <v>0.0266853216935261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.961619460835644e-05</v>
+        <v>830.0806646162431</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3458731523221847</v>
+        <v>0.4406386549905251</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.328212662974</v>
+        <v>259.8150898495709</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8606111613636211</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.881146412419582</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8824255488694982</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3768.733307834081</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01518241470548536</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-567.4151189300919</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5797092890524085</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2761.147248911318</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.17075255766989</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3.625916951959564</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9138104178660234</v>
+        <v>0.2600957517374077</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,140 +1077,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2406.3340874929</v>
+        <v>-156.7060709687319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1320738466154322</v>
+        <v>0.8936755250708295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-152.7170547720202</v>
+        <v>591.7894597974523</v>
       </c>
       <c r="C3" t="n">
-        <v>0.520151700847115</v>
+        <v>0.00355066362547309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.5526136253295</v>
+        <v>-0.05647585039165171</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5658366597312083</v>
+        <v>0.1899810112088035</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04293965183451612</v>
+        <v>14151.75211613896</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3561028052458103</v>
+        <v>0.0002406795242119085</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.23983716752101e-05</v>
+        <v>1259.924122655161</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7217476865866499</v>
+        <v>0.1783002626909048</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.831105052892099</v>
+        <v>207.5766997843305</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7474768228286943</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.5540018716946</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1265501973137884</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4225.89251796734</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.007161418947647653</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2365.311772932019</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1369106019572408</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3970.735523524549</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05335056870339127</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-17.47514856029528</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4506253068605173</v>
+        <v>0.2006673222265591</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,140 +1191,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3368.103799972107</v>
+        <v>181.8119963843947</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01682418914369803</v>
+        <v>0.9014765460135838</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>450.9749390042091</v>
+        <v>625.9222597031813</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03484353896168173</v>
+        <v>0.01827176698513332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>807.0673976468299</v>
+        <v>-0.06772972904753488</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007926132273798941</v>
+        <v>0.2450124451211701</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001906994666634382</v>
+        <v>10201.08596544452</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9617309275908987</v>
+        <v>0.0222251456139451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.595542873759014e-05</v>
+        <v>1292.509671171425</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3145545029079077</v>
+        <v>0.2753553143250329</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.114327598542962</v>
+        <v>225.0957657501359</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8181935131582772</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-19.76566086552726</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1234685816001579</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2611.256102586363</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.006104424588747625</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2084.975493631071</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03407445955245818</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-1223.034998231138</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4732593783500573</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.395134756431176</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8769778605544125</v>
+        <v>0.2968355521194782</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,140 +1305,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1557.442976137611</v>
+        <v>646.4883753016602</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3128410284080721</v>
+        <v>0.635120518912637</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-160.6759378162317</v>
+        <v>479.419988098576</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5005496860953216</v>
+        <v>0.01940965709166109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>303.8093609982275</v>
+        <v>-0.06959698659564095</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3644313343113986</v>
+        <v>0.08548848156743445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05390183126891067</v>
+        <v>13074.86595953923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2646159512060359</v>
+        <v>0.0009764403756167614</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.716755404648124e-05</v>
+        <v>882.7289294968732</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6175623742836426</v>
+        <v>0.3575590353210825</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.04963790015805</v>
+        <v>171.9451003684792</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5280315422049522</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.94314269603872</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.21943318302361</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4173.475777707819</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01049055437099127</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2120.853030851352</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09893397499585463</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4553.145876318027</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0561595450327815</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-11.46337654236314</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6604740809198083</v>
+        <v>0.2357371121993326</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,140 +1419,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>763.4994038273649</v>
+        <v>601.8688779497124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7312538563742055</v>
+        <v>0.6805548630637146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-217.9997426580829</v>
+        <v>498.5222818454379</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4398498959467346</v>
+        <v>0.04703514019866249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>504.8031268131091</v>
+        <v>-0.1038774573883738</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1843412253793212</v>
+        <v>0.1538001335730071</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06944204779401923</v>
+        <v>10067.61216704635</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1619868525533875</v>
+        <v>0.02298377764792965</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.540350736158787e-05</v>
+        <v>1681.860990673481</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5468746776697639</v>
+        <v>0.1963241943178756</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.86332985688766</v>
+        <v>147.9721503688894</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7930081624512528</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5.253221232176582</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7156366081149026</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3059.19958189192</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.008514632648854208</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-534.362218256987</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6210949641705472</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3751.559928239048</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1338519630153098</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9.398124122331893</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7739469506504353</v>
+        <v>0.5462516331118319</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,140 +1533,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-720.4937578770696</v>
+        <v>551.9155643153817</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8693811953251382</v>
+        <v>0.7174841148157767</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.500935825924671</v>
+        <v>598.943136737298</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9950586714552827</v>
+        <v>0.02013359116376286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>528.4155127979193</v>
+        <v>-0.06968362529193413</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1547359433040166</v>
+        <v>0.2256523220760278</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06360484132136163</v>
+        <v>8993.514740959847</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3243521122642862</v>
+        <v>0.0498131841607926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.232852480011822e-05</v>
+        <v>1065.203649464632</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9265044410778314</v>
+        <v>0.3555087378592289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44727954004884</v>
+        <v>209.6895413316562</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4632234461986691</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>23.23810159621746</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3727501014982009</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2066.356581671986</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3065549329625473</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-806.1930378162178</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5142474971224669</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1124.177680154822</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7305534666477584</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-17.39739614410821</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6481548318121408</v>
+        <v>0.3464453790384295</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +1615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,140 +1647,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2349.062738302052</v>
+        <v>500.9595581767881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1237368029406843</v>
+        <v>0.7579051774228056</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-78.97796735212893</v>
+        <v>580.5374026668467</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6417385280003276</v>
+        <v>0.07790940114842369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>750.4566293255552</v>
+        <v>-0.06816545839626621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04461490476292745</v>
+        <v>0.2859896068381106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1679404121358502</v>
+        <v>9203.267057683992</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02450401427662002</v>
+        <v>0.04643920910703343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001014712847815229</v>
+        <v>1086.41375056456</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1208078364784415</v>
+        <v>0.3784066546475875</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.65868460467882</v>
+        <v>230.0433848000002</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3268428802432313</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.556950824418628</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3169987939275117</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4554.28854633661</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.001215134372771028</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-335.6043213706253</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7504791408778826</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2031.449246184056</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1973432965327767</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-59.31764289619963</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01593776089165905</v>
+        <v>0.365613410554539</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +1729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,140 +1761,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2111.359818525294</v>
+        <v>263.363658053381</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2137094071396691</v>
+        <v>0.8619752381442294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-276.7500967458758</v>
+        <v>476.1432752364002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3293249962561593</v>
+        <v>0.07700860034873806</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>260.5414108895925</v>
+        <v>-0.07167340156879209</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4695445331021367</v>
+        <v>0.2069870550599191</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0819737591862171</v>
+        <v>10290.90590838712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1072921453786769</v>
+        <v>0.01573203248514028</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.837905571234064e-05</v>
+        <v>1160.446934916788</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4914686725829975</v>
+        <v>0.342659413463233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.976110211753713</v>
+        <v>337.3352205470259</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8015334045122311</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.879257411783002</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8123812044224672</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3654.078002661619</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.005617335289829007</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-951.0539704806342</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3944666271509345</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1975.998641092672</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3051644661533536</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.16168700502752</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5510940023263476</v>
+        <v>0.1339751709473512</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +1843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,140 +1875,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2282.946655656634</v>
+        <v>-517.6576785200164</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1543215689159799</v>
+        <v>0.6830999800633877</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134.5584426702186</v>
+        <v>807.5420277915309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5104525551113102</v>
+        <v>0.001491288833597849</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>683.9636328888247</v>
+        <v>-0.03482755930920296</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07731719582987784</v>
+        <v>0.4898153709224216</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03226454704398179</v>
+        <v>5910.088079635874</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5490554344619304</v>
+        <v>0.1182494307139278</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.066710907208997e-05</v>
+        <v>1416.638408176944</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6627172341303909</v>
+        <v>0.2084317685172886</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.29964610856693</v>
+        <v>544.9742930144894</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3534401384091229</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-1.327166800960967</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9183731945809985</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3164.332294258344</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.008182819665774723</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2005.085087874486</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1179909545588695</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>483.5882266446206</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.814327206898662</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-18.627313712952</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.509797121003895</v>
+        <v>0.01036165317224113</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +1957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,140 +1989,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2085.387356841831</v>
+        <v>439.6955386405966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2183457515143356</v>
+        <v>0.7662516518776987</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>139.3197346259265</v>
+        <v>517.4144533696967</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5599229238698513</v>
+        <v>0.0409355900567463</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.1448769177332</v>
+        <v>-0.04140127490980146</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3371470317399496</v>
+        <v>0.4959461470238631</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06019875192985526</v>
+        <v>9791.569602047895</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2573693737090434</v>
+        <v>0.01782042328468707</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.221852361960556e-05</v>
+        <v>344.1856736794757</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8744913229392088</v>
+        <v>0.7815740029716938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.070971234507681</v>
+        <v>346.3096159090166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.649016587143094</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.01013461593993</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5140686612360876</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1942.72685959611</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2289796486309637</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-804.7451462745871</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4835540840847784</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2627.773893772401</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2322130825558543</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-35.59402740387162</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.23702822146307</v>
+        <v>0.1172827340428112</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,140 +2103,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2552.779904623395</v>
+        <v>84.81860080288925</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1476161330522385</v>
+        <v>0.9451348422106223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.96191928455107</v>
+        <v>715.9156543555771</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6793540407999044</v>
+        <v>0.007329821261304521</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.6114398702639</v>
+        <v>-0.06490750737127096</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3872070483141902</v>
+        <v>0.2476929698907358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07472223563892189</v>
+        <v>4603.99674488217</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4950773525020286</v>
+        <v>0.2507176488305781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.657153911374063e-05</v>
+        <v>1468.097637130414</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8827864914140957</v>
+        <v>0.1480912389519557</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.345761966400168</v>
+        <v>516.737897285831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5016042557440332</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.99730240554091</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3721645876494384</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3828.477477287957</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1182322731456479</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1296.360945123895</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3607463690702506</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2067.884508366329</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2898876142296651</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-42.28342530516989</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1406664466411995</v>
+        <v>0.01528317759773174</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +2185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,140 +2217,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2869.945265883836</v>
+        <v>1780.024473783329</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04572247069100305</v>
+        <v>0.445437665806376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-262.0921917330932</v>
+        <v>422.4066148735748</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1477525385364231</v>
+        <v>0.1747618018025334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278.7352872064689</v>
+        <v>-0.09048232320219873</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2810911203251618</v>
+        <v>0.2063776702878293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1170506965098436</v>
+        <v>7452.340931491894</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02472516101454374</v>
+        <v>0.1697246950040971</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000106056905240585</v>
+        <v>601.1096077391319</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1114828868390675</v>
+        <v>0.6460289117604376</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.937599610754766</v>
+        <v>166.9847914076848</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5391173760562349</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3.807424096470541</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6867587509107433</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4253.191179356508</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.000659794554350427</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-715.8819290782749</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4799064417020176</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2359.945982896799</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1973112029744396</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7.070599205481557</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7973415164455004</v>
+        <v>0.4832942635497177</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +2299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,140 +2331,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1439.373149394642</v>
+        <v>66.94921208410869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6400185721155849</v>
+        <v>0.9601723722777959</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>397.3278981480686</v>
+        <v>613.4959417511516</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1454860875523645</v>
+        <v>0.01046603177326431</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.5342459253989</v>
+        <v>-0.07097661393721587</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2160531023970139</v>
+        <v>0.1768197091526392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01309229229508191</v>
+        <v>11441.28653064654</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7598586110331892</v>
+        <v>0.008381197551577915</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.209180663345376e-06</v>
+        <v>1696.211041395147</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9840095607298621</v>
+        <v>0.1209372382236404</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.458536860434009</v>
+        <v>166.6826428750986</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8176738185211011</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.9371580702635</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3490883863030876</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-679.4033974886347</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6578859361980829</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>693.2662796623251</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6012336246873923</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>23.81732665921845</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9916987081397786</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22.7740895111743</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4742241755284273</v>
+        <v>0.3922863857655664</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +2413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3550,140 +2445,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>896.0535479260989</v>
+        <v>355.7328676793325</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4532964278070791</v>
+        <v>0.7812298841506043</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.54474061553461</v>
+        <v>553.5559627296263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8701867275084991</v>
+        <v>0.01552722682379191</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1052.529472401061</v>
+        <v>-0.07477467906979332</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004232746558866277</v>
+        <v>0.1505188568995296</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03993417173848303</v>
+        <v>12428.70095841414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4307520758448234</v>
+        <v>0.003827162098227568</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.960394208795296e-06</v>
+        <v>1143.56244786103</v>
       </c>
       <c r="C6" t="n">
-        <v>0.941020406204931</v>
+        <v>0.3223391139177251</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.93328851139799</v>
+        <v>165.99348578498</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04955470551975726</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.313743649331826</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8945930468399997</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3709.881427592037</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0007558995901229919</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2265.688337978937</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03825852902110997</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>609.1157371193935</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7044346326227902</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-28.10568931826205</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2252261878573365</v>
+        <v>0.4479188963043194</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +2527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,140 +2559,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3045.725112539414</v>
+        <v>-78.53836379458642</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1469060286216862</v>
+        <v>0.9534559743853848</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.7163169580887</v>
+        <v>809.2189063084594</v>
       </c>
       <c r="C3" t="n">
-        <v>0.659862172756695</v>
+        <v>0.003844379262311791</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>492.4517619095857</v>
+        <v>-0.04395262689515603</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2164827275367201</v>
+        <v>0.4276410536511502</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05523636026652262</v>
+        <v>5032.392985054548</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3623852546774531</v>
+        <v>0.2351469326074138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.31539822787415e-05</v>
+        <v>1106.782359296635</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6792893849610382</v>
+        <v>0.324903485814808</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.015771649456966</v>
+        <v>519.0153270908612</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8641387666541873</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-2.727193879682986</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.88640860935397</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3757.407181508588</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01444219595991368</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-968.8163325537962</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4240057797996879</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2136.886852055439</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3436008625365519</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-14.30351010183585</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6812423083417682</v>
+        <v>0.01697358883125364</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +2641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,140 +2673,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1305.943380241215</v>
+        <v>284.763081743371</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3506984812117708</v>
+        <v>0.8006096863123644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-159.0254854911277</v>
+        <v>485.2133265552173</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4034275245175264</v>
+        <v>0.02335310273718772</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.8590646507458</v>
+        <v>-0.07047731541601752</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09043599222644334</v>
+        <v>0.1482189128609762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09467073740472257</v>
+        <v>13251.42760751016</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1022364902548828</v>
+        <v>0.0007768888018841495</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.246029933257039e-05</v>
+        <v>1010.565458650764</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4107123292009659</v>
+        <v>0.2738886622236327</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.07191568972344</v>
+        <v>240.748643858346</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5325467172764327</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.044472178972882</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5176727230800956</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3600.182561638702</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.004384128956051505</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-714.0221305000669</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4394188855781566</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2637.669221939823</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1149453661468843</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-14.32950929935875</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7028009499499586</v>
+        <v>0.1521689157207502</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +2755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,140 +2787,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3438.791984512707</v>
+        <v>21.28134823860091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03145320462831214</v>
+        <v>0.9897221746550802</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-130.1199435836054</v>
+        <v>629.9418428738927</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5216054649955424</v>
+        <v>0.01739744844336554</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.07418486307733</v>
+        <v>-0.07814856267833184</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9482535440174653</v>
+        <v>0.1892964560004236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03816152733877154</v>
+        <v>10684.11412167143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3109195820418165</v>
+        <v>0.03030209276170333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.382150107813809e-05</v>
+        <v>1630.376967493673</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8160869190521788</v>
+        <v>0.1990440641763749</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.282789311386956</v>
+        <v>200.6988174515624</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5928978753720615</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20.03212958719118</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06402815143932769</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4488.737607796033</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.002014212531923926</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2819.621285747434</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04171971062249129</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2545.845256119958</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.167498743561701</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-27.43441011461348</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2202577093506875</v>
+        <v>0.3897820889178043</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +2869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,140 +2901,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2242.924420252133</v>
+        <v>730.1001772139209</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6110746614993279</v>
+        <v>0.5882541368566945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.62858684313483</v>
+        <v>483.278367685861</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8172588609349033</v>
+        <v>0.04754239773187808</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>453.1752925785661</v>
+        <v>-0.05333324707961463</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2180896549105162</v>
+        <v>0.3837123359285534</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08310184019525579</v>
+        <v>8795.090703592177</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2369259304950632</v>
+        <v>0.0268655821626984</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.373475979567619e-05</v>
+        <v>722.1995317626387</v>
       </c>
       <c r="C6" t="n">
-        <v>0.681194304745252</v>
+        <v>0.5023531614430974</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.38630239606357</v>
+        <v>313.2088522210377</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9062022975733816</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.427298827312796</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7401557384759717</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3232.969829722801</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08139731254507127</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-703.6850923743427</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5540555403735465</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2740.511685850345</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4076482351529767</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-30.77740037262458</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4144608375293615</v>
+        <v>0.1528455503859695</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +2983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,140 +3015,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1532.478443476649</v>
+        <v>943.2182366758707</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2264036864391618</v>
+        <v>0.6415582444517632</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-26.53437593218155</v>
+        <v>500.5336180209684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8547508850937557</v>
+        <v>0.07962426791479388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1002.068281876162</v>
+        <v>-0.06701283801407135</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004165164296689554</v>
+        <v>0.3298507149178759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1250211118693553</v>
+        <v>8327.262343190945</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09538058098542113</v>
+        <v>0.1072571210633893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.459706634235959e-05</v>
+        <v>772.5888734339287</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3364634447384148</v>
+        <v>0.5573000361476801</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.46991476496917</v>
+        <v>244.4297083048384</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07580467140827622</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3.327243616981434</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.719115989382909</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4407.844914552104</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0006150134101788039</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1322.695357790594</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2404313077209846</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1063.005708268447</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4864469695369974</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-43.73725642030541</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07800800258262951</v>
+        <v>0.2952417437185462</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +3097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,140 +3129,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1917.625668003355</v>
+        <v>688.9669587774622</v>
       </c>
       <c r="C2" t="n">
-        <v>0.324745371914856</v>
+        <v>0.7203128169230526</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.0843089045613</v>
+        <v>553.1581154079329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5748648991241305</v>
+        <v>0.05818197322246423</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>670.0096106273254</v>
+        <v>-0.08262034902981236</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1079319970144843</v>
+        <v>0.1855110316070024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02955711305739839</v>
+        <v>9596.115893373075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6037465481220852</v>
+        <v>0.0456530580596376</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.183768930384236e-05</v>
+        <v>1571.167393215844</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7649691609276339</v>
+        <v>0.2937747619901655</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.541979596805888</v>
+        <v>92.27454919539409</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4794354201829548</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.4843829239790693</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9768203346390152</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2952.409637647539</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01865815068755849</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1850.962660447125</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1918494632295933</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>956.0986030489385</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.743584320270348</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-16.18026289766178</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5966950445666805</v>
+        <v>0.7304311137143233</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +3211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,140 +3243,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2687.748959817995</v>
+        <v>-30.48007352329842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1570908998215184</v>
+        <v>0.9822496036749497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.70240605063168</v>
+        <v>641.4346073446457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8789734651046621</v>
+        <v>0.01250124322667052</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346.8243621572874</v>
+        <v>-0.07027370024765253</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4209227919265328</v>
+        <v>0.2473206172197454</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09722469559222993</v>
+        <v>11631.12083206165</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1560879677989148</v>
+        <v>0.006377326752259715</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.188436046072679e-06</v>
+        <v>1673.44247401546</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9886989739399044</v>
+        <v>0.1323845319373824</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.237137040906504</v>
+        <v>158.8259957318334</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4723333516690791</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.21765210251818</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3876438283494485</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3814.617971117498</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.007902008456528158</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1248.304267612753</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3378258941004179</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1852.021906391392</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3899874037446589</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-36.71375321569086</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.223649150366947</v>
+        <v>0.4300958183083076</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +3325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,140 +3357,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2775.579476368862</v>
+        <v>-439.4091784371323</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05354633166957815</v>
+        <v>0.7339649683799171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-25.82772787259182</v>
+        <v>794.1435888001271</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8936911149993163</v>
+        <v>0.002233225599941215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330.708758878654</v>
+        <v>-0.05660908995720865</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1808615640152965</v>
+        <v>0.2141769571734776</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008444844264147405</v>
+        <v>8022.843691032831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8392419608841619</v>
+        <v>0.05693234788304895</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.839173034385484e-05</v>
+        <v>1589.3266102211</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1462845826832407</v>
+        <v>0.137769716141355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.50633282300878</v>
+        <v>435.480184533865</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2615281267047609</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-6.548354301952237</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6077506681508635</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-5674.713732439431</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0008204631597725825</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2438.234143317502</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02322801693485729</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6006.542003932168</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01153783510349564</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>37.59766422753458</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2216413046627815</v>
+        <v>0.03336642386008317</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +3439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,140 +3471,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-241.513614652612</v>
+        <v>597.8759079986773</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8863486907508097</v>
+        <v>0.7313734411594248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-282.1650426714691</v>
+        <v>531.1067763022053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1651106694830943</v>
+        <v>0.08969808026313396</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>677.111447211736</v>
+        <v>-0.07289505653752335</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03852600269492325</v>
+        <v>0.2736180076068224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06716689511501833</v>
+        <v>8580.531523385298</v>
       </c>
       <c r="C5" t="n">
-        <v>0.132396390643865</v>
+        <v>0.1163603220336053</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.323765333221508e-05</v>
+        <v>1297.290529241822</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8788218277241826</v>
+        <v>0.3005941988771787</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.76516323608286</v>
+        <v>262.9410321919769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2197945154730463</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.02084196893374</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1782067409814036</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3183.726710186828</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.008802799905583494</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-840.2450523168332</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3194718367184996</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4300.276357453893</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03980382605281311</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-16.60300026851493</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5458667331297744</v>
+        <v>0.2648839804547423</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +3553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5340,140 +3585,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>853.7245714229562</v>
+        <v>867.3488551311141</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7758592857416178</v>
+        <v>0.5075510421131677</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.42511730417834</v>
+        <v>443.5529816790914</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7794965032523906</v>
+        <v>0.0481700754353441</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>281.2272461866908</v>
+        <v>-0.02785692938779735</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4149715992094919</v>
+        <v>0.6190885638662496</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03866276489952364</v>
+        <v>9159.23375034132</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4033204061071471</v>
+        <v>0.01749233030301514</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.954168412961437e-05</v>
+        <v>-11.37542995464946</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5827153517315994</v>
+        <v>0.9917324282760474</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.297116008970022</v>
+        <v>342.507744565652</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4702250545282473</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20.33264477153023</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1968217186395623</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2205.835153735291</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1292771770160572</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1005.021550333884</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3188679043075419</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1060.032458342555</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5694866478129408</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-19.24418301187113</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5188375463162431</v>
+        <v>0.08491854701678958</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +3667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5519,140 +3699,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2458.998555384004</v>
+        <v>1775.926345922276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1464207913274854</v>
+        <v>0.3479346882076904</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119.381458632673</v>
+        <v>372.6555053743913</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6113529256124834</v>
+        <v>0.1674725629805988</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>607.4192413372939</v>
+        <v>-0.1056155734843807</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1116672020636338</v>
+        <v>0.07687367906817144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0604796330138958</v>
+        <v>7810.897711736364</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3781791304033796</v>
+        <v>0.07823744166477238</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.115442902859139e-05</v>
+        <v>862.2956657755367</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7297894027828928</v>
+        <v>0.5278178623791399</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.893965427866874</v>
+        <v>109.4668224547895</v>
       </c>
       <c r="C7" t="n">
-        <v>0.843968305676903</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-1.021393098495111</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9386096961830493</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3216.774674657203</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03092993544102316</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1239.686490123423</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5241292342643958</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1599.345534160564</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5667619342544404</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-20.51725213107653</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5002998656299051</v>
+        <v>0.6665891502526311</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +3781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,140 +3813,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1903.204663700311</v>
+        <v>2639.508002415569</v>
       </c>
       <c r="C2" t="n">
-        <v>0.687753549501794</v>
+        <v>0.1243206208045239</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-62.53889309239253</v>
+        <v>278.1844592633594</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7661509812356042</v>
+        <v>0.2322892889683696</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>440.9389519185249</v>
+        <v>-0.09842197025054292</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3111146679057699</v>
+        <v>0.05660666664142565</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08989632018536678</v>
+        <v>8956.423200337947</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1915429876079583</v>
+        <v>0.02501558857811455</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.153683844900206e-05</v>
+        <v>-734.3795746119235</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9032118389115524</v>
+        <v>0.528772742289359</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.04106759609341</v>
+        <v>198.2729004993472</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3081682944508782</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>35.07561282196578</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1941314080312183</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1304.485152048849</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5959938123752053</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-580.056452362591</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6431130408550879</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-7.074589406911855</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9978487013835917</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-17.35280833709088</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5905846357371642</v>
+        <v>0.3050319220801925</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5877,140 +3927,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2696.103782376375</v>
+        <v>-454.0878473384125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09011798424832076</v>
+        <v>0.7167387485073953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-181.4248631840717</v>
+        <v>809.8955750671023</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3244030162286486</v>
+        <v>0.003542442612160513</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.0586446617414</v>
+        <v>-0.04789305309513561</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3153449216084081</v>
+        <v>0.3112698332268958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06515384584919309</v>
+        <v>4724.349672520641</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1705178275362216</v>
+        <v>0.2058691007909931</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.692485103395246e-05</v>
+        <v>1840.361464580887</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5243493703430336</v>
+        <v>0.07204043934822835</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.949203613360785</v>
+        <v>513.0271632518688</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6404381313671018</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.690972181935578</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6328765361042127</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3398.711545349372</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.008249473688956144</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-515.292785182276</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.571934575809386</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1864.450169420777</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.24214086111531</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.8858901923069524</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9746851549846771</v>
+        <v>0.01638712482831488</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +4009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,140 +4041,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>473.0583769484538</v>
+        <v>-31.89428704503098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7722273391141156</v>
+        <v>0.9836973661550812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-183.9280970751018</v>
+        <v>606.1766106778978</v>
       </c>
       <c r="C3" t="n">
-        <v>0.352402611555563</v>
+        <v>0.02761330882155209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>505.480209975539</v>
+        <v>-0.07418603835605322</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1203894130215459</v>
+        <v>0.301814964667737</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06767002718326787</v>
+        <v>11677.54095784511</v>
       </c>
       <c r="C5" t="n">
-        <v>0.212365552555537</v>
+        <v>0.01485291471371989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.009917050498249e-05</v>
+        <v>1715.839157887161</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7406442109002669</v>
+        <v>0.1377765384278097</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.80718462781166</v>
+        <v>204.415316028838</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2326581044592058</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>18.28556517105333</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1125709285243901</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3889.764785236396</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.002668094205686459</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1632.796532511431</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1369604661945486</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5826.212451895944</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02160858410504823</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-23.81656341165957</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3187912602308886</v>
+        <v>0.3296641074778522</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +4123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6235,140 +4155,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1764.388481126105</v>
+        <v>567.3273422340986</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3023424396102035</v>
+        <v>0.68375540546489</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.35324555678142</v>
+        <v>536.6655794626309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9332926620415989</v>
+        <v>0.02447398914380403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>681.3846101426992</v>
+        <v>-0.04703563816222221</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06708057463693771</v>
+        <v>0.4559378916188099</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08353116429788301</v>
+        <v>10053.83487897628</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08826715013874178</v>
+        <v>0.01508455674485294</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.513112801004547e-06</v>
+        <v>697.9189356042461</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9162174502049474</v>
+        <v>0.6086338930330768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.21168317983935</v>
+        <v>203.0259568201128</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1976173350901012</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.01996889207067</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3311604755777928</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3533.397846742612</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.008108099483015548</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1133.551200577701</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2520815188862212</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2009.935109913977</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2873620279263523</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-50.72855221179469</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06746728047002233</v>
+        <v>0.3981841501877665</v>
       </c>
     </row>
   </sheetData>
@@ -6382,7 +4237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,140 +4269,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2197.170374935844</v>
+        <v>723.4082493885553</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3284788195180621</v>
+        <v>0.5953311840243707</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.01468109335008</v>
+        <v>542.9025198949196</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8970370490740076</v>
+        <v>0.02052951684673101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>266.5457120901362</v>
+        <v>-0.07092853457949436</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5353924572547537</v>
+        <v>0.1867481983220127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04929752545296656</v>
+        <v>12119.45297580374</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3252405178889742</v>
+        <v>0.00845747938516145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.322450864530816e-07</v>
+        <v>405.280392576758</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9964313921180454</v>
+        <v>0.7082695971928714</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.055713680966115</v>
+        <v>204.4888502511916</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8428827415197233</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.465416788987</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3155954079431224</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2732.550144170864</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0564778863388507</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-734.8902743257891</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5870690284435284</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2941.94324230981</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2565873818869581</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-33.24375302815798</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2116838090177076</v>
+        <v>0.3263820603111028</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +4351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,140 +4383,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2881.048236550037</v>
+        <v>377.4473859568964</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07216895273639196</v>
+        <v>0.793521794035173</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>325.4169435931526</v>
+        <v>600.3353454608961</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1968971850978866</v>
+        <v>0.0159726300275848</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>693.5984111729681</v>
+        <v>-0.06646235259442504</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05120795757133616</v>
+        <v>0.2315676395637156</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005626574749819493</v>
+        <v>9138.319767752022</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9108487446631396</v>
+        <v>0.03946341109475471</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.436848794706069e-06</v>
+        <v>1287.510404353771</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9602840944833382</v>
+        <v>0.2542759602078148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.935198071188495</v>
+        <v>213.9245381764056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8341485426976551</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-15.91064436102235</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2994023395287289</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2839.641521087202</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03207009943821829</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1947.622327766065</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2439401278198157</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>512.1757985499898</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8410013002103562</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8.184864633966754</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7714991225594796</v>
+        <v>0.3069372107619232</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +4465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6772,140 +4497,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2583.830641172686</v>
+        <v>-17.66994558579881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3931145858502135</v>
+        <v>0.9890159729152813</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-33.07627481975186</v>
+        <v>660.4678972458806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8800638397360228</v>
+        <v>0.005968330074946676</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287.604736835453</v>
+        <v>-0.02699752805648938</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6643367814959931</v>
+        <v>0.602517002392575</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05424002681451889</v>
+        <v>11375.45773484908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5059490791305856</v>
+        <v>0.005288358576743791</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.15655038395449e-06</v>
+        <v>982.9406223431497</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9878604287654706</v>
+        <v>0.3897592551960311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.341330264324117</v>
+        <v>171.4498853690762</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7821321475772826</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.37586752310423</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3639510895734341</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3013.004712170276</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04513851059559403</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1230.458867706811</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3864274533083107</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2082.569939873181</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5468354798773842</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-35.683714916694</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2250668762266777</v>
+        <v>0.370656241760437</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +4579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6951,140 +4611,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2543.537089826275</v>
+        <v>32.5980999161161</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1648566416443898</v>
+        <v>0.982624361999379</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.6069247220163</v>
+        <v>555.8455557584648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5507764911926654</v>
+        <v>0.02320216389438574</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>440.5703253508125</v>
+        <v>-0.07144629149444154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1920225059822729</v>
+        <v>0.2402970498849901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06449928707165795</v>
+        <v>9817.752880214877</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2562689379907163</v>
+        <v>0.02820264777686423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.048885579937227e-05</v>
+        <v>1529.145960540662</v>
       </c>
       <c r="C6" t="n">
-        <v>0.849025711240475</v>
+        <v>0.1937283113010005</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.529324772897958</v>
+        <v>311.4951298385848</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4895620511675329</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.611563394711069</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5285661922594445</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2902.568306325787</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04142141029774454</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1053.220292648205</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3477204880922888</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1849.181645870109</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3719326978116766</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-39.67661993264041</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1526378469131804</v>
+        <v>0.1404333122575113</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +4693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7130,140 +4725,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2842.764336933652</v>
+        <v>678.3294791782855</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05934556379465253</v>
+        <v>0.7206826329770838</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-207.888920222545</v>
+        <v>513.1036816655093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3075629701396686</v>
+        <v>0.05467994042896738</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>565.4869311839936</v>
+        <v>-0.07436897927452632</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06520311509043351</v>
+        <v>0.1940875184970685</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1308906816216851</v>
+        <v>12045.93014290962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01826090998112114</v>
+        <v>0.0164385458089282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001551365579537167</v>
+        <v>617.5716859214576</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06286427045985217</v>
+        <v>0.6320468863507602</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.51879933830087</v>
+        <v>231.5617018497869</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2636663081826255</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-9.590161909436715</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4146998622147805</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3922.881327080983</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0008185578083113575</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>314.8649588686276</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7455870411935825</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1879.640462798543</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.207525631570185</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17.43961486201307</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5369438624317951</v>
+        <v>0.2483288447167111</v>
       </c>
     </row>
   </sheetData>
@@ -7277,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7309,140 +4839,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2383.186252631142</v>
+        <v>1772.637265381633</v>
       </c>
       <c r="C2" t="n">
-        <v>0.225503245786135</v>
+        <v>0.2258126663221427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-221.0077268280993</v>
+        <v>167.4480608417446</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1268949562994295</v>
+        <v>0.5456234744560825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>626.9737698485006</v>
+        <v>-0.07254521759927976</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02393780215655511</v>
+        <v>0.1812019987955086</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05626220742502169</v>
+        <v>7014.843880045533</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1008291964518451</v>
+        <v>0.0792963081004813</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.01233700985186e-05</v>
+        <v>167.2942689097138</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6846421515271546</v>
+        <v>0.877052262032325</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.87999038708119</v>
+        <v>456.0390410444847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02344989225094287</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>32.90394630684998</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01089021200437331</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3430.412354940705</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.005179392150296218</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1728.369306195706</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03755034311252915</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3416.581951464127</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03604950329796657</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-8.510284935878317</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6644708499184719</v>
+        <v>0.04186946160163075</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +4921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7488,140 +4953,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2013.687370510605</v>
+        <v>222.7121493137338</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2053777784544622</v>
+        <v>0.8621746489515638</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.7815177032813</v>
+        <v>898.9576150094147</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5113887525451326</v>
+        <v>0.001231818854590741</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>641.379166290729</v>
+        <v>-0.1009899843005711</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1013500417877336</v>
+        <v>0.08101461922071571</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03509908495028069</v>
+        <v>3803.008908476156</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5476618985334739</v>
+        <v>0.3466930711288773</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.886186759051418e-06</v>
+        <v>1781.133116298024</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9453796039513079</v>
+        <v>0.09303202783344738</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.830683804267537</v>
+        <v>358.6889694536773</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7525653951335319</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-1.55997496556202</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.90905629142629</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2850.950961263183</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0604315589232207</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1460.105825731449</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4990979278269891</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1783.213617829777</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5727118108892086</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-16.42132759750965</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6112662764177101</v>
+        <v>0.1933730015282459</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +5035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7667,140 +5067,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3334.532389991789</v>
+        <v>885.6573607205628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1124585217281064</v>
+        <v>0.4951830754180111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.11384856110146</v>
+        <v>525.1224623896147</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6957834774977043</v>
+        <v>0.02170620871864796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.8220287226518</v>
+        <v>-0.07771708711299019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7540527416209633</v>
+        <v>0.1450821028727703</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05499157256722281</v>
+        <v>9301.226692427579</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4356854473259439</v>
+        <v>0.01395118576645011</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.403148398001634e-06</v>
+        <v>1299.146983420136</v>
       </c>
       <c r="C6" t="n">
-        <v>0.925266304020315</v>
+        <v>0.2397417539173746</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1279676451690648</v>
+        <v>100.7100049145374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9930117516521144</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.62807560144089</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3021645453216313</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3291.926428492408</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02134993298719739</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-974.3028305285216</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5144066741070333</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1961.841094380207</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3696941300908786</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-43.50517000074947</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1289400001320286</v>
+        <v>0.6574187509733435</v>
       </c>
     </row>
   </sheetData>
@@ -7814,7 +5149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7846,140 +5181,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3580.543804828359</v>
+        <v>362.4797187857926</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01100291624201643</v>
+        <v>0.8031946614977415</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>558.6366802150199</v>
+        <v>549.8063423071328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01651952404802167</v>
+        <v>0.03239552196206408</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>796.6025217487468</v>
+        <v>-0.03005150971967932</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007258625301138788</v>
+        <v>0.6158188434937824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001921135778259864</v>
+        <v>9484.80850563915</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9591247760820958</v>
+        <v>0.02184710633033118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.032626431106176e-05</v>
+        <v>444.6189939214339</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3380969267991087</v>
+        <v>0.7168219994815588</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.606156809608386</v>
+        <v>320.4906720241702</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7782926812669304</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-24.36298122362466</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0637282414002836</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2105.441265039861</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02511190650426987</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1743.58836873799</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06501075245506675</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-603.654741686847</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7135386521192897</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-1.247519561285017</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9518838789048235</v>
+        <v>0.1457385889521207</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +5263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,140 +5295,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>130.1297247349485</v>
+        <v>637.4604529295566</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9303807407932059</v>
+        <v>0.7990086426405036</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-340.8175128689476</v>
+        <v>530.9878473783476</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09364956491926406</v>
+        <v>0.1463963063800805</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.1823654707282</v>
+        <v>-0.07705280515278218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07304989604342341</v>
+        <v>0.2929062689363576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06871558433398545</v>
+        <v>9584.20630813877</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09118293544819416</v>
+        <v>0.1299042456378652</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.213858948720328e-05</v>
+        <v>1156.331539168799</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4634461458711635</v>
+        <v>0.4416024570722638</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.34385495036455</v>
+        <v>248.7388402310055</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3584085663717752</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.04183465618402</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2174549542331396</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3762.388137928933</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.002668990469559597</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1133.04232280197</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2391368691032804</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5399.255952994509</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02115914176010304</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.871750446841432</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8091957508903687</v>
+        <v>0.3093640407564142</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +5377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8204,140 +5409,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1835.297051064644</v>
+        <v>452.3751177744006</v>
       </c>
       <c r="C2" t="n">
-        <v>0.234756744338533</v>
+        <v>0.7655421472179548</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-105.6711382926052</v>
+        <v>571.0884866369923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5390657016215894</v>
+        <v>0.028152256884383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>756.7286656062315</v>
+        <v>-0.07677685385645497</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02905210963144898</v>
+        <v>0.1970543914884846</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1125378379577736</v>
+        <v>9404.049058979963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06009654175611111</v>
+        <v>0.04260668360866869</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.947566933863041e-05</v>
+        <v>1239.151201675062</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3493012129376507</v>
+        <v>0.2930231426231294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.00878799546312</v>
+        <v>228.2797899951418</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2950658612153194</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.10631996494173</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2486090903486764</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4264.389764109465</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.003715648713401349</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-643.6283832155523</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5091045728722827</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2434.736907648083</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1478760092728197</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-57.31318648530073</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03740457328860061</v>
+        <v>0.3003669794017216</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +5491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8383,140 +5523,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-799.5190794652755</v>
+        <v>123.0289664874663</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6784118542070998</v>
+        <v>0.9223672091499091</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.44392959772847</v>
+        <v>603.5909603393067</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6998857498918177</v>
+        <v>0.008554124989240278</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>443.4666221331747</v>
+        <v>-0.02863491983465709</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04955752014743869</v>
+        <v>0.5679905900763316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02027330819376844</v>
+        <v>11187.4744305366</v>
       </c>
       <c r="C5" t="n">
-        <v>0.531077984741788</v>
+        <v>0.004559721308260333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.563851267813665e-06</v>
+        <v>722.5655694534926</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9395703724992823</v>
+        <v>0.4849104653429032</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.115198901397196</v>
+        <v>241.8105449249421</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5625664755916326</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.1175733269102</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1565472706525481</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2845.068971707273</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.00914355657036107</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1574.037573657446</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05367142200786386</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2235.399097920572</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.154917384474257</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>29.80299923665325</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2382742144826423</v>
+        <v>0.1633864234139943</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +5605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8562,140 +5637,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2217.099869078269</v>
+        <v>25.04841792735363</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4956989711069602</v>
+        <v>0.9814870535448954</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-52.22860932382935</v>
+        <v>632.5661968054726</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7820138541752956</v>
+        <v>0.006478826493822657</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304.8560343064894</v>
+        <v>-0.07343916555088406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3906845964482685</v>
+        <v>0.1037452609380125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06152054377176705</v>
+        <v>10175.5980316089</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2027091913411873</v>
+        <v>0.009843856605905464</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.902020238094325e-05</v>
+        <v>1359.981932755796</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4647943798340018</v>
+        <v>0.1400686798698614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.64873521492805</v>
+        <v>345.1647357243141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1481833180362301</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>39.18482203140962</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09430733180519378</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1059.348008052569</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5456715835253374</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1007.852208591647</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3280299759040882</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-108.061989455633</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9637521766975122</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-10.86033689692202</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6961871341118245</v>
+        <v>0.05118544894294653</v>
       </c>
     </row>
   </sheetData>
@@ -8709,7 +5719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8741,140 +5751,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3695.652304451441</v>
+        <v>1660.278749158654</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05956110359712665</v>
+        <v>0.4123292565793534</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>226.676089148071</v>
+        <v>494.6952137994539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3886754118603275</v>
+        <v>0.07083457498166372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304.029090575772</v>
+        <v>-0.09988831794698994</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3823695518244085</v>
+        <v>0.1147386667742417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05213884965890733</v>
+        <v>7709.096705254899</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3035738429188654</v>
+        <v>0.1214778360338299</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.103707802916002e-05</v>
+        <v>677.7585923604047</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7592200458972128</v>
+        <v>0.6034592476513674</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.961692856539894</v>
+        <v>120.0877714074553</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6974222101006473</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1320704744132897</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9940003671085487</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2663.226412857027</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06558399727554448</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-856.260126856544</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4240553923433645</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1757.75540971785</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4006135907041468</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-26.93715750846845</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4089602598011975</v>
+        <v>0.599045477965658</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +5833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8920,140 +5865,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>496.5252440418708</v>
+        <v>155.0304562119923</v>
       </c>
       <c r="C2" t="n">
-        <v>0.793865437119358</v>
+        <v>0.915411558927526</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-213.9869644562079</v>
+        <v>612.8184553521551</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3387268974147934</v>
+        <v>0.02206151238209408</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>480.1573313045122</v>
+        <v>-0.05626718654699345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.164606971385386</v>
+        <v>0.3735259283524565</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04590265869250236</v>
+        <v>11432.23474746566</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3483941141185845</v>
+        <v>0.009865090784957474</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.52562173499607e-05</v>
+        <v>1528.013951387529</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7338396577476429</v>
+        <v>0.2859071360729505</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.16597632151404</v>
+        <v>72.68808417748733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2309886041910432</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>19.91291678971532</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1328859427233682</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3570.763065999648</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01247914580238777</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1942.909185521492</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.085119317286916</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5505.049356842349</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.04400166705729903</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-22.34722410504762</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3505502346102108</v>
+        <v>0.7744190476887767</v>
       </c>
     </row>
   </sheetData>
@@ -9067,7 +5947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,140 +5979,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-469.6923124916984</v>
+        <v>-160.2231703601633</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8961686532801794</v>
+        <v>0.8984859689323518</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.2856992966014</v>
+        <v>803.3513206137167</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4836928117770247</v>
+        <v>0.002981588350679055</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>619.7478754750618</v>
+        <v>-0.06970065532702338</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1525098426769902</v>
+        <v>0.1530847404820943</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05122408796631248</v>
+        <v>7118.768808457726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4588709378999209</v>
+        <v>0.1324386549309401</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.004234360448052e-05</v>
+        <v>1578.648959422347</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7993344923078465</v>
+        <v>0.147384783286207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.20191128895769</v>
+        <v>420.0748255369063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3448581059966153</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.20356337132858</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5080732422379461</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2211.344062392606</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2604449279318682</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-670.1019004950881</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7671556385780879</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1076.839101136181</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6653288495145444</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-9.958382505608597</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7640628778709805</v>
+        <v>0.0436020711699058</v>
       </c>
     </row>
   </sheetData>
@@ -9246,7 +6061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9278,140 +6093,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1488.150432848357</v>
+        <v>726.7120002196384</v>
       </c>
       <c r="C2" t="n">
-        <v>0.282491935651043</v>
+        <v>0.5873459753573613</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-169.8677275928471</v>
+        <v>452.1143831847719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3755698973819805</v>
+        <v>0.06326142402655982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>387.8755235697606</v>
+        <v>-0.05667493753091341</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1874256899237881</v>
+        <v>0.2893849565760634</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05979103601692121</v>
+        <v>8788.658032807472</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1852776660290319</v>
+        <v>0.02455035631795112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.039659183619886e-05</v>
+        <v>781.0618786070138</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5349422964724415</v>
+        <v>0.4553508295760216</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1160875540282209</v>
+        <v>332.5572610786935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9911378211255669</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.266898094891118</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6718118699883743</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3039.293773257932</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01038067461546742</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-639.6798479481708</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4872916430250569</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2831.171165399212</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0966081559041868</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9.442312214349634</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7366944715823405</v>
+        <v>0.109798662544767</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Nimes.xlsx
+++ b/outputs/ML_Results/dist_LR/Nimes.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ40729593" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ41079986" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ41412584" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ41708218" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ42063367" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ42479529" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ42798994" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ43144876" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ43543076" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ44099152" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ44624468" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ44960809" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ45427932" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ45740564" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ46045832" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ46412651" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ46692462" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ46937961" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ47192384" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ47453488" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ47758109" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ48042085" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ48328468" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ48628372" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ48951437" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ49295024" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ49568031" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ49863672" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ50170361" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ50458844" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ50764010" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ51084163" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ51542060" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ52000965" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ52547796" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ52895491" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ53208981" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ53549679" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ53851019" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ54155807" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ54455198" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ54792328" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ55080277" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ55371925" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ55619252" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ55980254" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ56269579" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ56550920" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ56784103" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ57029558" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ58407741" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ58625061" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ58847458" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ59058746" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ59283544" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ59531719" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ59743724" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ59958619" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ00189995" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ00391451" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ00596671" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ00802158" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ01005759" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ01219177" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ01439756" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ01638139" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ01864194" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ02096762" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ02364906" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ02617553" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ02868832" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ03136418" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ03405445" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ03704458" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ04010369" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ04299258" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ04556263" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ04822185" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ05131747" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ05445371" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ05708758" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ06011048" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ06293558" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ06557980" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ06807036" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ07070119" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ07307082" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ07557093" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ07806804" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ08086814" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ08379947" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ08677905" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ08975092" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ09226252" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ09473699" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ09741511" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ10020367" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ10343586" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ10608554" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ10939400" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-663.4919721397891</v>
+        <v>-663.4919805312338</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6176613399248408</v>
+        <v>0.6176613349606542</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>959.4947467947669</v>
+        <v>959.4947491774421</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001941303879772848</v>
+        <v>0.001941303826849601</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05832887453368857</v>
+        <v>-0.05832887464681888</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3060293433250559</v>
+        <v>0.3060293410354534</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4413.069102616835</v>
+        <v>4413.069096637566</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2863802208342373</v>
+        <v>0.2863802204838764</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1691.321098487183</v>
+        <v>1691.321114632106</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1209244915954386</v>
+        <v>0.120924487820034</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.7601641832133</v>
+        <v>630.7601617515991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04971097656013261</v>
+        <v>0.04971097712035046</v>
       </c>
     </row>
   </sheetData>
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79.43837635906652</v>
+        <v>79.43836849442255</v>
       </c>
       <c r="C2" t="n">
-        <v>0.956338792575088</v>
+        <v>0.9563387968849868</v>
       </c>
     </row>
     <row r="3">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>529.7518567201828</v>
+        <v>529.7518586911539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03143196399243867</v>
+        <v>0.03143196360750869</v>
       </c>
     </row>
     <row r="4">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05876560929112996</v>
+        <v>-0.05876560918784594</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3326450323682574</v>
+        <v>0.3326450322690472</v>
       </c>
     </row>
     <row r="5">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10325.38018269274</v>
+        <v>10325.38018187893</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01173131888776805</v>
+        <v>0.01173131881114239</v>
       </c>
     </row>
     <row r="6">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1278.731417313576</v>
+        <v>1278.731425690399</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2601456267282342</v>
+        <v>0.2601456233677134</v>
       </c>
     </row>
     <row r="7">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319.6980067201605</v>
+        <v>319.6980057041732</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1334429185936755</v>
+        <v>0.1334429197677457</v>
       </c>
     </row>
   </sheetData>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1020.220577301389</v>
+        <v>1020.220550945247</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5737986151955251</v>
+        <v>0.5737986246074462</v>
       </c>
     </row>
     <row r="3">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>632.2962075067355</v>
+        <v>632.2962120628582</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02486555219812277</v>
+        <v>0.02486555154746042</v>
       </c>
     </row>
     <row r="4">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05557908026594893</v>
+        <v>-0.05557908051805036</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3350431035193738</v>
+        <v>0.3350431008550527</v>
       </c>
     </row>
     <row r="5">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4076.909647681943</v>
+        <v>4076.909665062543</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3959562571254192</v>
+        <v>0.3959562543788797</v>
       </c>
     </row>
     <row r="6">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>453.7783271091084</v>
+        <v>453.7783563582097</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7265477090649508</v>
+        <v>0.7265476920285101</v>
       </c>
     </row>
     <row r="7">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>424.4324227056323</v>
+        <v>424.4324224363935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04517606283803318</v>
+        <v>0.04517606280445172</v>
       </c>
     </row>
   </sheetData>
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1216.187860328316</v>
+        <v>1216.187851206641</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4490182751769971</v>
+        <v>0.4490182778183884</v>
       </c>
     </row>
     <row r="3">
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>454.6761467802259</v>
+        <v>454.676151080375</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1224350236091026</v>
+        <v>0.1224350202289767</v>
       </c>
     </row>
     <row r="4">
@@ -875,10 +875,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.121127498328576</v>
+        <v>-0.1211274982506216</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1075414594700653</v>
+        <v>0.1075414585260427</v>
       </c>
     </row>
     <row r="5">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7331.12274981695</v>
+        <v>7331.122717946186</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1220665189039041</v>
+        <v>0.1220665198936943</v>
       </c>
     </row>
     <row r="6">
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2317.281831749656</v>
+        <v>2317.281862435572</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1170066539194777</v>
+        <v>0.1170066498711701</v>
       </c>
     </row>
     <row r="7">
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.9459483225213</v>
+        <v>12.94594196875732</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9647544752463784</v>
+        <v>0.9647544926140701</v>
       </c>
     </row>
   </sheetData>
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821.4901496283483</v>
+        <v>821.4901389275528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5490595364288433</v>
+        <v>0.5490595414329409</v>
       </c>
     </row>
     <row r="3">
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493.0291486230833</v>
+        <v>493.0291511421602</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05708801938898454</v>
+        <v>0.05708801851799374</v>
       </c>
     </row>
     <row r="4">
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06926191834930072</v>
+        <v>-0.06926191849603343</v>
       </c>
       <c r="C4" t="n">
-        <v>0.232079828936618</v>
+        <v>0.2320798273737474</v>
       </c>
     </row>
     <row r="5">
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8820.045039624572</v>
+        <v>8820.045047307784</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0266853216935261</v>
+        <v>0.02668532140377796</v>
       </c>
     </row>
     <row r="6">
@@ -1015,10 +1015,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>830.0806646162431</v>
+        <v>830.0806779301746</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4406386549905251</v>
+        <v>0.4406386476191482</v>
       </c>
     </row>
     <row r="7">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>259.8150898495709</v>
+        <v>259.815088314597</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2600957517374077</v>
+        <v>0.2600957546011954</v>
       </c>
     </row>
   </sheetData>
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-156.7060709687319</v>
+        <v>-156.7060764796404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8936755250708295</v>
+        <v>0.8936755213582827</v>
       </c>
     </row>
     <row r="3">
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591.7894597974523</v>
+        <v>591.789461227982</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00355066362547309</v>
+        <v>0.003550663594762139</v>
       </c>
     </row>
     <row r="4">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05647585039165171</v>
+        <v>-0.05647585023302457</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1899810112088035</v>
+        <v>0.1899810118513008</v>
       </c>
     </row>
     <row r="5">
@@ -1116,10 +1116,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14151.75211613896</v>
+        <v>14151.75210817392</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002406795242119085</v>
+        <v>0.0002406795228053732</v>
       </c>
     </row>
     <row r="6">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1259.924122655161</v>
+        <v>1259.924127570624</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1783002626909048</v>
+        <v>0.1783002610614741</v>
       </c>
     </row>
     <row r="7">
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>207.5766997843305</v>
+        <v>207.5766992326498</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2006673222265591</v>
+        <v>0.200667323378913</v>
       </c>
     </row>
   </sheetData>
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.8119963843947</v>
+        <v>181.8119943208923</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9014765460135838</v>
+        <v>0.9014765470908861</v>
       </c>
     </row>
     <row r="3">
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>625.9222597031813</v>
+        <v>625.9222599207886</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01827176698513332</v>
+        <v>0.01827176690692578</v>
       </c>
     </row>
     <row r="4">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06772972904753488</v>
+        <v>-0.0677297290218874</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2450124451211701</v>
+        <v>0.2450124451506764</v>
       </c>
     </row>
     <row r="5">
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10201.08596544452</v>
+        <v>10201.08596830085</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0222251456139451</v>
+        <v>0.02222514555318103</v>
       </c>
     </row>
     <row r="6">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1292.509671171425</v>
+        <v>1292.509672849245</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2753553143250329</v>
+        <v>0.2753553134508386</v>
       </c>
     </row>
     <row r="7">
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>225.0957657501359</v>
+        <v>225.0957657846831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2968355521194782</v>
+        <v>0.2968355519183193</v>
       </c>
     </row>
   </sheetData>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>646.4883753016602</v>
+        <v>646.4883687899401</v>
       </c>
       <c r="C2" t="n">
-        <v>0.635120518912637</v>
+        <v>0.6351205222935408</v>
       </c>
     </row>
     <row r="3">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>479.419988098576</v>
+        <v>479.4199894594467</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01940965709166109</v>
+        <v>0.01940965696273124</v>
       </c>
     </row>
     <row r="4">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06959698659564095</v>
+        <v>-0.06959698643755274</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08548848156743445</v>
+        <v>0.08548848209816315</v>
       </c>
     </row>
     <row r="5">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13074.86595953923</v>
+        <v>13074.8659592183</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0009764403756167614</v>
+        <v>0.0009764403621187676</v>
       </c>
     </row>
     <row r="6">
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>882.7289294968732</v>
+        <v>882.7289344107076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3575590353210825</v>
+        <v>0.3575590327495682</v>
       </c>
     </row>
     <row r="7">
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.9451003684792</v>
+        <v>171.9450999863412</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2357371121993326</v>
+        <v>0.235737113279114</v>
       </c>
     </row>
   </sheetData>
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>601.8688779497124</v>
+        <v>601.868873193735</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6805548630637146</v>
+        <v>0.6805548651748239</v>
       </c>
     </row>
     <row r="3">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>498.5222818454379</v>
+        <v>498.5222839108887</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04703514019866249</v>
+        <v>0.04703513953897441</v>
       </c>
     </row>
     <row r="4">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1038774573883738</v>
+        <v>-0.1038774574335493</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1538001335730071</v>
+        <v>0.1538001326145071</v>
       </c>
     </row>
     <row r="5">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10067.61216704635</v>
+        <v>10067.61215615003</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02298377764792965</v>
+        <v>0.02298377757707646</v>
       </c>
     </row>
     <row r="6">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1681.860990673481</v>
+        <v>1681.861000789311</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1963241943178756</v>
+        <v>0.1963241913772896</v>
       </c>
     </row>
     <row r="7">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>147.9721503688894</v>
+        <v>147.9721481913216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5462516331118319</v>
+        <v>0.5462516393179395</v>
       </c>
     </row>
   </sheetData>
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>551.9155643153817</v>
+        <v>551.9155551461258</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7174841148157767</v>
+        <v>0.7174841190254975</v>
       </c>
     </row>
     <row r="3">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>598.943136737298</v>
+        <v>598.9431387315179</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02013359116376286</v>
+        <v>0.02013359082825806</v>
       </c>
     </row>
     <row r="4">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06968362529193413</v>
+        <v>-0.0696836253856491</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2256523220760278</v>
+        <v>0.2256523207439218</v>
       </c>
     </row>
     <row r="5">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8993.514740959847</v>
+        <v>8993.514737021525</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0498131841607926</v>
+        <v>0.04981318397215309</v>
       </c>
     </row>
     <row r="6">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1065.203649464632</v>
+        <v>1065.203664013259</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3555087378592289</v>
+        <v>0.3555087311572311</v>
       </c>
     </row>
     <row r="7">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.6895413316562</v>
+        <v>209.6895399846788</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3464453790384295</v>
+        <v>0.3464453820005531</v>
       </c>
     </row>
   </sheetData>
@@ -1647,10 +1647,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>500.9595581767881</v>
+        <v>500.959555238911</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7579051774228056</v>
+        <v>0.7579051787474836</v>
       </c>
     </row>
     <row r="3">
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>580.5374026668467</v>
+        <v>580.5374031312967</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07790940114842369</v>
+        <v>0.07790940086034863</v>
       </c>
     </row>
     <row r="4">
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06816545839626621</v>
+        <v>-0.06816545833918819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2859896068381106</v>
+        <v>0.2859896070654419</v>
       </c>
     </row>
     <row r="5">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9203.267057683992</v>
+        <v>9203.267061819852</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04643920910703343</v>
+        <v>0.04643920899043105</v>
       </c>
     </row>
     <row r="6">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1086.41375056456</v>
+        <v>1086.413752604647</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3784066546475875</v>
+        <v>0.3784066534694672</v>
       </c>
     </row>
     <row r="7">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>230.0433848000002</v>
+        <v>230.0433846803152</v>
       </c>
       <c r="C7" t="n">
-        <v>0.365613410554539</v>
+        <v>0.3656134106926779</v>
       </c>
     </row>
   </sheetData>
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.363658053381</v>
+        <v>263.3636464474923</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8619752381442294</v>
+        <v>0.8619752441248022</v>
       </c>
     </row>
     <row r="3">
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>476.1432752364002</v>
+        <v>476.1432779540256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07700860034873806</v>
+        <v>0.07700859917708203</v>
       </c>
     </row>
     <row r="4">
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07167340156879209</v>
+        <v>-0.07167340146728479</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2069870550599191</v>
+        <v>0.2069870549722931</v>
       </c>
     </row>
     <row r="5">
@@ -1800,10 +1800,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10290.90590838712</v>
+        <v>10290.90591196615</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01573203248514028</v>
+        <v>0.01573203231801678</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +1813,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1160.446934916788</v>
+        <v>1160.446947788062</v>
       </c>
       <c r="C6" t="n">
-        <v>0.342659413463233</v>
+        <v>0.342659408067067</v>
       </c>
     </row>
     <row r="7">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337.3352205470259</v>
+        <v>337.3352191316891</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1339751709473512</v>
+        <v>0.1339751725898281</v>
       </c>
     </row>
   </sheetData>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-517.6576785200164</v>
+        <v>-517.6576957435518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6830999800633877</v>
+        <v>0.6830999697027198</v>
       </c>
     </row>
     <row r="3">
@@ -1888,10 +1888,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>807.5420277915309</v>
+        <v>807.5420316682903</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001491288833597849</v>
+        <v>0.001491288774069768</v>
       </c>
     </row>
     <row r="4">
@@ -1901,10 +1901,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03482755930920296</v>
+        <v>-0.03482755957627176</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4898153709224216</v>
+        <v>0.4898153660670165</v>
       </c>
     </row>
     <row r="5">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5910.088079635874</v>
+        <v>5910.088065026667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1182494307139278</v>
+        <v>0.1182494309471827</v>
       </c>
     </row>
     <row r="6">
@@ -1927,10 +1927,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1416.638408176944</v>
+        <v>1416.638433367953</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2084317685172886</v>
+        <v>0.2084317596880046</v>
       </c>
     </row>
     <row r="7">
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>544.9742930144894</v>
+        <v>544.9742924587276</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01036165317224113</v>
+        <v>0.01036165311462523</v>
       </c>
     </row>
   </sheetData>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>439.6955386405966</v>
+        <v>439.6955252372127</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7662516518776987</v>
+        <v>0.7662516587482925</v>
       </c>
     </row>
     <row r="3">
@@ -2002,10 +2002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>517.4144533696967</v>
+        <v>517.4144558407511</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0409355900567463</v>
+        <v>0.04093558948833696</v>
       </c>
     </row>
     <row r="4">
@@ -2015,10 +2015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04140127490980146</v>
+        <v>-0.04140127509070163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4959461470238631</v>
+        <v>0.4959461446424636</v>
       </c>
     </row>
     <row r="5">
@@ -2028,10 +2028,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9791.569602047895</v>
+        <v>9791.569613488628</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01782042328468707</v>
+        <v>0.01782042307793189</v>
       </c>
     </row>
     <row r="6">
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344.1856736794757</v>
+        <v>344.1856930352005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7815740029716938</v>
+        <v>0.7815739909690798</v>
       </c>
     </row>
     <row r="7">
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>346.3096159090166</v>
+        <v>346.3096145331166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1172827340428112</v>
+        <v>0.1172827356318985</v>
       </c>
     </row>
   </sheetData>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.81860080288925</v>
+        <v>84.81858645457896</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9451348422106223</v>
+        <v>0.9451348513871326</v>
       </c>
     </row>
     <row r="3">
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>715.9156543555771</v>
+        <v>715.9156582753267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007329821261304521</v>
+        <v>0.007329821008261361</v>
       </c>
     </row>
     <row r="4">
@@ -2129,10 +2129,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06490750737127096</v>
+        <v>-0.06490750744025633</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2476929698907358</v>
+        <v>0.2476929676556928</v>
       </c>
     </row>
     <row r="5">
@@ -2142,10 +2142,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4603.99674488217</v>
+        <v>4603.99673354398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2507176488305781</v>
+        <v>0.2507176487493384</v>
       </c>
     </row>
     <row r="6">
@@ -2155,10 +2155,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1468.097637130414</v>
+        <v>1468.097654799597</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1480912389519557</v>
+        <v>0.1480912335487413</v>
       </c>
     </row>
     <row r="7">
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>516.737897285831</v>
+        <v>516.737896114718</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01528317759773174</v>
+        <v>0.01528317764801906</v>
       </c>
     </row>
   </sheetData>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.024473783329</v>
+        <v>1780.024458557988</v>
       </c>
       <c r="C2" t="n">
-        <v>0.445437665806376</v>
+        <v>0.445437669925754</v>
       </c>
     </row>
     <row r="3">
@@ -2230,10 +2230,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>422.4066148735748</v>
+        <v>422.4066172119472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1747618018025334</v>
+        <v>0.1747618003526825</v>
       </c>
     </row>
     <row r="4">
@@ -2243,10 +2243,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09048232320219873</v>
+        <v>-0.09048232302484094</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2063776702878293</v>
+        <v>0.206377670848513</v>
       </c>
     </row>
     <row r="5">
@@ -2256,10 +2256,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7452.340931491894</v>
+        <v>7452.340951715611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1697246950040971</v>
+        <v>0.16972469372126</v>
       </c>
     </row>
     <row r="6">
@@ -2269,10 +2269,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>601.1096077391319</v>
+        <v>601.1096186974393</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6460289117604376</v>
+        <v>0.6460289058601992</v>
       </c>
     </row>
     <row r="7">
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166.9847914076848</v>
+        <v>166.9847910533765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4832942635497177</v>
+        <v>0.4832942643686722</v>
       </c>
     </row>
   </sheetData>
@@ -2331,10 +2331,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.94921208410869</v>
+        <v>66.94920531465914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9601723722777959</v>
+        <v>0.9601723762611425</v>
       </c>
     </row>
     <row r="3">
@@ -2344,10 +2344,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.4959417511516</v>
+        <v>613.495943805586</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01046603177326431</v>
+        <v>0.01046603157414428</v>
       </c>
     </row>
     <row r="4">
@@ -2357,10 +2357,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07097661393721587</v>
+        <v>-0.07097661389766019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1768197091526392</v>
+        <v>0.1768197086691268</v>
       </c>
     </row>
     <row r="5">
@@ -2370,10 +2370,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11441.28653064654</v>
+        <v>11441.28651944988</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008381197551577915</v>
+        <v>0.008381197522122649</v>
       </c>
     </row>
     <row r="6">
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1696.211041395147</v>
+        <v>1696.211051429116</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1209372382236404</v>
+        <v>0.1209372358977866</v>
       </c>
     </row>
     <row r="7">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166.6826428750986</v>
+        <v>166.6826414042191</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3922863857655664</v>
+        <v>0.3922863898645162</v>
       </c>
     </row>
   </sheetData>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>355.7328676793325</v>
+        <v>355.7328662151124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7812298841506043</v>
+        <v>0.7812298849609983</v>
       </c>
     </row>
     <row r="3">
@@ -2458,10 +2458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>553.5559627296263</v>
+        <v>553.5559629345905</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01552722682379191</v>
+        <v>0.01552722676006445</v>
       </c>
     </row>
     <row r="4">
@@ -2471,10 +2471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07477467906979332</v>
+        <v>-0.07477467907273944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1505188568995296</v>
+        <v>0.1505188567519014</v>
       </c>
     </row>
     <row r="5">
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12428.70095841414</v>
+        <v>12428.70095979454</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003827162098227568</v>
+        <v>0.003827162088555415</v>
       </c>
     </row>
     <row r="6">
@@ -2497,10 +2497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1143.56244786103</v>
+        <v>1143.562449956872</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3223391139177251</v>
+        <v>0.3223391127708106</v>
       </c>
     </row>
     <row r="7">
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165.99348578498</v>
+        <v>165.9934855655021</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4479188963043194</v>
+        <v>0.4479188968291143</v>
       </c>
     </row>
   </sheetData>
@@ -2559,10 +2559,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-78.53836379458642</v>
+        <v>-78.53837699782616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9534559743853848</v>
+        <v>0.95345596652873</v>
       </c>
     </row>
     <row r="3">
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>809.2189063084594</v>
+        <v>809.2189096274737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003844379262311791</v>
+        <v>0.003844379154237106</v>
       </c>
     </row>
     <row r="4">
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04395262689515603</v>
+        <v>-0.04395262721431406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4276410536511502</v>
+        <v>0.4276410486620318</v>
       </c>
     </row>
     <row r="5">
@@ -2598,10 +2598,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5032.392985054548</v>
+        <v>5032.392970839076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2351469326074138</v>
+        <v>0.2351469333094053</v>
       </c>
     </row>
     <row r="6">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1106.782359296635</v>
+        <v>1106.782381272948</v>
       </c>
       <c r="C6" t="n">
-        <v>0.324903485814808</v>
+        <v>0.3249034752025237</v>
       </c>
     </row>
     <row r="7">
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.0153270908612</v>
+        <v>519.0153262647761</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01697358883125364</v>
+        <v>0.01697358885380156</v>
       </c>
     </row>
   </sheetData>
@@ -2673,10 +2673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>284.763081743371</v>
+        <v>284.7630795227515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8006096863123644</v>
+        <v>0.800609687769212</v>
       </c>
     </row>
     <row r="3">
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>485.2133265552173</v>
+        <v>485.2133268635544</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02335310273718772</v>
+        <v>0.02335310262099067</v>
       </c>
     </row>
     <row r="4">
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07047731541601752</v>
+        <v>-0.07047731537043248</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1482189128609762</v>
+        <v>0.148218912961755</v>
       </c>
     </row>
     <row r="5">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13251.42760751016</v>
+        <v>13251.42761041864</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007768888018841495</v>
+        <v>0.0007768887987349134</v>
       </c>
     </row>
     <row r="6">
@@ -2725,10 +2725,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1010.565458650764</v>
+        <v>1010.56546024466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2738886622236327</v>
+        <v>0.273888661173113</v>
       </c>
     </row>
     <row r="7">
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>240.748643858346</v>
+        <v>240.7486438197279</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1521689157207502</v>
+        <v>0.1521689157033309</v>
       </c>
     </row>
   </sheetData>
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.28134823860091</v>
+        <v>21.28133918274443</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9897221746550802</v>
+        <v>0.9897221790143507</v>
       </c>
     </row>
     <row r="3">
@@ -2800,10 +2800,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>629.9418428738927</v>
+        <v>629.9418450418962</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01739744844336554</v>
+        <v>0.01739744812540701</v>
       </c>
     </row>
     <row r="4">
@@ -2813,10 +2813,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07814856267833184</v>
+        <v>-0.0781485626565388</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1892964560004236</v>
+        <v>0.1892964553861067</v>
       </c>
     </row>
     <row r="5">
@@ -2826,10 +2826,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10684.11412167143</v>
+        <v>10684.11411168026</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03030209276170333</v>
+        <v>0.03030209261142424</v>
       </c>
     </row>
     <row r="6">
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1630.376967493673</v>
+        <v>1630.376980471708</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1990440641763749</v>
+        <v>0.199044060276332</v>
       </c>
     </row>
     <row r="7">
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.6988174515624</v>
+        <v>200.6988161366874</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3897820889178043</v>
+        <v>0.3897820917587217</v>
       </c>
     </row>
   </sheetData>
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>730.1001772139209</v>
+        <v>730.100169908618</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5882541368566945</v>
+        <v>0.5882541405149059</v>
       </c>
     </row>
     <row r="3">
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>483.278367685861</v>
+        <v>483.278369597537</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04754239773187808</v>
+        <v>0.04754239729006182</v>
       </c>
     </row>
     <row r="4">
@@ -2927,10 +2927,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05333324707961463</v>
+        <v>-0.05333324725496393</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3837123359285534</v>
+        <v>0.3837123338970994</v>
       </c>
     </row>
     <row r="5">
@@ -2940,10 +2940,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8795.090703592177</v>
+        <v>8795.090706692297</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0268655821626984</v>
+        <v>0.02686558197941712</v>
       </c>
     </row>
     <row r="6">
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722.1995317626387</v>
+        <v>722.1995421704994</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5023531614430974</v>
+        <v>0.5023531554649699</v>
       </c>
     </row>
     <row r="7">
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313.2088522210377</v>
+        <v>313.208850934959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1528455503859695</v>
+        <v>0.1528455522656719</v>
       </c>
     </row>
   </sheetData>
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>943.2182366758707</v>
+        <v>943.2182354198731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6415582444517632</v>
+        <v>0.6415582448764141</v>
       </c>
     </row>
     <row r="3">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>500.5336180209684</v>
+        <v>500.5336181376403</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07962426791479388</v>
+        <v>0.07962426785282241</v>
       </c>
     </row>
     <row r="4">
@@ -3041,10 +3041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06701283801407135</v>
+        <v>-0.06701283795786585</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3298507149178759</v>
+        <v>0.3298507152373286</v>
       </c>
     </row>
     <row r="5">
@@ -3054,10 +3054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8327.262343190945</v>
+        <v>8327.262345737461</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1072571210633893</v>
+        <v>0.1072571209465808</v>
       </c>
     </row>
     <row r="6">
@@ -3067,10 +3067,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>772.5888734339287</v>
+        <v>772.5888734452101</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5573000361476801</v>
+        <v>0.5573000361809707</v>
       </c>
     </row>
     <row r="7">
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>244.4297083048384</v>
+        <v>244.4297084458887</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2952417437185462</v>
+        <v>0.2952417433871727</v>
       </c>
     </row>
   </sheetData>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>688.9669587774622</v>
+        <v>688.966938179957</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7203128169230526</v>
+        <v>0.7203128247543027</v>
       </c>
     </row>
     <row r="3">
@@ -3142,10 +3142,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>553.1581154079329</v>
+        <v>553.1581194808518</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05818197322246423</v>
+        <v>0.05818197187133113</v>
       </c>
     </row>
     <row r="4">
@@ -3155,10 +3155,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08262034902981236</v>
+        <v>-0.08262034890398373</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1855110316070024</v>
+        <v>0.1855110316408228</v>
       </c>
     </row>
     <row r="5">
@@ -3168,10 +3168,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9596.115893373075</v>
+        <v>9596.115910364313</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0456530580596376</v>
+        <v>0.04565305733691779</v>
       </c>
     </row>
     <row r="6">
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1571.167393215844</v>
+        <v>1571.16741883077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2937747619901655</v>
+        <v>0.2937747546979055</v>
       </c>
     </row>
     <row r="7">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92.27454919539409</v>
+        <v>92.27454612302995</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7304311137143233</v>
+        <v>0.7304311225164615</v>
       </c>
     </row>
   </sheetData>
@@ -3243,10 +3243,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-30.48007352329842</v>
+        <v>-30.48007564354975</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9822496036749497</v>
+        <v>0.9822496024356768</v>
       </c>
     </row>
     <row r="3">
@@ -3256,10 +3256,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>641.4346073446457</v>
+        <v>641.4346076029924</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01250124322667052</v>
+        <v>0.01250124317578074</v>
       </c>
     </row>
     <row r="4">
@@ -3269,10 +3269,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07027370024765253</v>
+        <v>-0.07027370016074784</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2473206172197454</v>
+        <v>0.2473206175728011</v>
       </c>
     </row>
     <row r="5">
@@ -3282,10 +3282,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11631.12083206165</v>
+        <v>11631.12083491252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006377326752259715</v>
+        <v>0.006377326732043778</v>
       </c>
     </row>
     <row r="6">
@@ -3295,10 +3295,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1673.44247401546</v>
+        <v>1673.442474821233</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1323845319373824</v>
+        <v>0.1323845314919113</v>
       </c>
     </row>
     <row r="7">
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.8259957318334</v>
+        <v>158.8259957412459</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4300958183083076</v>
+        <v>0.4300958181636495</v>
       </c>
     </row>
   </sheetData>
@@ -3357,10 +3357,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-439.4091784371323</v>
+        <v>-439.4091918413728</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7339649683799171</v>
+        <v>0.7339649603463341</v>
       </c>
     </row>
     <row r="3">
@@ -3370,10 +3370,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>794.1435888001271</v>
+        <v>794.1435923199861</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002233225599941215</v>
+        <v>0.002233225538996656</v>
       </c>
     </row>
     <row r="4">
@@ -3383,10 +3383,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05660908995720865</v>
+        <v>-0.05660908993034405</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2141769571734776</v>
+        <v>0.2141769563710151</v>
       </c>
     </row>
     <row r="5">
@@ -3396,10 +3396,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8022.843691032831</v>
+        <v>8022.843664144262</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05693234788304895</v>
+        <v>0.05693234829024508</v>
       </c>
     </row>
     <row r="6">
@@ -3409,10 +3409,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1589.3266102211</v>
+        <v>1589.326627470329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.137769716141355</v>
+        <v>0.1377697121006393</v>
       </c>
     </row>
     <row r="7">
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>435.480184533865</v>
+        <v>435.4801841057453</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03336642386008317</v>
+        <v>0.03336642376830236</v>
       </c>
     </row>
   </sheetData>
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>597.8759079986773</v>
+        <v>597.875897481103</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7313734411594248</v>
+        <v>0.7313734455280445</v>
       </c>
     </row>
     <row r="3">
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>531.1067763022053</v>
+        <v>531.1067788409377</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08969808026313396</v>
+        <v>0.08969807893631292</v>
       </c>
     </row>
     <row r="4">
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07289505653752335</v>
+        <v>-0.07289505657436549</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2736180076068224</v>
+        <v>0.2736180062110837</v>
       </c>
     </row>
     <row r="5">
@@ -3510,10 +3510,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8580.531523385298</v>
+        <v>8580.531524922579</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1163603220336053</v>
+        <v>0.1163603215626259</v>
       </c>
     </row>
     <row r="6">
@@ -3523,10 +3523,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1297.290529241822</v>
+        <v>1297.290542386508</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3005941988771787</v>
+        <v>0.3005941934521428</v>
       </c>
     </row>
     <row r="7">
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.9410321919769</v>
+        <v>262.941030546103</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2648839804547423</v>
+        <v>0.2648839834135134</v>
       </c>
     </row>
   </sheetData>
@@ -3585,10 +3585,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>867.3488551311141</v>
+        <v>867.3488471255046</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5075510421131677</v>
+        <v>0.5075510459661753</v>
       </c>
     </row>
     <row r="3">
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>443.5529816790914</v>
+        <v>443.55298311307</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0481700754353441</v>
+        <v>0.04817007510850213</v>
       </c>
     </row>
     <row r="4">
@@ -3611,10 +3611,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02785692938779735</v>
+        <v>-0.02785692967254298</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6190885638662496</v>
+        <v>0.6190885599383171</v>
       </c>
     </row>
     <row r="5">
@@ -3624,10 +3624,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9159.23375034132</v>
+        <v>9159.233760219166</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01749233030301514</v>
+        <v>0.01749233013694785</v>
       </c>
     </row>
     <row r="6">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11.37542995464946</v>
+        <v>-11.37541651162223</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9917324282760474</v>
+        <v>0.9917324380426142</v>
       </c>
     </row>
     <row r="7">
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342.507744565652</v>
+        <v>342.5077436699448</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08491854701678958</v>
+        <v>0.08491854802808201</v>
       </c>
     </row>
   </sheetData>
@@ -3699,10 +3699,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1775.926345922276</v>
+        <v>1775.926326075811</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3479346882076904</v>
+        <v>0.3479346933261965</v>
       </c>
     </row>
     <row r="3">
@@ -3712,10 +3712,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>372.6555053743913</v>
+        <v>372.6555088624091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1674725629805988</v>
+        <v>0.1674725598975018</v>
       </c>
     </row>
     <row r="4">
@@ -3725,10 +3725,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1056155734843807</v>
+        <v>-0.1056155734005197</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07687367906817144</v>
+        <v>0.0768736790511679</v>
       </c>
     </row>
     <row r="5">
@@ -3738,10 +3738,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7810.897711736364</v>
+        <v>7810.897732717073</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07823744166477238</v>
+        <v>0.07823744047403933</v>
       </c>
     </row>
     <row r="6">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.2956657755367</v>
+        <v>862.2956886891284</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5278178623791399</v>
+        <v>0.5278178519635872</v>
       </c>
     </row>
     <row r="7">
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.4668224547895</v>
+        <v>109.4668203165317</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6665891502526311</v>
+        <v>0.6665891565840641</v>
       </c>
     </row>
   </sheetData>
@@ -3813,10 +3813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2639.508002415569</v>
+        <v>2639.508001353689</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1243206208045239</v>
+        <v>0.1243206213380482</v>
       </c>
     </row>
     <row r="3">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>278.1844592633594</v>
+        <v>278.1844590433126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2322892889683696</v>
+        <v>0.2322892908559554</v>
       </c>
     </row>
     <row r="4">
@@ -3839,10 +3839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09842197025054292</v>
+        <v>-0.09842197029875824</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05660666664142565</v>
+        <v>0.05660666653551619</v>
       </c>
     </row>
     <row r="5">
@@ -3852,10 +3852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8956.423200337947</v>
+        <v>8956.423207701637</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02501558857811455</v>
+        <v>0.02501558836064804</v>
       </c>
     </row>
     <row r="6">
@@ -3865,10 +3865,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-734.3795746119235</v>
+        <v>-734.3795742477646</v>
       </c>
       <c r="C6" t="n">
-        <v>0.528772742289359</v>
+        <v>0.5287727434294325</v>
       </c>
     </row>
     <row r="7">
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.2729004993472</v>
+        <v>198.272900895924</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3050319220801925</v>
+        <v>0.3050319213921656</v>
       </c>
     </row>
   </sheetData>
@@ -3927,10 +3927,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-454.0878473384125</v>
+        <v>-454.0878484534653</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7167387485073953</v>
+        <v>0.7167387476973649</v>
       </c>
     </row>
     <row r="3">
@@ -3940,10 +3940,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>809.8955750671023</v>
+        <v>809.8955750663806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003542442612160513</v>
+        <v>0.00354244259193715</v>
       </c>
     </row>
     <row r="4">
@@ -3953,10 +3953,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04789305309513561</v>
+        <v>-0.04789305304392466</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3112698332268958</v>
+        <v>0.3112698334987037</v>
       </c>
     </row>
     <row r="5">
@@ -3966,10 +3966,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4724.349672520641</v>
+        <v>4724.34967516997</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2058691007909931</v>
+        <v>0.2058691004710007</v>
       </c>
     </row>
     <row r="6">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1840.361464580887</v>
+        <v>1840.361465024121</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07204043934822835</v>
+        <v>0.07204043903563617</v>
       </c>
     </row>
     <row r="7">
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.0271632518688</v>
+        <v>513.0271632325876</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01638712482831488</v>
+        <v>0.01638712479915571</v>
       </c>
     </row>
   </sheetData>
@@ -4041,10 +4041,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-31.89428704503098</v>
+        <v>-31.89429546903375</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9836973661550812</v>
+        <v>0.9836973618421814</v>
       </c>
     </row>
     <row r="3">
@@ -4054,10 +4054,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>606.1766106778978</v>
+        <v>606.1766131050871</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02761330882155209</v>
+        <v>0.02761330835630329</v>
       </c>
     </row>
     <row r="4">
@@ -4067,10 +4067,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07418603835605322</v>
+        <v>-0.07418603809455587</v>
       </c>
       <c r="C4" t="n">
-        <v>0.301814964667737</v>
+        <v>0.3018149653340264</v>
       </c>
     </row>
     <row r="5">
@@ -4080,10 +4080,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11677.54095784511</v>
+        <v>11677.54095593244</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01485291471371989</v>
+        <v>0.01485291463247467</v>
       </c>
     </row>
     <row r="6">
@@ -4093,10 +4093,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1715.839157887161</v>
+        <v>1715.839164340325</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1377765384278097</v>
+        <v>0.1377765364744639</v>
       </c>
     </row>
     <row r="7">
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.415316028838</v>
+        <v>204.415314650966</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3296641074778522</v>
+        <v>0.3296641107288066</v>
       </c>
     </row>
   </sheetData>
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>567.3273422340986</v>
+        <v>567.3273315003353</v>
       </c>
       <c r="C2" t="n">
-        <v>0.68375540546489</v>
+        <v>0.6837554108844665</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>536.6655794626309</v>
+        <v>536.6655815843783</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02447398914380403</v>
+        <v>0.02447398871742859</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +4181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04703563816222221</v>
+        <v>-0.04703563867825571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4559378916188099</v>
+        <v>0.4559378853651506</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +4194,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10053.83487897628</v>
+        <v>10053.83489083225</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01508455674485294</v>
+        <v>0.01508455651036293</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +4207,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>697.9189356042461</v>
+        <v>697.9189597842928</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6086338930330768</v>
+        <v>0.6086338798166877</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>203.0259568201128</v>
+        <v>203.0259542192271</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3981841501877665</v>
+        <v>0.3981841563191671</v>
       </c>
     </row>
   </sheetData>
@@ -4269,10 +4269,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>723.4082493885553</v>
+        <v>723.4082447912679</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5953311840243707</v>
+        <v>0.5953311862219768</v>
       </c>
     </row>
     <row r="3">
@@ -4282,10 +4282,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542.9025198949196</v>
+        <v>542.9025209417016</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02052951684673101</v>
+        <v>0.02052951674659727</v>
       </c>
     </row>
     <row r="4">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07092853457949436</v>
+        <v>-0.07092853463740927</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1867481983220127</v>
+        <v>0.1867481975726399</v>
       </c>
     </row>
     <row r="5">
@@ -4308,10 +4308,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12119.45297580374</v>
+        <v>12119.45297163989</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00845747938516145</v>
+        <v>0.008457479373897972</v>
       </c>
     </row>
     <row r="6">
@@ -4321,10 +4321,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>405.280392576758</v>
+        <v>405.2804002115718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7082695971928714</v>
+        <v>0.7082695922266107</v>
       </c>
     </row>
     <row r="7">
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.4888502511916</v>
+        <v>204.4888495944439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3263820603111028</v>
+        <v>0.3263820621468566</v>
       </c>
     </row>
   </sheetData>
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>377.4473859568964</v>
+        <v>377.4473766240387</v>
       </c>
       <c r="C2" t="n">
-        <v>0.793521794035173</v>
+        <v>0.7935217987928702</v>
       </c>
     </row>
     <row r="3">
@@ -4396,10 +4396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>600.3353454608961</v>
+        <v>600.3353477599741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0159726300275848</v>
+        <v>0.01597262970528476</v>
       </c>
     </row>
     <row r="4">
@@ -4409,10 +4409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06646235259442504</v>
+        <v>-0.06646235269308523</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2315676395637156</v>
+        <v>0.2315676380794051</v>
       </c>
     </row>
     <row r="5">
@@ -4422,10 +4422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9138.319767752022</v>
+        <v>9138.31976171231</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03946341109475471</v>
+        <v>0.03946341094039459</v>
       </c>
     </row>
     <row r="6">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1287.510404353771</v>
+        <v>1287.510419401195</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2542759602078148</v>
+        <v>0.2542759545163907</v>
       </c>
     </row>
     <row r="7">
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.9245381764056</v>
+        <v>213.9245365613199</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3069372107619232</v>
+        <v>0.3069372142674228</v>
       </c>
     </row>
   </sheetData>
@@ -4497,10 +4497,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-17.66994558579881</v>
+        <v>-17.66994810194592</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9890159729152813</v>
+        <v>0.9890159713465623</v>
       </c>
     </row>
     <row r="3">
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660.4678972458806</v>
+        <v>660.4678975530103</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005968330074946676</v>
+        <v>0.005968330034760999</v>
       </c>
     </row>
     <row r="4">
@@ -4523,10 +4523,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02699752805648938</v>
+        <v>-0.02699752804918863</v>
       </c>
       <c r="C4" t="n">
-        <v>0.602517002392575</v>
+        <v>0.6025170023370643</v>
       </c>
     </row>
     <row r="5">
@@ -4536,10 +4536,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11375.45773484908</v>
+        <v>11375.45773867734</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005288358576743791</v>
+        <v>0.005288358553321106</v>
       </c>
     </row>
     <row r="6">
@@ -4549,10 +4549,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>982.9406223431497</v>
+        <v>982.9406250105026</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3897592551960311</v>
+        <v>0.3897592535592891</v>
       </c>
     </row>
     <row r="7">
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.4498853690762</v>
+        <v>171.4498852886865</v>
       </c>
       <c r="C7" t="n">
-        <v>0.370656241760437</v>
+        <v>0.3706562418024042</v>
       </c>
     </row>
   </sheetData>
@@ -4611,10 +4611,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.5980999161161</v>
+        <v>32.59809069241146</v>
       </c>
       <c r="C2" t="n">
-        <v>0.982624361999379</v>
+        <v>0.982624366895696</v>
       </c>
     </row>
     <row r="3">
@@ -4624,10 +4624,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>555.8455557584648</v>
+        <v>555.8455580109397</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02320216389438574</v>
+        <v>0.02320216344729816</v>
       </c>
     </row>
     <row r="4">
@@ -4637,10 +4637,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07144629149444154</v>
+        <v>-0.07144629139887176</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2402970498849901</v>
+        <v>0.2402970493497353</v>
       </c>
     </row>
     <row r="5">
@@ -4650,10 +4650,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9817.752880214877</v>
+        <v>9817.752870049555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02820264777686423</v>
+        <v>0.02820264767065734</v>
       </c>
     </row>
     <row r="6">
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1529.145960540662</v>
+        <v>1529.145973021586</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1937283113010005</v>
+        <v>0.1937283072827421</v>
       </c>
     </row>
     <row r="7">
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311.4951298385848</v>
+        <v>311.4951285238185</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1404333122575113</v>
+        <v>0.1404333136777251</v>
       </c>
     </row>
   </sheetData>
@@ -4725,10 +4725,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>678.3294791782855</v>
+        <v>678.329470767454</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7206826329770838</v>
+        <v>0.7206826362653441</v>
       </c>
     </row>
     <row r="3">
@@ -4738,10 +4738,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>513.1036816655093</v>
+        <v>513.1036831339829</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05467994042896738</v>
+        <v>0.05467994015198797</v>
       </c>
     </row>
     <row r="4">
@@ -4751,10 +4751,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07436897927452632</v>
+        <v>-0.07436897916478549</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1940875184970685</v>
+        <v>0.1940875188550869</v>
       </c>
     </row>
     <row r="5">
@@ -4764,10 +4764,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12045.93014290962</v>
+        <v>12045.93014761774</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0164385458089282</v>
+        <v>0.01643854562284177</v>
       </c>
     </row>
     <row r="6">
@@ -4777,10 +4777,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>617.5716859214576</v>
+        <v>617.5716928381066</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6320468863507602</v>
+        <v>0.6320468824129637</v>
       </c>
     </row>
     <row r="7">
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>231.5617018497869</v>
+        <v>231.5617015427239</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2483288447167111</v>
+        <v>0.2483288453402737</v>
       </c>
     </row>
   </sheetData>
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1772.637265381633</v>
+        <v>1772.637260602177</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2258126663221427</v>
+        <v>0.2258126680852339</v>
       </c>
     </row>
     <row r="3">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.4480608417446</v>
+        <v>167.448061981578</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5456234744560825</v>
+        <v>0.5456234729103986</v>
       </c>
     </row>
     <row r="4">
@@ -4865,10 +4865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07254521759927976</v>
+        <v>-0.07254521757592815</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1812019987955086</v>
+        <v>0.1812019984692621</v>
       </c>
     </row>
     <row r="5">
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7014.843880045533</v>
+        <v>7014.843885049359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0792963081004813</v>
+        <v>0.0792963078550353</v>
       </c>
     </row>
     <row r="6">
@@ -4891,10 +4891,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.2942689097138</v>
+        <v>167.2942734582427</v>
       </c>
       <c r="C6" t="n">
-        <v>0.877052262032325</v>
+        <v>0.8770522589241414</v>
       </c>
     </row>
     <row r="7">
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456.0390410444847</v>
+        <v>456.0390404841121</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04186946160163075</v>
+        <v>0.04186946218591965</v>
       </c>
     </row>
   </sheetData>
@@ -4953,10 +4953,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>222.7121493137338</v>
+        <v>222.7121388789069</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8621746489515638</v>
+        <v>0.8621746550293643</v>
       </c>
     </row>
     <row r="3">
@@ -4966,10 +4966,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>898.9576150094147</v>
+        <v>898.9576185222272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001231818854590741</v>
+        <v>0.001231818803959077</v>
       </c>
     </row>
     <row r="4">
@@ -4979,10 +4979,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1009899843005711</v>
+        <v>-0.1009899846940356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08101461922071571</v>
+        <v>0.0810146174142764</v>
       </c>
     </row>
     <row r="5">
@@ -4992,10 +4992,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3803.008908476156</v>
+        <v>3803.008892249407</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3466930711288773</v>
+        <v>0.3466930719398477</v>
       </c>
     </row>
     <row r="6">
@@ -5005,10 +5005,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1781.133116298024</v>
+        <v>1781.133138360046</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09303202783344738</v>
+        <v>0.09303202371692089</v>
       </c>
     </row>
     <row r="7">
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.6889694536773</v>
+        <v>358.6889665418743</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1933730015282459</v>
+        <v>0.1933730042899802</v>
       </c>
     </row>
   </sheetData>
@@ -5067,10 +5067,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885.6573607205628</v>
+        <v>885.6573531329013</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4951830754180111</v>
+        <v>0.495183078742258</v>
       </c>
     </row>
     <row r="3">
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525.1224623896147</v>
+        <v>525.1224644952304</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02170620871864796</v>
+        <v>0.02170620833695418</v>
       </c>
     </row>
     <row r="4">
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07771708711299019</v>
+        <v>-0.07771708723389173</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1450821028727703</v>
+        <v>0.1450821015958014</v>
       </c>
     </row>
     <row r="5">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9301.226692427579</v>
+        <v>9301.226691094278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01395118576645011</v>
+        <v>0.01395118565048388</v>
       </c>
     </row>
     <row r="6">
@@ -5119,10 +5119,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1299.146983420136</v>
+        <v>1299.146997170176</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2397417539173746</v>
+        <v>0.2397417490582585</v>
       </c>
     </row>
     <row r="7">
@@ -5132,10 +5132,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.7100049145374</v>
+        <v>100.7100028108738</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6574187509733435</v>
+        <v>0.6574187577397592</v>
       </c>
     </row>
   </sheetData>
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.4797187857926</v>
+        <v>362.4797146550795</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8031946614977415</v>
+        <v>0.803194663650455</v>
       </c>
     </row>
     <row r="3">
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>549.8063423071328</v>
+        <v>549.8063429219289</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03239552196206408</v>
+        <v>0.03239552174451208</v>
       </c>
     </row>
     <row r="4">
@@ -5207,10 +5207,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03005150971967932</v>
+        <v>-0.03005150970250922</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6158188434937824</v>
+        <v>0.6158188435681629</v>
       </c>
     </row>
     <row r="5">
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9484.80850563915</v>
+        <v>9484.808510801911</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02184710633033118</v>
+        <v>0.02184710625235693</v>
       </c>
     </row>
     <row r="6">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>444.6189939214339</v>
+        <v>444.6189983486938</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7168219994815588</v>
+        <v>0.7168219965800315</v>
       </c>
     </row>
     <row r="7">
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>320.4906720241702</v>
+        <v>320.4906718312235</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1457385889521207</v>
+        <v>0.1457385890775265</v>
       </c>
     </row>
   </sheetData>
@@ -5295,10 +5295,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>637.4604529295566</v>
+        <v>637.4604323674735</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7990086426405036</v>
+        <v>0.7990086490242515</v>
       </c>
     </row>
     <row r="3">
@@ -5308,10 +5308,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.9878473783476</v>
+        <v>530.9878508393494</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1463963063800805</v>
+        <v>0.1463963044944974</v>
       </c>
     </row>
     <row r="4">
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07705280515278218</v>
+        <v>-0.07705280492769484</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2929062689363576</v>
+        <v>0.292906269743775</v>
       </c>
     </row>
     <row r="5">
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9584.20630813877</v>
+        <v>9584.206337770323</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1299042456378652</v>
+        <v>0.1299042441672241</v>
       </c>
     </row>
     <row r="6">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1156.331539168799</v>
+        <v>1156.331553138436</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4416024570722638</v>
+        <v>0.4416024512827187</v>
       </c>
     </row>
     <row r="7">
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>248.7388402310055</v>
+        <v>248.7388392908067</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3093640407564142</v>
+        <v>0.309364042518013</v>
       </c>
     </row>
   </sheetData>
@@ -5409,10 +5409,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>452.3751177744006</v>
+        <v>452.3751094831982</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7655421472179548</v>
+        <v>0.7655421511790916</v>
       </c>
     </row>
     <row r="3">
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>571.0884866369923</v>
+        <v>571.0884887362702</v>
       </c>
       <c r="C3" t="n">
-        <v>0.028152256884383</v>
+        <v>0.02815225643075735</v>
       </c>
     </row>
     <row r="4">
@@ -5435,10 +5435,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07677685385645497</v>
+        <v>-0.07677685394423792</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1970543914884846</v>
+        <v>0.1970543903112447</v>
       </c>
     </row>
     <row r="5">
@@ -5448,10 +5448,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9404.049058979963</v>
+        <v>9404.049052938712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04260668360866869</v>
+        <v>0.04260668350226313</v>
       </c>
     </row>
     <row r="6">
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1239.151201675062</v>
+        <v>1239.151214961919</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2930231426231294</v>
+        <v>0.2930231373588281</v>
       </c>
     </row>
     <row r="7">
@@ -5474,10 +5474,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>228.2797899951418</v>
+        <v>228.2797885253569</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3003669794017216</v>
+        <v>0.300366982488122</v>
       </c>
     </row>
   </sheetData>
@@ -5523,10 +5523,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123.0289664874663</v>
+        <v>123.0289547276175</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9223672091499091</v>
+        <v>0.9223672165205704</v>
       </c>
     </row>
     <row r="3">
@@ -5536,10 +5536,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>603.5909603393067</v>
+        <v>603.5909625292802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008554124989240278</v>
+        <v>0.008554124831570699</v>
       </c>
     </row>
     <row r="4">
@@ -5549,10 +5549,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02863491983465709</v>
+        <v>-0.02863491999860106</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5679905900763316</v>
+        <v>0.5679905867895171</v>
       </c>
     </row>
     <row r="5">
@@ -5562,10 +5562,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11187.4744305366</v>
+        <v>11187.47444267547</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004559721308260333</v>
+        <v>0.004559721232189437</v>
       </c>
     </row>
     <row r="6">
@@ -5575,10 +5575,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722.5655694534926</v>
+        <v>722.5655859619312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4849104653429032</v>
+        <v>0.4849104544096142</v>
       </c>
     </row>
     <row r="7">
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>241.8105449249421</v>
+        <v>241.8105435776594</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1633864234139943</v>
+        <v>0.16338642559473</v>
       </c>
     </row>
   </sheetData>
@@ -5637,10 +5637,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.04841792735363</v>
+        <v>25.04840950352764</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9814870535448954</v>
+        <v>0.9814870597601526</v>
       </c>
     </row>
     <row r="3">
@@ -5650,10 +5650,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>632.5661968054726</v>
+        <v>632.5661995718704</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006478826493822657</v>
+        <v>0.006478826358554112</v>
       </c>
     </row>
     <row r="4">
@@ -5663,10 +5663,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07343916555088406</v>
+        <v>-0.07343916540682358</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1037452609380125</v>
+        <v>0.1037452608608405</v>
       </c>
     </row>
     <row r="5">
@@ -5676,10 +5676,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10175.5980316089</v>
+        <v>10175.59800851934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009843856605905464</v>
+        <v>0.009843856677343747</v>
       </c>
     </row>
     <row r="6">
@@ -5689,10 +5689,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1359.981932755796</v>
+        <v>1359.981942600553</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1400686798698614</v>
+        <v>0.1400686771010398</v>
       </c>
     </row>
     <row r="7">
@@ -5702,10 +5702,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>345.1647357243141</v>
+        <v>345.1647352480338</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05118544894294653</v>
+        <v>0.05118544905632207</v>
       </c>
     </row>
   </sheetData>
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1660.278749158654</v>
+        <v>1660.278732527757</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4123292565793534</v>
+        <v>0.4123292609582299</v>
       </c>
     </row>
     <row r="3">
@@ -5764,10 +5764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>494.6952137994539</v>
+        <v>494.6952162768407</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07083457498166372</v>
+        <v>0.07083457397983899</v>
       </c>
     </row>
     <row r="4">
@@ -5777,10 +5777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09988831794698994</v>
+        <v>-0.09988831788338687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1147386667742417</v>
+        <v>0.1147386667555468</v>
       </c>
     </row>
     <row r="5">
@@ -5790,10 +5790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7709.096705254899</v>
+        <v>7709.096720190792</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1214778360338299</v>
+        <v>0.1214778348474364</v>
       </c>
     </row>
     <row r="6">
@@ -5803,10 +5803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>677.7585923604047</v>
+        <v>677.7586084684356</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6034592476513674</v>
+        <v>0.6034592391181697</v>
       </c>
     </row>
     <row r="7">
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.0877714074553</v>
+        <v>120.0877708265962</v>
       </c>
       <c r="C7" t="n">
-        <v>0.599045477965658</v>
+        <v>0.5990454796265942</v>
       </c>
     </row>
   </sheetData>
@@ -5865,10 +5865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>155.0304562119923</v>
+        <v>155.0304409308856</v>
       </c>
       <c r="C2" t="n">
-        <v>0.915411558927526</v>
+        <v>0.915411567145247</v>
       </c>
     </row>
     <row r="3">
@@ -5878,10 +5878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>612.8184553521551</v>
+        <v>612.8184593034574</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02206151238209408</v>
+        <v>0.02206151174438173</v>
       </c>
     </row>
     <row r="4">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05626718654699345</v>
+        <v>-0.05626718681251575</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3735259283524565</v>
+        <v>0.3735259247594587</v>
       </c>
     </row>
     <row r="5">
@@ -5904,10 +5904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11432.23474746566</v>
+        <v>11432.23475617636</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009865090784957474</v>
+        <v>0.009865090619723484</v>
       </c>
     </row>
     <row r="6">
@@ -5917,10 +5917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1528.013951387529</v>
+        <v>1528.013981488396</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2859071360729505</v>
+        <v>0.2859071264638294</v>
       </c>
     </row>
     <row r="7">
@@ -5930,10 +5930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.68808417748733</v>
+        <v>72.68807966723944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7744190476887767</v>
+        <v>0.7744190615158233</v>
       </c>
     </row>
   </sheetData>
@@ -5979,10 +5979,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-160.2231703601633</v>
+        <v>-160.2231711374907</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8984859689323518</v>
+        <v>0.8984859683953946</v>
       </c>
     </row>
     <row r="3">
@@ -5992,10 +5992,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>803.3513206137167</v>
+        <v>803.3513206475991</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002981588350679055</v>
+        <v>0.00298158833469143</v>
       </c>
     </row>
     <row r="4">
@@ -6005,10 +6005,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06970065532702338</v>
+        <v>-0.06970065532013806</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1530847404820943</v>
+        <v>0.1530847403779384</v>
       </c>
     </row>
     <row r="5">
@@ -6018,10 +6018,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7118.768808457726</v>
+        <v>7118.768808389137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1324386549309401</v>
+        <v>0.1324386548755511</v>
       </c>
     </row>
     <row r="6">
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1578.648959422347</v>
+        <v>1578.648960170394</v>
       </c>
       <c r="C6" t="n">
-        <v>0.147384783286207</v>
+        <v>0.1473847828203016</v>
       </c>
     </row>
     <row r="7">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>420.0748255369063</v>
+        <v>420.0748256276679</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0436020711699058</v>
+        <v>0.04360207107987589</v>
       </c>
     </row>
   </sheetData>
@@ -6093,10 +6093,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>726.7120002196384</v>
+        <v>726.7119904843485</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5873459753573613</v>
+        <v>0.5873459801870068</v>
       </c>
     </row>
     <row r="3">
@@ -6106,10 +6106,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>452.1143831847719</v>
+        <v>452.1143852989279</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06326142402655982</v>
+        <v>0.06326142312572898</v>
       </c>
     </row>
     <row r="4">
@@ -6119,10 +6119,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05667493753091341</v>
+        <v>-0.05667493761655593</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2893849565760634</v>
+        <v>0.2893849551786709</v>
       </c>
     </row>
     <row r="5">
@@ -6132,10 +6132,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8788.658032807472</v>
+        <v>8788.658039703256</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02455035631795112</v>
+        <v>0.02455035606414763</v>
       </c>
     </row>
     <row r="6">
@@ -6145,10 +6145,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>781.0618786070138</v>
+        <v>781.0618905719782</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4553508295760216</v>
+        <v>0.455350822537706</v>
       </c>
     </row>
     <row r="7">
@@ -6158,10 +6158,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.5572610786935</v>
+        <v>332.5572598652093</v>
       </c>
       <c r="C7" t="n">
-        <v>0.109798662544767</v>
+        <v>0.1097986638454316</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Nimes.xlsx
+++ b/outputs/ML_Results/dist_LR/Nimes.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ58407741" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ58625061" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ58847458" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ59058746" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ59283544" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ59531719" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ59743724" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ59958619" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ00189995" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ00391451" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ00596671" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ00802158" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ01005759" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ01219177" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ01439756" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ01638139" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ01864194" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ02096762" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ02364906" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ02617553" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ02868832" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ03136418" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ03405445" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ03704458" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ04010369" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ04299258" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ04556263" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ04822185" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ05131747" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ05445371" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ05708758" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ06011048" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ06293558" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ06557980" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ06807036" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ07070119" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ07307082" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ07557093" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ07806804" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ08086814" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ08379947" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ08677905" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ08975092" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ09226252" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ09473699" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ09741511" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ10020367" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ10343586" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ10608554" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ10939400" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ01369947" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ01548957" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ01738396" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ01924734" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ02113268" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ02310516" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ02603463" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ02823077" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ03037757" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ03251791" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ03469427" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ03685016" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ03895860" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ04108276" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ04320401" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ04547665" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ04760417" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ04979887" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ05193948" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ05407434" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ05619930" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ05837903" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ06041824" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ06258109" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ06469132" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ06685231" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ06893958" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ07107539" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ07320119" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ07533891" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ07744687" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ07962248" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ08169499" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ08380049" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ08604057" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ08817235" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ09033310" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ09243082" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ09459074" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ09677128" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ09895659" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ10110519" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ10324187" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ10541745" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ10752937" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ10965195" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ11177279" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ11394972" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ11608176" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ11818874" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,75 +507,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-663.4919805312338</v>
+        <v>-8827.117429175214</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6176613349606542</v>
+        <v>0.0050531095063457</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>959.4947491774421</v>
+        <v>752.4524622585438</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001941303826849601</v>
+        <v>0.02152320453063999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05832887464681888</v>
+        <v>923.3907750505753</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3060293410354534</v>
+        <v>0.005912131070989035</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4413.069096637566</v>
+        <v>0.154853607536253</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2863802204838764</v>
+        <v>0.09278748602284367</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1691.321114632106</v>
+        <v>-0.000142662797278271</v>
       </c>
       <c r="C6" t="n">
-        <v>0.120924487820034</v>
+        <v>0.1167546288864945</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.7601617515991</v>
+        <v>2.129394698410678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04971097712035046</v>
+        <v>0.8289915843011825</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>455.7343585392846</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7734390160847283</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1354.655105649262</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2023751376859833</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-6583.214709052865</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.06302112493007492</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>257.9460251046445</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0002796397437102586</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,75 +673,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79.43836849442255</v>
+        <v>5263.677115945256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9563387968849868</v>
+        <v>0.09261114477223287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>529.7518586911539</v>
+        <v>-280.5793871036126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03143196360750869</v>
+        <v>0.470080188213354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05876560918784594</v>
+        <v>125.2873285054097</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3326450322690472</v>
+        <v>0.7935644560694287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10325.38018187893</v>
+        <v>-0.1566699966003033</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01173131881114239</v>
+        <v>0.2263613417522862</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1278.731425690399</v>
+        <v>5.074239591443448e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2601456233677134</v>
+        <v>0.7145314751863372</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319.6980057041732</v>
+        <v>2.551992551975019</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1334429197677457</v>
+        <v>0.883493882359551</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5506.721125806751</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.07753861231767648</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1888.275862798998</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.390111057352349</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5039.943028652302</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2938848328890359</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9.517132150455907</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8411861358083282</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,75 +839,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1020.220550945247</v>
+        <v>1254.890960021264</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5737986246074462</v>
+        <v>0.7096012082136192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>632.2962120628582</v>
+        <v>-6.237357385647101</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02486555154746042</v>
+        <v>0.9821668695855776</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05557908051805036</v>
+        <v>229.7559106796195</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3350431008550527</v>
+        <v>0.5625759065600433</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4076.909665062543</v>
+        <v>-0.0301038748145111</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3959562543788797</v>
+        <v>0.7485055712694655</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>453.7783563582097</v>
+        <v>-1.07335619765615e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7265476920285101</v>
+        <v>0.9194166037920959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>424.4324224363935</v>
+        <v>8.230488675777778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04517606280445172</v>
+        <v>0.5678981964384251</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3398.684866563804</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1164384657315111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2214.709614417566</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1876228120644264</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1110.758074843157</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7983780204237418</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>71.8891793351213</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2146875351778505</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,75 +1005,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1216.187851206641</v>
+        <v>4419.682924258126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4490182778183884</v>
+        <v>0.1554014334230903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>454.676151080375</v>
+        <v>-260.8052476111086</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1224350202289767</v>
+        <v>0.5658297490576054</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1211274982506216</v>
+        <v>283.4207958098325</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1075414585260427</v>
+        <v>0.5652134060074122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7331.122717946186</v>
+        <v>-0.1829122995500347</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1220665198936943</v>
+        <v>0.1832670369275127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2317.281862435572</v>
+        <v>7.050325720180998e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1170066498711701</v>
+        <v>0.6519024289615813</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.94594196875732</v>
+        <v>-0.2097003628551874</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9647544926140701</v>
+        <v>0.9922068996484559</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4735.621295184968</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08751449646673269</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-412.2286283221456</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8530518982527446</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5508.199987865564</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3468386069610537</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.4850561957753</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9323388220570552</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,75 +1171,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821.4901389275528</v>
+        <v>4694.148736335429</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5490595414329409</v>
+        <v>0.03974315003623556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493.0291511421602</v>
+        <v>-269.5718391525461</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05708801851799374</v>
+        <v>0.3739967683584493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06926191849603343</v>
+        <v>95.9778560889327</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2320798273737474</v>
+        <v>0.8503993372777217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8820.045047307784</v>
+        <v>-0.241408556052118</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02668532140377796</v>
+        <v>0.1440121310230552</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>830.0806779301746</v>
+        <v>0.0003515919009921653</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4406386476191482</v>
+        <v>0.2898631331030524</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>259.815088314597</v>
+        <v>17.02253164220692</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2600957546011954</v>
+        <v>0.2818093297225767</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-7446.435752389793</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05049125169831097</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-836.8634904112989</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6428630213836934</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5478.339516923295</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1471176556712104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-38.68958063415616</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3606800108505596</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,75 +1337,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-156.7060764796404</v>
+        <v>4158.806166397864</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8936755213582827</v>
+        <v>0.1207465254564914</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591.789461227982</v>
+        <v>-117.0161314123944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003550663594762139</v>
+        <v>0.7290286298866884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05647585023302457</v>
+        <v>396.8985126646833</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1899810118513008</v>
+        <v>0.3144833065349118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14151.75210817392</v>
+        <v>-0.1137739192340338</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002406795228053732</v>
+        <v>0.1711546930585503</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1259.924127570624</v>
+        <v>1.16613009421781e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1783002610614741</v>
+        <v>0.9100485532574533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>207.5766992326498</v>
+        <v>-2.504348563659946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.200667323378913</v>
+        <v>0.8446908866280098</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3772.184865885916</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1353980131833294</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-807.425996993933</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6725806840846731</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8931.693581572912</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.06259196576176161</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-5.476341959961928</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8871154464022684</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,75 +1503,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.8119943208923</v>
+        <v>4145.005120623578</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9014765470908861</v>
+        <v>0.09565147876095174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>625.9222599207886</v>
+        <v>-280.2488910394454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01827176690692578</v>
+        <v>0.426354062008905</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0677297290218874</v>
+        <v>217.1717840899701</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2450124451506764</v>
+        <v>0.6955179507823079</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10201.08596830085</v>
+        <v>-0.169925309868708</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02222514555318103</v>
+        <v>0.1153895149998411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1292.509672849245</v>
+        <v>0.0001008621539079428</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2753553134508386</v>
+        <v>0.4655299089233916</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>225.0957657846831</v>
+        <v>15.66957304139471</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2968355519183193</v>
+        <v>0.44645879921856</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4754.834919774472</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04428523573145077</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-139.9039610472009</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9457177550994943</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8528.246476992266</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07955018254331607</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-40.13164374395336</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4723108479813095</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,75 +1669,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>646.4883687899401</v>
+        <v>2486.557764386706</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6351205222935408</v>
+        <v>0.2060638505915379</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>479.4199894594467</v>
+        <v>5.412080825276234</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01940965696273124</v>
+        <v>0.9830531482096336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06959698643755274</v>
+        <v>360.4586702918849</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08548848209816315</v>
+        <v>0.3651950633972009</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13074.8659592183</v>
+        <v>-0.0656446549645807</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0009764403621187676</v>
+        <v>0.3778813082259415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>882.7289344107076</v>
+        <v>-2.152923570023874e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3575590327495682</v>
+        <v>0.8252048807922072</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.9450999863412</v>
+        <v>1.855899320184587</v>
       </c>
       <c r="C7" t="n">
-        <v>0.235737113279114</v>
+        <v>0.8858878818161282</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2375.693883259622</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2585666949304657</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-119.6564278092792</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9307691869830568</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11395.68385078595</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.007580655071874737</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-6.645873555379751</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8372659692640528</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,75 +1835,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>601.868873193735</v>
+        <v>4721.575860938275</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6805548651748239</v>
+        <v>0.05822362005879583</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>498.5222839108887</v>
+        <v>-746.8381349025992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04703513953897441</v>
+        <v>0.08542629730361662</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1038774574335493</v>
+        <v>247.8923980947663</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1538001326145071</v>
+        <v>0.5737165807006419</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10067.61215615003</v>
+        <v>-0.3492604294428379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02298377757707646</v>
+        <v>0.02507095773156667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1681.861000789311</v>
+        <v>0.0002445487939046028</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1963241913772896</v>
+        <v>0.1087000356331029</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>147.9721481913216</v>
+        <v>12.06318151942924</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5462516393179395</v>
+        <v>0.4690209923378873</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-7274.094333739648</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00951628157227833</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>306.1290022830528</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8615334581629708</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7023.011912306933</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.09948426863467714</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-11.14022144084134</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7948534596367303</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,75 +2001,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>551.9155551461258</v>
+        <v>5244.535153134887</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7174841190254975</v>
+        <v>0.05272762523752623</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>598.9431387315179</v>
+        <v>-288.764216755565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02013359082825806</v>
+        <v>0.4055452408582453</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0696836253856491</v>
+        <v>123.5889930363729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2256523207439218</v>
+        <v>0.8084791432159742</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8993.514737021525</v>
+        <v>-0.1309980216035717</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04981318397215309</v>
+        <v>0.2027410404550413</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1065.203664013259</v>
+        <v>8.268585475828329e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3555087311572311</v>
+        <v>0.545327293056501</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.6895399846788</v>
+        <v>16.55738301974141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3464453820005531</v>
+        <v>0.3810014974983149</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5440.64419484531</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03170761069543594</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1520.540751374891</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4435615782314466</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6320.249959968685</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1751470197881601</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-40.67514579007707</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4077824348719793</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1647,75 +2167,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>500.959555238911</v>
+        <v>5628.037541165311</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7579051787474836</v>
+        <v>0.04781909314321099</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>580.5374031312967</v>
+        <v>-148.7804287070622</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07790940086034863</v>
+        <v>0.6581462367234518</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06816545833918819</v>
+        <v>742.2253452770494</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2859896070654419</v>
+        <v>0.2461957912455845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9203.267061819852</v>
+        <v>-0.3241669424695473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04643920899043105</v>
+        <v>0.1084343424143859</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1086.413752604647</v>
+        <v>0.0004770812103388364</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3784066534694672</v>
+        <v>0.2424245279932389</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>230.0433846803152</v>
+        <v>-3.478040132532247</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3656134106926779</v>
+        <v>0.8411356479688887</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-8677.762854194545</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05469909387855433</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>499.4915355474886</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8191329842920937</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3787.854284210744</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4288863266132186</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-57.04304194478729</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3087182794727248</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +2301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1761,75 +2333,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.3636464474923</v>
+        <v>4090.008709474505</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8619752441248022</v>
+        <v>0.1661408592053166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>476.1432779540256</v>
+        <v>-384.0428367012181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07700859917708203</v>
+        <v>0.3266172081767361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07167340146728479</v>
+        <v>-150.5144974768476</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2069870549722931</v>
+        <v>0.751586654912699</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10290.90591196615</v>
+        <v>-0.13949229267894</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01573203231801678</v>
+        <v>0.1812484081503118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1160.446947788062</v>
+        <v>5.506173844701845e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.342659408067067</v>
+        <v>0.6855390013632976</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337.3352191316891</v>
+        <v>20.68001586884664</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1339751725898281</v>
+        <v>0.2322139296525324</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4596.850302418195</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1108622062765805</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1218.565650618269</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5742024300955821</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7766.229104287258</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1252894893551487</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-9.821994360713077</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8333850942862253</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +2467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1875,75 +2499,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-517.6576957435518</v>
+        <v>1996.280349274877</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6830999697027198</v>
+        <v>0.6582334259128246</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>807.5420316682903</v>
+        <v>-114.1624891487745</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001491288774069768</v>
+        <v>0.7426781017011794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03482755957627176</v>
+        <v>269.6453225421242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4898153660670165</v>
+        <v>0.4641218371801521</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5910.088065026667</v>
+        <v>-0.03267435823957186</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1182494309471827</v>
+        <v>0.7000329376992871</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1416.638433367953</v>
+        <v>-1.286878126083683e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2084317596880046</v>
+        <v>0.8971171774148055</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>544.9742924587276</v>
+        <v>0.3530723230592514</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01036165311462523</v>
+        <v>0.9828355145538157</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4443.335234459177</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1330171555329795</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3183.992085113936</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2317528847062268</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>586.200153658905</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8798184810874878</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>95.90135366261148</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1043555660138974</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,75 +2665,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>439.6955252372127</v>
+        <v>6869.458018195465</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7662516587482925</v>
+        <v>0.01530773589811427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>517.4144558407511</v>
+        <v>-223.1421645420426</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04093558948833696</v>
+        <v>0.4954226782347289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04140127509070163</v>
+        <v>254.9365571420726</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4959461446424636</v>
+        <v>0.5254706664130919</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9791.569613488628</v>
+        <v>-0.1140441799133743</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01782042307793189</v>
+        <v>0.271308362975394</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344.1856930352005</v>
+        <v>2.203711577856136e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7815739909690798</v>
+        <v>0.8527391600574927</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>346.3096145331166</v>
+        <v>-6.555730141598019</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1172827356318985</v>
+        <v>0.6638682043654968</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6292.259304192468</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01417285317848099</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3742.650524891265</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.09379161926992961</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2425.920652480416</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5592263215152474</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>13.19128675901874</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7684302901233226</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,75 +2831,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.81858645457896</v>
+        <v>-1170.899908772293</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9451348513871326</v>
+        <v>0.6523369251876301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>715.9156582753267</v>
+        <v>-47.22180505572101</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007329821008261361</v>
+        <v>0.8381936967248922</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06490750744025633</v>
+        <v>135.4996433364195</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2476929676556928</v>
+        <v>0.7052072841482382</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4603.99673354398</v>
+        <v>-0.07758991260475422</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2507176487493384</v>
+        <v>0.3944878626996349</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1468.097654799597</v>
+        <v>0.0001411432079328369</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1480912335487413</v>
+        <v>0.2602772506138</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>516.737896114718</v>
+        <v>26.29418897815991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01528317764801906</v>
+        <v>0.07268863137770919</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3401.663321347647</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08140280479126127</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-646.4220594715862</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5984136217295788</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>378.670174834293</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9060333179956583</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>70.43779831227637</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1587548923788297</v>
       </c>
     </row>
   </sheetData>
@@ -2185,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,75 +2997,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.024458557988</v>
+        <v>4787.05812744079</v>
       </c>
       <c r="C2" t="n">
-        <v>0.445437669925754</v>
+        <v>0.1219351372112079</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>422.4066172119472</v>
+        <v>-142.8770763317327</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1747618003526825</v>
+        <v>0.6928148031876844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09048232302484094</v>
+        <v>64.4170030616167</v>
       </c>
       <c r="C4" t="n">
-        <v>0.206377670848513</v>
+        <v>0.9019177912032732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7452.340951715611</v>
+        <v>-0.08219875797726856</v>
       </c>
       <c r="C5" t="n">
-        <v>0.16972469372126</v>
+        <v>0.4801175037114157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>601.1096186974393</v>
+        <v>-1.765517331111784e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6460289058601992</v>
+        <v>0.9055922156826266</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166.9847910533765</v>
+        <v>5.678321628302768</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4832942643686722</v>
+        <v>0.7345984686875207</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5040.442126232532</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.07126998308956091</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1680.943033821726</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3945458418183578</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5986.661404323408</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2790953075303828</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.361613591906121</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9767949964301617</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2331,75 +3163,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.94920531465914</v>
+        <v>4237.541608932901</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9601723762611425</v>
+        <v>0.06370964051965868</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.495943805586</v>
+        <v>-168.4283189429025</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01046603157414428</v>
+        <v>0.5755146988272385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07097661389766019</v>
+        <v>308.9257893876407</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1768197086691268</v>
+        <v>0.4494991575798948</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11441.28651944988</v>
+        <v>-0.1117864312494654</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008381197522122649</v>
+        <v>0.213075277968568</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1696.211051429116</v>
+        <v>2.039909487813588e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1209372358977866</v>
+        <v>0.8718061570181389</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166.6826414042191</v>
+        <v>4.873004554336248</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3922863898645162</v>
+        <v>0.7519950471512806</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4287.483637865656</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05798330932097083</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-760.1080192138033</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6505292165122742</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8589.803157969673</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04806956519353059</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-18.44403773370166</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6642160428480886</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +3297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,75 +3329,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>355.7328662151124</v>
+        <v>3011.568621696111</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7812298849609983</v>
+        <v>0.2248758857412429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>553.5559629345905</v>
+        <v>-381.7840455813434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01552722676006445</v>
+        <v>0.41984412181189</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07477467907273944</v>
+        <v>245.4895455143278</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1505188567519014</v>
+        <v>0.6400596629058142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12428.70095979454</v>
+        <v>-0.1710870070777532</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003827162088555415</v>
+        <v>0.1084491862927136</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1143.562449956872</v>
+        <v>0.0001175573617657765</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3223391127708106</v>
+        <v>0.391656742778672</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165.9934855655021</v>
+        <v>13.62195929836591</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4479188968291143</v>
+        <v>0.452369182487439</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4318.002733327482</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09804782881909357</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>42.96481957920605</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.982291574273108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10084.93065067109</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04740050568595543</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-15.65747225712305</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7479920123094154</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2559,75 +3495,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-78.53837699782616</v>
+        <v>-2998.852458642689</v>
       </c>
       <c r="C2" t="n">
-        <v>0.95345596652873</v>
+        <v>0.3793564419479486</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>809.2189096274737</v>
+        <v>191.8025022624931</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003844379154237106</v>
+        <v>0.4459164035965565</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04395262721431406</v>
+        <v>549.5036183414852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4276410486620318</v>
+        <v>0.1039995290737274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5032.392970839076</v>
+        <v>0.0253783006747928</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2351469333094053</v>
+        <v>0.7308698573264074</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1106.782381272948</v>
+        <v>-4.653003671970649e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3249034752025237</v>
+        <v>0.6026518066657409</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.0153262647761</v>
+        <v>0.6026944310211064</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01697358885380156</v>
+        <v>0.9589480410138549</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2611.12883253654</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1413628546587362</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2130.165411664983</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1389918182247357</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2851.037956814102</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4583583952767124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>177.8657934601663</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01082282297216204</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +3629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2673,75 +3661,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>284.7630795227515</v>
+        <v>2683.490140318153</v>
       </c>
       <c r="C2" t="n">
-        <v>0.800609687769212</v>
+        <v>0.2408275928075604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>485.2133268635544</v>
+        <v>-41.54713261314777</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02335310262099067</v>
+        <v>0.9000778564904574</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07047731537043248</v>
+        <v>290.8126290476805</v>
       </c>
       <c r="C4" t="n">
-        <v>0.148218912961755</v>
+        <v>0.5935273592301482</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13251.42761041864</v>
+        <v>-0.1198640085371631</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007768887987349134</v>
+        <v>0.2544517958774594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1010.56546024466</v>
+        <v>4.547561091988318e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.273888661173113</v>
+        <v>0.7141013358197728</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>240.7486438197279</v>
+        <v>5.758496163618421</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1521689157033309</v>
+        <v>0.738380246758727</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2825.082564079225</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2430972491414349</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-79.04065561472135</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.965382283897889</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10489.40294879453</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02606274663891218</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-12.6562601417271</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7571691053878394</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2787,75 +3827,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.28133918274443</v>
+        <v>5146.4658165796</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9897221790143507</v>
+        <v>0.09448028940901937</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>629.9418450418962</v>
+        <v>-605.8425419940636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01739744812540701</v>
+        <v>0.168706759012164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0781485626565388</v>
+        <v>-94.20910841088744</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1892964553861067</v>
+        <v>0.8560820798630221</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10684.11411168026</v>
+        <v>-0.1682971079089716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03030209261142424</v>
+        <v>0.1405692538223384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1630.376980471708</v>
+        <v>0.0001190350979228186</v>
       </c>
       <c r="C6" t="n">
-        <v>0.199044060276332</v>
+        <v>0.4522447868033638</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.6988161366874</v>
+        <v>26.55169283291106</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3897820917587217</v>
+        <v>0.1953295475348044</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6542.967759922329</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03639284348659795</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1923.536156022801</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4148896576934592</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9221.100417456382</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.09801928988565038</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-30.63238721589953</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5116013396337344</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +3961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2901,75 +3993,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>730.100169908618</v>
+        <v>5655.363755351287</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5882541405149059</v>
+        <v>0.01509619469786687</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>483.278369597537</v>
+        <v>-202.2883416246963</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04754239729006182</v>
+        <v>0.4766124355803255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05333324725496393</v>
+        <v>298.5451739253766</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3837123338970994</v>
+        <v>0.4411646827966306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8795.090706692297</v>
+        <v>-0.1933473302945014</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02686558197941712</v>
+        <v>0.07637477991942815</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722.1995421704994</v>
+        <v>0.0001542160583127278</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5023531554649699</v>
+        <v>0.3337603130294989</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313.208850934959</v>
+        <v>7.331447291055401</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1528455522656719</v>
+        <v>0.5816509557354168</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5845.041520958388</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0162937715853946</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-921.4577837292525</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.539394407864606</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4576.787662787545</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2070254687117217</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-41.56326557907799</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2986900547580228</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +4127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,75 +4159,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>943.2182354198731</v>
+        <v>4946.93785426072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6415582448764141</v>
+        <v>0.0840336684710936</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>500.5336181376403</v>
+        <v>-254.1712405155527</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07962426785282241</v>
+        <v>0.5032683871384156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06701283795786585</v>
+        <v>360.4190122057621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3298507152373286</v>
+        <v>0.5518271727961639</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8327.262345737461</v>
+        <v>-0.1755918777359383</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1072571209465808</v>
+        <v>0.1875618309989678</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>772.5888734452101</v>
+        <v>0.0001034584245842018</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5573000361809707</v>
+        <v>0.4991004335461098</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>244.4297084458887</v>
+        <v>6.177641084179893</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2952417433871727</v>
+        <v>0.7392536973065618</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5485.220751706053</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05167536154308717</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-703.040015739376</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7347635447065529</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5677.236302379435</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2531317587751891</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-29.31855216623239</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5915787806894006</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3129,75 +4325,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>688.966938179957</v>
+        <v>3326.03565864597</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7203128247543027</v>
+        <v>0.2171596810839719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>553.1581194808518</v>
+        <v>-365.1329547902487</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05818197187133113</v>
+        <v>0.3769376135965634</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08262034890398373</v>
+        <v>332.0652109938651</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1855110316408228</v>
+        <v>0.4966790709353195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9596.115910364313</v>
+        <v>-0.1174930810575567</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04565305733691779</v>
+        <v>0.2625413719660378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1571.16741883077</v>
+        <v>5.437662359655885e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2937747546979055</v>
+        <v>0.683412385170409</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92.27454612302995</v>
+        <v>4.922954515591883</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7304311225164615</v>
+        <v>0.7662809128098023</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5028.524472651953</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04749023799878978</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-525.9036680009231</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7811018818794937</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8009.276391263329</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08803381747590848</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7.085183580977429</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9002031077617</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +4459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3243,75 +4491,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-30.48007564354975</v>
+        <v>4860.806385044621</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9822496024356768</v>
+        <v>0.04273222965412567</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>641.4346076029924</v>
+        <v>-178.1580858153859</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01250124317578074</v>
+        <v>0.5569011068367034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07027370016074784</v>
+        <v>441.427613014126</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2473206175728011</v>
+        <v>0.3655647026663241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11631.12083491252</v>
+        <v>-0.1617054353636173</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006377326732043778</v>
+        <v>0.1380348627687049</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1673.442474821233</v>
+        <v>4.180801810720557e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1323845314919113</v>
+        <v>0.7539887985692608</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.8259957412459</v>
+        <v>-5.48104502771508</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4300958181636495</v>
+        <v>0.7289004365143101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5015.722806679873</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03407781504337482</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-687.251831450254</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6974089346662575</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6901.408471851547</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.09357757941841523</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-3.715825343372323</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9304427424332036</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +4625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,75 +4657,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-439.4091918413728</v>
+        <v>-3967.309568935383</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7339649603463341</v>
+        <v>0.3431573694898822</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>794.1435923199861</v>
+        <v>130.4765469264229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002233225538996656</v>
+        <v>0.7130673730293793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05660908993034405</v>
+        <v>433.753734300366</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2141769563710151</v>
+        <v>0.3096429414709755</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8022.843664144262</v>
+        <v>0.005003752536245631</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05693234829024508</v>
+        <v>0.9578914162433999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1589.326627470329</v>
+        <v>-1.537485700583969e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1377697121006393</v>
+        <v>0.8901699602280629</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>435.4801841057453</v>
+        <v>15.28974604339749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03336642376830236</v>
+        <v>0.2923164249443303</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1087.993856128357</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.677240245085609</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-76.34050236070652</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9687052756484416</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1393.397848023671</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7846978697729933</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>127.0002140206353</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.08636622691993281</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +4791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3471,75 +4823,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>597.875897481103</v>
+        <v>4367.490481890683</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7313734455280445</v>
+        <v>0.1026814765308728</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>531.1067788409377</v>
+        <v>-475.636616543379</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08969807893631292</v>
+        <v>0.2211467373060898</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07289505657436549</v>
+        <v>90.71023803065435</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2736180062110837</v>
+        <v>0.8210383203078608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8580.531524922579</v>
+        <v>-0.2448744306591362</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1163603215626259</v>
+        <v>0.02983555962532493</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1297.290542386508</v>
+        <v>0.0002932027106596814</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3005941934521428</v>
+        <v>0.1108845271795559</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.941030546103</v>
+        <v>31.38552418537631</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2648839834135134</v>
+        <v>0.1149918718507967</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-7282.141448715465</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00938888492917167</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-234.4988080092353</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8918192884558165</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10865.50389565905</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07266272151834069</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-73.28997113622904</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1538277189958842</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +4957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3585,75 +4989,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>867.3488471255046</v>
+        <v>5520.355326933066</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5075510459661753</v>
+        <v>0.0150860604855427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>443.55298311307</v>
+        <v>-106.6627343092248</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04817007510850213</v>
+        <v>0.7304005628695154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02785692967254298</v>
+        <v>143.9978047313861</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6190885599383171</v>
+        <v>0.7127352885953734</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9159.233760219166</v>
+        <v>-0.06994651154678738</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01749233013694785</v>
+        <v>0.4833917922349024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11.37541651162223</v>
+        <v>-3.23021875262106e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9917324380426142</v>
+        <v>0.9777125202849377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342.5077436699448</v>
+        <v>-0.4094490334837957</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08491854802808201</v>
+        <v>0.977181634791416</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4948.036021403471</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02377654204176754</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3181.898101467305</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06814805383595059</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3940.753632991691</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2700903830816286</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8.878638537972904</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8131523640821442</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3699,75 +5155,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1775.926326075811</v>
+        <v>3159.228424519391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3479346933261965</v>
+        <v>0.1923750834140343</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>372.6555088624091</v>
+        <v>-378.1755781927035</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1674725598975018</v>
+        <v>0.31760443634256</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1056155734005197</v>
+        <v>-116.0400170861694</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0768736790511679</v>
+        <v>0.8216621363765848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7810.897732717073</v>
+        <v>-0.1168069541685039</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07823744047403933</v>
+        <v>0.2809462671595485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.2956886891284</v>
+        <v>4.930369602399582e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5278178519635872</v>
+        <v>0.7111772950165396</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.4668203165317</v>
+        <v>16.6561001145263</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6665891565840641</v>
+        <v>0.3082261561241703</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4347.462619331898</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08070863498904213</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1013.862946850461</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5774225820710295</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7679.619707599797</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07671042501972622</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11.22370275693121</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8024981560658013</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +5289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3813,75 +5321,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2639.508001353689</v>
+        <v>3722.90356500738</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1243206213380482</v>
+        <v>0.1583084229639551</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>278.1844590433126</v>
+        <v>43.0025155649208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2322892908559554</v>
+        <v>0.9035829061423438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09842197029875824</v>
+        <v>309.2562012577453</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05660666653551619</v>
+        <v>0.5396999679537995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8956.423207701637</v>
+        <v>-0.1094765432659833</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02501558836064804</v>
+        <v>0.36423324930162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-734.3795742477646</v>
+        <v>2.675588593991069e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5287727434294325</v>
+        <v>0.8537795117344186</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.272900895924</v>
+        <v>1.370854851671666</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3050319213921656</v>
+        <v>0.9310206231386717</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2643.209763137484</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4971460561828411</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-876.5146589552296</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.650644410248904</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8354.12160992132</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0788536761169064</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-13.42868291276434</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7522010429555538</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +5455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3927,75 +5487,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-454.0878484534653</v>
+        <v>-3916.475553513914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7167387476973649</v>
+        <v>0.2437435130501532</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>809.8955750663806</v>
+        <v>142.6212327199029</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00354244259193715</v>
+        <v>0.6171932051969835</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04789305304392466</v>
+        <v>222.8654781613023</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3112698334987037</v>
+        <v>0.6204030022649277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4724.34967516997</v>
+        <v>-0.04338813149288329</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2058691004710007</v>
+        <v>0.6480953050027212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1840.361465024121</v>
+        <v>0.0001025560291475027</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07204043903563617</v>
+        <v>0.4874989662042736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.0271632325876</v>
+        <v>23.74403416404056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01638712479915571</v>
+        <v>0.09696495177132781</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1736.425468557707</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4598947808002637</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>182.7068713583942</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9180090058503965</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1593.209024902393</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6661777447285464</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>107.3921736677488</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.08247900800972355</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4041,75 +5653,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-31.89429546903375</v>
+        <v>5802.286775498695</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9836973618421814</v>
+        <v>0.05299882270759122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>606.1766131050871</v>
+        <v>-172.5881451455143</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02761330835630329</v>
+        <v>0.6444457048665209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07418603809455587</v>
+        <v>523.0125179477741</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3018149653340264</v>
+        <v>0.2648197568352495</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11677.54095593244</v>
+        <v>-0.257262073629889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01485291463247467</v>
+        <v>0.07361627542373424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1715.839164340325</v>
+        <v>0.0001147873769003755</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1377765364744639</v>
+        <v>0.4125263417969526</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.415314650966</v>
+        <v>-6.767323225487303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3296641107288066</v>
+        <v>0.7151293107078946</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5892.38428596146</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02918409931618056</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-206.3713063531197</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9059787854299465</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4922.754718848841</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3213018795319477</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-21.67424069620824</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6136187425238619</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +5787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,75 +5819,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>567.3273315003353</v>
+        <v>4847.297954768237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6837554108844665</v>
+        <v>0.04556499438996017</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>536.6655815843783</v>
+        <v>-319.7353245856523</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02447398871742859</v>
+        <v>0.4408155659770887</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04703563867825571</v>
+        <v>194.3068820542353</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4559378853651506</v>
+        <v>0.6252026399727826</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10053.83489083225</v>
+        <v>-0.08512021847622517</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01508455651036293</v>
+        <v>0.4349169013359168</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>697.9189597842928</v>
+        <v>2.070319041849289e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6086338798166877</v>
+        <v>0.8698934257532709</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>203.0259542192271</v>
+        <v>-3.100019021277063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3981841563191671</v>
+        <v>0.8691944954415924</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5449.316076081942</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01281281383493622</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2968.65499477613</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1935576859719736</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4880.758188643156</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2680647242151985</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>35.97333020884662</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5109174214824241</v>
       </c>
     </row>
   </sheetData>
@@ -4237,7 +5953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4269,75 +5985,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>723.4082447912679</v>
+        <v>3917.105961643359</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5953311862219768</v>
+        <v>0.1604162509485949</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542.9025209417016</v>
+        <v>-179.5766161971837</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02052951674659727</v>
+        <v>0.6149304392512125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07092853463740927</v>
+        <v>297.3889693826982</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1867481975726399</v>
+        <v>0.5710574843969118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12119.45297163989</v>
+        <v>-0.1660105892967869</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008457479373897972</v>
+        <v>0.1575009600863248</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>405.2804002115718</v>
+        <v>0.0001659667728621318</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7082695922266107</v>
+        <v>0.382629664126247</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.4888495944439</v>
+        <v>10.0669395058229</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3263820621468566</v>
+        <v>0.5714405157282041</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4868.855325702413</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1006061161605712</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-929.0954511228324</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6450466038328246</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8999.97425835204</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.09598419715875529</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-27.30867750499719</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5444228869980718</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +6119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4383,75 +6151,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>377.4473766240387</v>
+        <v>5139.335700802279</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7935217987928702</v>
+        <v>0.04492870384766954</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>600.3353477599741</v>
+        <v>-293.6446673564898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01597262970528476</v>
+        <v>0.3692145438682652</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06646235269308523</v>
+        <v>116.1373916390571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2315676380794051</v>
+        <v>0.7919637098576675</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9138.31976171231</v>
+        <v>-0.1197015821056099</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03946341094039459</v>
+        <v>0.2206734443153802</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1287.510419401195</v>
+        <v>5.973044436221332e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2542759545163907</v>
+        <v>0.6678816554012748</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.9245365613199</v>
+        <v>15.84793067246045</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3069372142674228</v>
+        <v>0.34670514673616</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5114.26050073556</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04132166736114135</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1523.840709155204</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3904632170034977</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6193.48587753359</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1609492718334868</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-35.19741705976708</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4332650225610996</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +6285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4497,75 +6317,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-17.66994810194592</v>
+        <v>4283.329219495026</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9890159713465623</v>
+        <v>0.04418363119534355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660.4678975530103</v>
+        <v>-54.49269218873803</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005968330034760999</v>
+        <v>0.8365346380041883</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02699752804918863</v>
+        <v>632.5051047192906</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6025170023370643</v>
+        <v>0.1592570603250578</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11375.45773867734</v>
+        <v>-0.044335353041628</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005288358553321106</v>
+        <v>0.6010352956737941</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>982.9406250105026</v>
+        <v>-4.148322515857758e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3897592535592891</v>
+        <v>0.9698128882357753</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.4498852886865</v>
+        <v>-14.4417901370523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3706562418024042</v>
+        <v>0.3593621654523897</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4620.095799906655</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02002713440856301</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2352.04414166921</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1914950233843719</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6014.912961682578</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1079507044265415</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>22.62834391443124</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5958693413379292</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +6451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4611,75 +6483,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.59809069241146</v>
+        <v>6214.327368733001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.982624366895696</v>
+        <v>0.03644267478924264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>555.8455580109397</v>
+        <v>-282.5471424259241</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02320216344729816</v>
+        <v>0.4639106816598991</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07144629139887176</v>
+        <v>168.8162613842353</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2402970493497353</v>
+        <v>0.7389909461393485</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9817.752870049555</v>
+        <v>-0.1521415305009748</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02820264767065734</v>
+        <v>0.1821561531345818</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1529.145973021586</v>
+        <v>7.345670712285114e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1937283072827421</v>
+        <v>0.5704865461199171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311.4951285238185</v>
+        <v>8.356332535539778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1404333136777251</v>
+        <v>0.679691555633131</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5997.362966622071</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02942302633203919</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1998.829031621377</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3725872031615982</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5193.978335686104</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2481216234408382</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-29.49736759454149</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5098799632762674</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +6617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4725,75 +6649,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>678.329470767454</v>
+        <v>3449.042025138236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7206826362653441</v>
+        <v>0.2013749479278128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>513.1036831339829</v>
+        <v>-276.3446899303641</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05467994015198797</v>
+        <v>0.5094267884965071</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07436897916478549</v>
+        <v>264.7534582819824</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1940875188550869</v>
+        <v>0.5878737131868966</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12045.93014761774</v>
+        <v>-0.1490875748342154</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01643854562284177</v>
+        <v>0.1547555819653776</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>617.5716928381066</v>
+        <v>8.743799378849609e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6320468824129637</v>
+        <v>0.5092639854702841</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>231.5617015427239</v>
+        <v>11.83634337092028</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2483288453402737</v>
+        <v>0.4961064177436912</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4868.695687156403</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1247628161064498</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-383.4715742587376</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8511323429488247</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10344.06233749937</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.06726183535533757</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-21.29292292348623</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6646950189685545</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +6783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4839,75 +6815,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1772.637260602177</v>
+        <v>4063.342716421456</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2258126680852339</v>
+        <v>0.09705320162505565</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.448061981578</v>
+        <v>-81.70761315965996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5456234729103986</v>
+        <v>0.784909633217264</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07254521757592815</v>
+        <v>-332.0115509924888</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1812019984692621</v>
+        <v>0.4828881644028757</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7014.843885049359</v>
+        <v>-0.115479186799697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0792963078550353</v>
+        <v>0.2557315678527827</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.2942734582427</v>
+        <v>7.687096307351247e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8770522589241414</v>
+        <v>0.6303236350145172</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456.0390404841121</v>
+        <v>19.12203612395155</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04186946218591965</v>
+        <v>0.2145640229867455</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3825.133228344051</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1079959300488022</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1680.38509265562</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3030043830724714</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5625.405553873959</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.177287328376184</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-7.174912219509878</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8609988347751134</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4953,75 +6981,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>222.7121388789069</v>
+        <v>-1859.793025688762</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8621746550293643</v>
+        <v>0.5600750478833604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>898.9576185222272</v>
+        <v>-109.0613675125364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001231818803959077</v>
+        <v>0.7515820154396126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1009899846940356</v>
+        <v>497.3005439768608</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0810146174142764</v>
+        <v>0.2096928126718129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3803.008892249407</v>
+        <v>-0.09996876502827501</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3466930719398477</v>
+        <v>0.3433167709598471</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1781.133138360046</v>
+        <v>5.827380660135152e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09303202371692089</v>
+        <v>0.6422285116022677</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.6889665418743</v>
+        <v>13.58111043480187</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1933730042899802</v>
+        <v>0.291190917369807</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2481.570300766944</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2465366361610872</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-88.45754934683828</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9544259542569499</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>374.3935518102735</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9246920740802202</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>101.7477705036801</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0890298614874841</v>
       </c>
     </row>
   </sheetData>
@@ -5035,7 +7115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5067,75 +7147,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885.6573531329013</v>
+        <v>4394.991805464278</v>
       </c>
       <c r="C2" t="n">
-        <v>0.495183078742258</v>
+        <v>0.08503015193676126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525.1224644952304</v>
+        <v>-204.3445791285516</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02170620833695418</v>
+        <v>0.5742729967845606</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07771708723389173</v>
+        <v>165.9842769144177</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1450821015958014</v>
+        <v>0.7126132227348208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9301.226691094278</v>
+        <v>-0.1104300110159392</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01395118565048388</v>
+        <v>0.2793031066647279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1299.146997170176</v>
+        <v>3.46634532941154e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2397417490582585</v>
+        <v>0.7930868125053803</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.7100028108738</v>
+        <v>7.640727649596315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6574187577397592</v>
+        <v>0.6131025372028105</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4283.269717831804</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05691571151485939</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1106.399507310266</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5379763224520611</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6142.862718809045</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1255405122374735</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-11.69392823014525</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8004836398991257</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +7281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5181,75 +7313,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.4797146550795</v>
+        <v>7235.251674671523</v>
       </c>
       <c r="C2" t="n">
-        <v>0.803194663650455</v>
+        <v>0.01098969267004409</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>549.8063429219289</v>
+        <v>-314.3015407340831</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03239552174451208</v>
+        <v>0.3719954423423056</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03005150970250922</v>
+        <v>394.7745543386807</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6158188435681629</v>
+        <v>0.4201299204157297</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9484.808510801911</v>
+        <v>-0.155206010991164</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02184710625235693</v>
+        <v>0.1465126453174576</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>444.6189983486938</v>
+        <v>7.92476418320999e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7168219965800315</v>
+        <v>0.5198236187149894</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>320.4906718312235</v>
+        <v>-5.927142477020379</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1457385890775265</v>
+        <v>0.6855434007165004</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6769.272478476289</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01158831941836123</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3138.87805512682</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1678520177565689</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1685.139913359682</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6793820650709814</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-5.812267645317888</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8967334412201424</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +7447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5295,75 +7479,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>637.4604323674735</v>
+        <v>4392.943202190371</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7990086490242515</v>
+        <v>0.1511232166641556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.9878508393494</v>
+        <v>-311.7660128103596</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1463963044944974</v>
+        <v>0.4096376901257762</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07705280492769484</v>
+        <v>276.4406532961945</v>
       </c>
       <c r="C4" t="n">
-        <v>0.292906269743775</v>
+        <v>0.5722995566404844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9584.206337770323</v>
+        <v>-0.1802081392767457</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1299042441672241</v>
+        <v>0.1344618647511643</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1156.331553138436</v>
+        <v>0.0001410484081463176</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4416024512827187</v>
+        <v>0.4494665327656683</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>248.7388392908067</v>
+        <v>8.625125006813619</v>
       </c>
       <c r="C7" t="n">
-        <v>0.309364042518013</v>
+        <v>0.6380679312444174</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6453.42712620656</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0259249016247689</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-599.2700089190703</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7530197624337351</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8058.29830513426</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1854542339864491</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-19.24385311057469</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6847999223537793</v>
       </c>
     </row>
   </sheetData>
@@ -5377,7 +7613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5409,75 +7645,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>452.3751094831982</v>
+        <v>5024.530736487591</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7655421511790916</v>
+        <v>0.06970747421372556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>571.0884887362702</v>
+        <v>-266.6382158854256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02815225643075735</v>
+        <v>0.4548183242506995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07677685394423792</v>
+        <v>51.00668638566049</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1970543903112447</v>
+        <v>0.9178561620381538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9404.049052938712</v>
+        <v>-0.1231574023289998</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04260668350226313</v>
+        <v>0.2400058156990314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1239.151214961919</v>
+        <v>4.350725975578703e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2930231373588281</v>
+        <v>0.7672514265027843</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>228.2797885253569</v>
+        <v>16.07649207557011</v>
       </c>
       <c r="C7" t="n">
-        <v>0.300366982488122</v>
+        <v>0.4070698237171484</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4766.224895312119</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0718457155078636</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1446.150623175256</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4693424723987821</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6651.391843103516</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1679339412678635</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-31.11002752653775</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5702614184371915</v>
       </c>
     </row>
   </sheetData>
@@ -5491,7 +7779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5523,75 +7811,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123.0289547276175</v>
+        <v>5688.624878947926</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9223672165205704</v>
+        <v>0.004227239694287593</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>603.5909625292802</v>
+        <v>5.43691333820766</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008554124831570699</v>
+        <v>0.9798162733923517</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02863491999860106</v>
+        <v>391.0150001274625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5679905867895171</v>
+        <v>0.1658267640429405</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11187.47444267547</v>
+        <v>-0.06575817742688078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004559721232189437</v>
+        <v>0.2964898110878503</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722.5655859619312</v>
+        <v>-1.821262728675149e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4849104544096142</v>
+        <v>0.8290499438423521</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>241.8105435776594</v>
+        <v>-6.905357767553049</v>
       </c>
       <c r="C7" t="n">
-        <v>0.16338642559473</v>
+        <v>0.5089917176509295</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4618.612551135553</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00380624955066107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2221.419620014569</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.08673884357876821</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5022.433479974748</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1113355453209214</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-11.48559519319563</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6870767625692471</v>
       </c>
     </row>
   </sheetData>
@@ -5605,7 +7945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5637,75 +7977,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.04840950352764</v>
+        <v>-1629.888616769696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9814870597601526</v>
+        <v>0.5713925151223851</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>632.5661995718704</v>
+        <v>3.185763441485051</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006478826358554112</v>
+        <v>0.9899155615104878</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07343916540682358</v>
+        <v>223.8491538629823</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1037452608608405</v>
+        <v>0.5459545478159782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10175.59800851934</v>
+        <v>-0.04523143399445692</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009843856677343747</v>
+        <v>0.619570415429303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1359.981942600553</v>
+        <v>1.362812291123556e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1400686771010398</v>
+        <v>0.8899946737097456</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>345.1647352480338</v>
+        <v>16.64993078820332</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05118544905632207</v>
+        <v>0.238951709514938</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1922.779926082129</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3237982827969508</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-397.7053906232582</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7687052172577225</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4217.495071815227</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3625125233742461</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.14787315870792</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1535667711450632</v>
       </c>
     </row>
   </sheetData>
@@ -5719,7 +8111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5751,75 +8143,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1660.278732527757</v>
+        <v>4526.678413844904</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4123292609582299</v>
+        <v>0.07971052592947581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>494.6952162768407</v>
+        <v>-134.0197560386325</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07083457397983899</v>
+        <v>0.693057545872112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09988831788338687</v>
+        <v>260.0893654439765</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1147386667555468</v>
+        <v>0.5912017507196501</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7709.096720190792</v>
+        <v>-0.08869013629961975</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1214778348474364</v>
+        <v>0.4240066185757687</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>677.7586084684356</v>
+        <v>8.896736465644752e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6034592391181697</v>
+        <v>0.9531235338705708</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.0877708265962</v>
+        <v>4.286376047741186</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5990454796265942</v>
+        <v>0.8038361531588696</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5522.514095660397</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05744257945898269</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1546.633725428079</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4314411316528374</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8121.252392116141</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1086036673099663</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-12.61899866806129</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7790933428831771</v>
       </c>
     </row>
   </sheetData>
@@ -5833,7 +8277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5865,75 +8309,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>155.0304409308856</v>
+        <v>4473.501330713252</v>
       </c>
       <c r="C2" t="n">
-        <v>0.915411567145247</v>
+        <v>0.08828557324385829</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>612.8184593034574</v>
+        <v>-316.798419460087</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02206151174438173</v>
+        <v>0.3961721597957687</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05626718681251575</v>
+        <v>352.0041432864431</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3735259247594587</v>
+        <v>0.3527437089724101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11432.23475617636</v>
+        <v>-0.1131036520829575</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009865090619723484</v>
+        <v>0.261845462151506</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1528.013981488396</v>
+        <v>4.041453254596079e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2859071264638294</v>
+        <v>0.7341856597350831</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.68807966723944</v>
+        <v>-0.4969266538650885</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7744190615158233</v>
+        <v>0.9708093786939747</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4946.834130988163</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01794110550591094</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1450.027091659118</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4386542895147902</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6388.481775389582</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1481140024024976</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.567787770229529</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.874637395866063</v>
       </c>
     </row>
   </sheetData>
@@ -5947,7 +8443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5979,75 +8475,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-160.2231711374907</v>
+        <v>-1281.806882106498</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8984859683953946</v>
+        <v>0.7118546633194216</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>803.3513206475991</v>
+        <v>-96.63241174722384</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00298158833469143</v>
+        <v>0.7648124807884489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06970065532013806</v>
+        <v>194.6396710961827</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1530847403779384</v>
+        <v>0.6886891476100729</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7118.768808389137</v>
+        <v>-0.07245254917117398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1324386548755511</v>
+        <v>0.4559485821139007</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1578.648960170394</v>
+        <v>4.21289641428355e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1473847828203016</v>
+        <v>0.7215172629622786</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>420.0748256276679</v>
+        <v>24.77005059989789</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04360207107987589</v>
+        <v>0.1798095885504483</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2646.386300415996</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2298973154684275</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-175.352207903924</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9185489355065326</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3373.064600386124</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5302111647574025</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>68.84349358360245</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3606037017710798</v>
       </c>
     </row>
   </sheetData>
@@ -6061,7 +8609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,75 +8641,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>726.7119904843485</v>
+        <v>4483.285335273935</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5873459801870068</v>
+        <v>0.03993105127696075</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>452.1143852989279</v>
+        <v>-274.4179179907632</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06326142312572898</v>
+        <v>0.3676097591252522</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05667493761655593</v>
+        <v>-19.39020307948965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2893849551786709</v>
+        <v>0.9645508443291259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8788.658039703256</v>
+        <v>-0.1702324311027939</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02455035606414763</v>
+        <v>0.08959657406770159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>781.0618905719782</v>
+        <v>0.0001791350301741868</v>
       </c>
       <c r="C6" t="n">
-        <v>0.455350822537706</v>
+        <v>0.2669155821725009</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.5572598652093</v>
+        <v>19.68144183024292</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1097986638454316</v>
+        <v>0.2161245794385575</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5546.247827301238</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02425603575375197</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1080.914987128085</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4889060931624222</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5876.064162291172</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1116563119319732</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-32.43629872543636</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4183454660698558</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Nimes.xlsx
+++ b/outputs/ML_Results/dist_LR/Nimes.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ01369947" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ01548957" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ01738396" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ01924734" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ02113268" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ02310516" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ02603463" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ02823077" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ03037757" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ03251791" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ03469427" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ03685016" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ03895860" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ04108276" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ04320401" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ04547665" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ04760417" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ04979887" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ05193948" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ05407434" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ05619930" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ05837903" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ06041824" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ06258109" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ06469132" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ06685231" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ06893958" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ07107539" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ07320119" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ07533891" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ07744687" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ07962248" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ08169499" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ08380049" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ08604057" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ08817235" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ09033310" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ09243082" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ09459074" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ09677128" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ09895659" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ10110519" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ10324187" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ10541745" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ10752937" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ10965195" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ11177279" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ11394972" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ11608176" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ11818874" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ41246771" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ41459714" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ41685894" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ41914523" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ42136265" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ42360754" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ42717889" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ42959815" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ43177216" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ43405240" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ43625208" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ43849457" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ44083869" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ44307167" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ44527405" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ44745769" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ44961395" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ45179729" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ45395081" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ45610123" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ45821078" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ46037040" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ46248207" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ46468581" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ46681810" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ46867598" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ47054704" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ47256149" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ47445778" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ47634150" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ47821415" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ48009396" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ48194573" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ48381926" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ48579179" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ48768310" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ48956704" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ49139385" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ49332271" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ49519933" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ49707387" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ49894993" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ50080912" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ50268921" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ50453909" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ50634205" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ50825097" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ51014420" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ51205304" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ51392545" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-8827.117429175214</v>
+        <v>-8827.117430228947</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0050531095063457</v>
+        <v>0.005053109505156878</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>752.4524622585438</v>
+        <v>752.452462381279</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02152320453063999</v>
+        <v>0.02152320453058141</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>923.3907750505753</v>
+        <v>923.3907753083429</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005912131070989035</v>
+        <v>0.005912131068120142</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.154853607536253</v>
+        <v>15.48536075954005</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09278748602284367</v>
+        <v>0.0927874859571842</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000142662797278271</v>
+        <v>-142.6627972536873</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1167546288864945</v>
+        <v>0.1167546289014268</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.129394698410678</v>
+        <v>2.129394698410586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8289915843011825</v>
+        <v>0.82899158430119</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>455.7343585392846</v>
+        <v>4.557343585393141</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7734390160847283</v>
+        <v>0.7734390160847154</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1354.655105649262</v>
+        <v>-13.54655105649227</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2023751376859833</v>
+        <v>0.2023751376859945</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6583.214709052865</v>
+        <v>-65.83214709052871</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06302112493007492</v>
+        <v>0.0630211249300747</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>257.9460251046445</v>
+        <v>257.9460251046446</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002796397437102586</v>
+        <v>0.0002796397437102614</v>
       </c>
     </row>
   </sheetData>
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5263.677115945256</v>
+        <v>5263.677115797109</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09261114477223287</v>
+        <v>0.09261114477147218</v>
       </c>
     </row>
     <row r="3">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-280.5793871036126</v>
+        <v>-280.5793871075996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.470080188213354</v>
+        <v>0.4700801882133981</v>
       </c>
     </row>
     <row r="4">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.2873285054097</v>
+        <v>125.287328497931</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7935644560694287</v>
+        <v>0.7935644560831365</v>
       </c>
     </row>
     <row r="5">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1566699966003033</v>
+        <v>-15.66699966051561</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2263613417522862</v>
+        <v>0.2263613417473605</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.074239591443448e-05</v>
+        <v>50.74239592128765</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7145314751863372</v>
+        <v>0.7145314751533871</v>
       </c>
     </row>
     <row r="7">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.551992551975019</v>
+        <v>2.551992551976269</v>
       </c>
       <c r="C7" t="n">
-        <v>0.883493882359551</v>
+        <v>0.8834938823594936</v>
       </c>
     </row>
     <row r="8">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5506.721125806751</v>
+        <v>-55.06721125806737</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07753861231767648</v>
+        <v>0.07753861231767667</v>
       </c>
     </row>
     <row r="9">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1888.275862798998</v>
+        <v>-18.88275862799073</v>
       </c>
       <c r="C9" t="n">
-        <v>0.390111057352349</v>
+        <v>0.3901110573523361</v>
       </c>
     </row>
     <row r="10">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5039.943028652302</v>
+        <v>50.39943028652283</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2938848328890359</v>
+        <v>0.2938848328890383</v>
       </c>
     </row>
     <row r="11">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.517132150455907</v>
+        <v>9.517132150456703</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8411861358083282</v>
+        <v>0.8411861358083164</v>
       </c>
     </row>
   </sheetData>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1254.890960021264</v>
+        <v>1254.890960024528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7096012082136192</v>
+        <v>0.7096012082169409</v>
       </c>
     </row>
     <row r="3">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6.237357385647101</v>
+        <v>-6.23735738674236</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9821668695855776</v>
+        <v>0.9821668695854088</v>
       </c>
     </row>
     <row r="4">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.7559106796195</v>
+        <v>229.7559106790519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5625759065600433</v>
+        <v>0.5625759065697933</v>
       </c>
     </row>
     <row r="5">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0301038748145111</v>
+        <v>-3.010387481492977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7485055712694655</v>
+        <v>0.7485055712872477</v>
       </c>
     </row>
     <row r="6">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.07335619765615e-05</v>
+        <v>-10.73356189759716</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9194166037920959</v>
+        <v>0.9194166044074916</v>
       </c>
     </row>
     <row r="7">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.230488675777778</v>
+        <v>8.230488675777863</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5678981964384251</v>
+        <v>0.5678981964384193</v>
       </c>
     </row>
     <row r="8">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3398.684866563804</v>
+        <v>-33.98684866563797</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1164384657315111</v>
+        <v>0.1164384657315118</v>
       </c>
     </row>
     <row r="9">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2214.709614417566</v>
+        <v>-22.14709614417563</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1876228120644264</v>
+        <v>0.187622812064427</v>
       </c>
     </row>
     <row r="10">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1110.758074843157</v>
+        <v>11.10758074843179</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7983780204237418</v>
+        <v>0.7983780204237381</v>
       </c>
     </row>
     <row r="11">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.8891793351213</v>
+        <v>71.88917933512136</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2146875351778505</v>
+        <v>0.21468753517785</v>
       </c>
     </row>
   </sheetData>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4419.682924258126</v>
+        <v>4419.682923948723</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1554014334230903</v>
+        <v>0.1554014334646518</v>
       </c>
     </row>
     <row r="3">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-260.8052476111086</v>
+        <v>-260.8052476626492</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5658297490576054</v>
+        <v>0.5658297490574771</v>
       </c>
     </row>
     <row r="4">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.4207958098325</v>
+        <v>283.4207958542819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5652134060074122</v>
+        <v>0.5652134059272887</v>
       </c>
     </row>
     <row r="5">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1829122995500347</v>
+        <v>-18.29122995203837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1832670369275127</v>
+        <v>0.1832670369811484</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.050325720180998e-05</v>
+        <v>70.50325721019897</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6519024289615813</v>
+        <v>0.6519024289200875</v>
       </c>
     </row>
     <row r="7">
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2097003628551874</v>
+        <v>-0.2097003628553296</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9922068996484559</v>
+        <v>0.9922068996484508</v>
       </c>
     </row>
     <row r="8">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4735.621295184968</v>
+        <v>-47.35621295184973</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08751449646673269</v>
+        <v>0.08751449646673283</v>
       </c>
     </row>
     <row r="9">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-412.2286283221456</v>
+        <v>-4.122286283221555</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8530518982527446</v>
+        <v>0.853051898252741</v>
       </c>
     </row>
     <row r="10">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5508.199987865564</v>
+        <v>55.08199987865521</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3468386069610537</v>
+        <v>0.3468386069610587</v>
       </c>
     </row>
     <row r="11">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.4850561957753</v>
+        <v>4.485056195775925</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9323388220570552</v>
+        <v>0.9323388220570457</v>
       </c>
     </row>
   </sheetData>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4694.148736335429</v>
+        <v>4694.14873656825</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03974315003623556</v>
+        <v>0.03974315003212402</v>
       </c>
     </row>
     <row r="3">
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-269.5718391525461</v>
+        <v>-269.5718392029614</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3739967683584493</v>
+        <v>0.3739967683582909</v>
       </c>
     </row>
     <row r="4">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.9778560889327</v>
+        <v>95.97785609002165</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8503993372777217</v>
+        <v>0.8503993372759359</v>
       </c>
     </row>
     <row r="5">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.241408556052118</v>
+        <v>-24.14085560629763</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1440121310230552</v>
+        <v>0.1440121310136256</v>
       </c>
     </row>
     <row r="6">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0003515919009921653</v>
+        <v>351.5919010621167</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2898631331030524</v>
+        <v>0.2898631330210335</v>
       </c>
     </row>
     <row r="7">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.02253164220692</v>
+        <v>17.0225316422072</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2818093297225767</v>
+        <v>0.2818093297225681</v>
       </c>
     </row>
     <row r="8">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7446.435752389793</v>
+        <v>-74.46435752389768</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05049125169831097</v>
+        <v>0.05049125169831137</v>
       </c>
     </row>
     <row r="9">
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-836.8634904112989</v>
+        <v>-8.368634904112806</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6428630213836934</v>
+        <v>0.642863021383699</v>
       </c>
     </row>
     <row r="10">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5478.339516923295</v>
+        <v>54.78339516923293</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1471176556712104</v>
+        <v>0.147117655671211</v>
       </c>
     </row>
     <row r="11">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-38.68958063415616</v>
+        <v>-38.6895806341565</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3606800108505596</v>
+        <v>0.3606800108505575</v>
       </c>
     </row>
   </sheetData>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4158.806166397864</v>
+        <v>4158.80616636474</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1207465254564914</v>
+        <v>0.1207465254528615</v>
       </c>
     </row>
     <row r="3">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-117.0161314123944</v>
+        <v>-117.0161313870408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7290286298866884</v>
+        <v>0.7290286298865509</v>
       </c>
     </row>
     <row r="4">
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>396.8985126646833</v>
+        <v>396.8985126699415</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3144833065349118</v>
+        <v>0.3144833065194086</v>
       </c>
     </row>
     <row r="5">
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1137739192340338</v>
+        <v>-11.37739192247486</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1711546930585503</v>
+        <v>0.1711546930305797</v>
       </c>
     </row>
     <row r="6">
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.16613009421781e-05</v>
+        <v>11.66130103353558</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9100485532574533</v>
+        <v>0.9100485525536617</v>
       </c>
     </row>
     <row r="7">
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.504348563659946</v>
+        <v>-2.504348563659796</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8446908866280098</v>
+        <v>0.8446908866280189</v>
       </c>
     </row>
     <row r="8">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3772.184865885916</v>
+        <v>-37.72184865885924</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1353980131833294</v>
+        <v>0.1353980131833291</v>
       </c>
     </row>
     <row r="9">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-807.425996993933</v>
+        <v>-8.074259969939391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6725806840846731</v>
+        <v>0.6725806840846718</v>
       </c>
     </row>
     <row r="10">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8931.693581572912</v>
+        <v>89.316935815729</v>
       </c>
       <c r="C10" t="n">
         <v>0.06259196576176161</v>
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.476341959961928</v>
+        <v>-5.476341959961317</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8871154464022684</v>
+        <v>0.8871154464022815</v>
       </c>
     </row>
   </sheetData>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4145.005120623578</v>
+        <v>4145.00512076873</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09565147876095174</v>
+        <v>0.09565147875268348</v>
       </c>
     </row>
     <row r="3">
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-280.2488910394454</v>
+        <v>-280.2488910200237</v>
       </c>
       <c r="C3" t="n">
-        <v>0.426354062008905</v>
+        <v>0.426354062009219</v>
       </c>
     </row>
     <row r="4">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.1717840899701</v>
+        <v>217.1717841125569</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6955179507823079</v>
+        <v>0.6955179507465235</v>
       </c>
     </row>
     <row r="5">
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.169925309868708</v>
+        <v>-16.99253098797623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1153895149998411</v>
+        <v>0.1153895149935668</v>
       </c>
     </row>
     <row r="6">
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001008621539079428</v>
+        <v>100.862154058314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4655299089233916</v>
+        <v>0.4655299083789906</v>
       </c>
     </row>
     <row r="7">
@@ -1568,10 +1568,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.66957304139471</v>
+        <v>15.66957304139564</v>
       </c>
       <c r="C7" t="n">
-        <v>0.44645879921856</v>
+        <v>0.4464587992185283</v>
       </c>
     </row>
     <row r="8">
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4754.834919774472</v>
+        <v>-47.54834919774465</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04428523573145077</v>
+        <v>0.04428523573145048</v>
       </c>
     </row>
     <row r="9">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-139.9039610472009</v>
+        <v>-1.39903961047203</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9457177550994943</v>
+        <v>0.9457177550994935</v>
       </c>
     </row>
     <row r="10">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8528.246476992266</v>
+        <v>85.28246476992321</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07955018254331607</v>
+        <v>0.07955018254331314</v>
       </c>
     </row>
     <row r="11">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-40.13164374395336</v>
+        <v>-40.13164374395319</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4723108479813095</v>
+        <v>0.472310847981312</v>
       </c>
     </row>
   </sheetData>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2486.557764386706</v>
+        <v>2486.557764399085</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2060638505915379</v>
+        <v>0.2060638505609169</v>
       </c>
     </row>
     <row r="3">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.412080825276234</v>
+        <v>5.41208082379103</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9830531482096336</v>
+        <v>0.9830531482097487</v>
       </c>
     </row>
     <row r="4">
@@ -1695,10 +1695,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360.4586702918849</v>
+        <v>360.4586702914969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3651950633972009</v>
+        <v>0.365195063390504</v>
       </c>
     </row>
     <row r="5">
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0656446549645807</v>
+        <v>-6.5644654964324</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3778813082259415</v>
+        <v>0.3778813082463018</v>
       </c>
     </row>
     <row r="6">
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.152923570023874e-05</v>
+        <v>-21.52923586653066</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8252048807922072</v>
+        <v>0.8252048794628318</v>
       </c>
     </row>
     <row r="7">
@@ -1734,10 +1734,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.855899320184587</v>
+        <v>1.855899320184932</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8858878818161282</v>
+        <v>0.8858878818161067</v>
       </c>
     </row>
     <row r="8">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2375.693883259622</v>
+        <v>-23.75693883259621</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2585666949304657</v>
+        <v>0.258566694930466</v>
       </c>
     </row>
     <row r="9">
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-119.6564278092792</v>
+        <v>-1.196564278092637</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9307691869830568</v>
+        <v>0.9307691869830657</v>
       </c>
     </row>
     <row r="10">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11395.68385078595</v>
+        <v>113.9568385078596</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007580655071874737</v>
+        <v>0.007580655071874638</v>
       </c>
     </row>
     <row r="11">
@@ -1786,10 +1786,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.645873555379751</v>
+        <v>-6.645873555379467</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8372659692640528</v>
+        <v>0.8372659692640595</v>
       </c>
     </row>
   </sheetData>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4721.575860938275</v>
+        <v>4721.575859970492</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05822362005879583</v>
+        <v>0.05822362009961662</v>
       </c>
     </row>
     <row r="3">
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-746.8381349025992</v>
+        <v>-746.8381349791443</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08542629730361662</v>
+        <v>0.0854262973035758</v>
       </c>
     </row>
     <row r="4">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.8923980947663</v>
+        <v>247.892398196014</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5737165807006419</v>
+        <v>0.5737165805323874</v>
       </c>
     </row>
     <row r="5">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3492604294428379</v>
+        <v>-34.92604294566503</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02507095773156667</v>
+        <v>0.02507095773009282</v>
       </c>
     </row>
     <row r="6">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002445487939046028</v>
+        <v>244.5487941796325</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1087000356331029</v>
+        <v>0.1087000353711743</v>
       </c>
     </row>
     <row r="7">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.06318151942924</v>
+        <v>12.06318151943067</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4690209923378873</v>
+        <v>0.4690209923378308</v>
       </c>
     </row>
     <row r="8">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7274.094333739648</v>
+        <v>-72.74094333739635</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00951628157227833</v>
+        <v>0.009516281572278155</v>
       </c>
     </row>
     <row r="9">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>306.1290022830528</v>
+        <v>3.061290022829629</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8615334581629708</v>
+        <v>0.8615334581630114</v>
       </c>
     </row>
     <row r="10">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7023.011912306933</v>
+        <v>70.23011912306924</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09948426863467714</v>
+        <v>0.09948426863467758</v>
       </c>
     </row>
     <row r="11">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11.14022144084134</v>
+        <v>-11.14022144083914</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7948534596367303</v>
+        <v>0.7948534596367688</v>
       </c>
     </row>
   </sheetData>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5244.535153134887</v>
+        <v>5244.535153155045</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05272762523752623</v>
+        <v>0.05272762523720412</v>
       </c>
     </row>
     <row r="3">
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-288.764216755565</v>
+        <v>-288.7642167306185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4055452408582453</v>
+        <v>0.4055452408581547</v>
       </c>
     </row>
     <row r="4">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.5889930363729</v>
+        <v>123.5889930818055</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8084791432159742</v>
+        <v>0.8084791431384368</v>
       </c>
     </row>
     <row r="5">
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1309980216035717</v>
+        <v>-13.09980216037945</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2027410404550413</v>
+        <v>0.20274104045466</v>
       </c>
     </row>
     <row r="6">
@@ -2053,10 +2053,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.268585475828329e-05</v>
+        <v>82.68585463634531</v>
       </c>
       <c r="C6" t="n">
-        <v>0.545327293056501</v>
+        <v>0.5453272936208072</v>
       </c>
     </row>
     <row r="7">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.55738301974141</v>
+        <v>16.55738301974267</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3810014974983149</v>
+        <v>0.3810014974982792</v>
       </c>
     </row>
     <row r="8">
@@ -2079,10 +2079,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5440.64419484531</v>
+        <v>-54.40644194845323</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03170761069543594</v>
+        <v>0.03170761069543597</v>
       </c>
     </row>
     <row r="9">
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1520.540751374891</v>
+        <v>-15.20540751374993</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4435615782314466</v>
+        <v>0.4435615782314223</v>
       </c>
     </row>
     <row r="10">
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6320.249959968685</v>
+        <v>63.20249959968726</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1751470197881601</v>
+        <v>0.1751470197881564</v>
       </c>
     </row>
     <row r="11">
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-40.67514579007707</v>
+        <v>-40.67514579007585</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4077824348719793</v>
+        <v>0.4077824348719945</v>
       </c>
     </row>
   </sheetData>
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5628.037541165311</v>
+        <v>5628.037541489921</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04781909314321099</v>
+        <v>0.04781909313337333</v>
       </c>
     </row>
     <row r="3">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-148.7804287070622</v>
+        <v>-148.780428743704</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6581462367234518</v>
+        <v>0.6581462367241171</v>
       </c>
     </row>
     <row r="4">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.2253452770494</v>
+        <v>742.2253452551638</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2461957912455845</v>
+        <v>0.2461957912671702</v>
       </c>
     </row>
     <row r="5">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3241669424695473</v>
+        <v>-32.41669424762935</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1084343424143859</v>
+        <v>0.1084343424106803</v>
       </c>
     </row>
     <row r="6">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0004770812103388364</v>
+        <v>477.08121036866</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2424245279932389</v>
+        <v>0.2424245279735182</v>
       </c>
     </row>
     <row r="7">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.478040132532247</v>
+        <v>-3.478040132532168</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8411356479688887</v>
+        <v>0.8411356479688925</v>
       </c>
     </row>
     <row r="8">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8677.762854194545</v>
+        <v>-86.77762854194526</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05469909387855433</v>
+        <v>0.05469909387855505</v>
       </c>
     </row>
     <row r="9">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>499.4915355474886</v>
+        <v>4.994915355475186</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8191329842920937</v>
+        <v>0.8191329842920837</v>
       </c>
     </row>
     <row r="10">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3787.854284210744</v>
+        <v>37.87854284210782</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4288863266132186</v>
+        <v>0.4288863266132154</v>
       </c>
     </row>
     <row r="11">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-57.04304194478729</v>
+        <v>-57.04304194478802</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3087182794727248</v>
+        <v>0.3087182794727168</v>
       </c>
     </row>
   </sheetData>
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4090.008709474505</v>
+        <v>4090.008710178885</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1661408592053166</v>
+        <v>0.1661408591785273</v>
       </c>
     </row>
     <row r="3">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-384.0428367012181</v>
+        <v>-384.0428367687355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3266172081767361</v>
+        <v>0.3266172081767328</v>
       </c>
     </row>
     <row r="4">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-150.5144974768476</v>
+        <v>-150.5144975165704</v>
       </c>
       <c r="C4" t="n">
-        <v>0.751586654912699</v>
+        <v>0.7515866548559054</v>
       </c>
     </row>
     <row r="5">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.13949229267894</v>
+        <v>-13.94922927095733</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1812484081503118</v>
+        <v>0.1812484081183327</v>
       </c>
     </row>
     <row r="6">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.506173844701845e-05</v>
+        <v>55.06173840017951</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6855390013632976</v>
+        <v>0.6855390015907479</v>
       </c>
     </row>
     <row r="7">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.68001586884664</v>
+        <v>20.68001586884703</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2322139296525324</v>
+        <v>0.2322139296525203</v>
       </c>
     </row>
     <row r="8">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4596.850302418195</v>
+        <v>-45.96850302418198</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1108622062765805</v>
+        <v>0.1108622062765813</v>
       </c>
     </row>
     <row r="9">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1218.565650618269</v>
+        <v>-12.18565650618367</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5742024300955821</v>
+        <v>0.5742024300955544</v>
       </c>
     </row>
     <row r="10">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7766.229104287258</v>
+        <v>77.6622910428724</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1252894893551487</v>
+        <v>0.12528948935515</v>
       </c>
     </row>
     <row r="11">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.821994360713077</v>
+        <v>-9.821994360711457</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8333850942862253</v>
+        <v>0.833385094286252</v>
       </c>
     </row>
   </sheetData>
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1996.280349274877</v>
+        <v>1996.280349562582</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6582334259128246</v>
+        <v>0.6582334259051704</v>
       </c>
     </row>
     <row r="3">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-114.1624891487745</v>
+        <v>-114.1624891568847</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7426781017011794</v>
+        <v>0.7426781017012729</v>
       </c>
     </row>
     <row r="4">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269.6453225421242</v>
+        <v>269.6453224973745</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4641218371801521</v>
+        <v>0.4641218373308933</v>
       </c>
     </row>
     <row r="5">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03267435823957186</v>
+        <v>-3.26743582378543</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7000329376992871</v>
+        <v>0.7000329377065955</v>
       </c>
     </row>
     <row r="6">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.286878126083683e-05</v>
+        <v>-12.86878129851274</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8971171774148055</v>
+        <v>0.8971171771223695</v>
       </c>
     </row>
     <row r="7">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3530723230592514</v>
+        <v>0.3530723230593082</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9828355145538157</v>
+        <v>0.9828355145538128</v>
       </c>
     </row>
     <row r="8">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4443.335234459177</v>
+        <v>-44.43335234459198</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1330171555329795</v>
+        <v>0.1330171555329778</v>
       </c>
     </row>
     <row r="9">
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3183.992085113936</v>
+        <v>-31.83992085113945</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2317528847062268</v>
+        <v>0.2317528847062257</v>
       </c>
     </row>
     <row r="10">
@@ -2603,10 +2603,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>586.200153658905</v>
+        <v>5.862001536588991</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8798184810874878</v>
+        <v>0.8798184810874892</v>
       </c>
     </row>
     <row r="11">
@@ -2616,10 +2616,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95.90135366261148</v>
+        <v>95.90135366261109</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1043555660138974</v>
+        <v>0.1043555660138986</v>
       </c>
     </row>
   </sheetData>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6869.458018195465</v>
+        <v>6869.458017963605</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01530773589811427</v>
+        <v>0.01530773589686928</v>
       </c>
     </row>
     <row r="3">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-223.1421645420426</v>
+        <v>-223.1421644437024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4954226782347289</v>
+        <v>0.4954226782347533</v>
       </c>
     </row>
     <row r="4">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>254.9365571420726</v>
+        <v>254.9365571573903</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5254706664130919</v>
+        <v>0.5254706663808539</v>
       </c>
     </row>
     <row r="5">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1140441799133743</v>
+        <v>-11.4044179895281</v>
       </c>
       <c r="C5" t="n">
-        <v>0.271308362975394</v>
+        <v>0.2713083629933907</v>
       </c>
     </row>
     <row r="6">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.203711577856136e-05</v>
+        <v>22.03711577200306</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8527391600574927</v>
+        <v>0.852739160105345</v>
       </c>
     </row>
     <row r="7">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.555730141598019</v>
+        <v>-6.55573014159636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6638682043654968</v>
+        <v>0.6638682043655756</v>
       </c>
     </row>
     <row r="8">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6292.259304192468</v>
+        <v>-62.92259304192484</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01417285317848099</v>
+        <v>0.01417285317848085</v>
       </c>
     </row>
     <row r="9">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3742.650524891265</v>
+        <v>-37.42650524891383</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09379161926992961</v>
+        <v>0.09379161926992308</v>
       </c>
     </row>
     <row r="10">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2425.920652480416</v>
+        <v>24.25920652480431</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5592263215152474</v>
+        <v>0.5592263215152449</v>
       </c>
     </row>
     <row r="11">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.19128675901874</v>
+        <v>13.19128675902039</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7684302901233226</v>
+        <v>0.7684302901232947</v>
       </c>
     </row>
   </sheetData>
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1170.899908772293</v>
+        <v>-1170.899908755187</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6523369251876301</v>
+        <v>0.652336925196312</v>
       </c>
     </row>
     <row r="3">
@@ -2844,10 +2844,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-47.22180505572101</v>
+        <v>-47.22180505584606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8381936967248922</v>
+        <v>0.8381936967249782</v>
       </c>
     </row>
     <row r="4">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.4996433364195</v>
+        <v>135.4996433306396</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7052072841482382</v>
+        <v>0.7052072841703516</v>
       </c>
     </row>
     <row r="5">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07758991260475422</v>
+        <v>-7.758991260634096</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3944878626996349</v>
+        <v>0.394487862698348</v>
       </c>
     </row>
     <row r="6">
@@ -2883,10 +2883,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001411432079328369</v>
+        <v>141.143207968385</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2602772506138</v>
+        <v>0.2602772505125862</v>
       </c>
     </row>
     <row r="7">
@@ -2896,10 +2896,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.29418897815991</v>
+        <v>26.29418897815977</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07268863137770919</v>
+        <v>0.07268863137771063</v>
       </c>
     </row>
     <row r="8">
@@ -2909,10 +2909,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3401.663321347647</v>
+        <v>-34.01663321347642</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08140280479126127</v>
+        <v>0.0814028047912617</v>
       </c>
     </row>
     <row r="9">
@@ -2922,10 +2922,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-646.4220594715862</v>
+        <v>-6.464220594715961</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5984136217295788</v>
+        <v>0.5984136217295737</v>
       </c>
     </row>
     <row r="10">
@@ -2935,10 +2935,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>378.670174834293</v>
+        <v>3.786701748342836</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9060333179956583</v>
+        <v>0.9060333179956606</v>
       </c>
     </row>
     <row r="11">
@@ -2948,10 +2948,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70.43779831227637</v>
+        <v>70.43779831227631</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1587548923788297</v>
+        <v>0.1587548923788295</v>
       </c>
     </row>
   </sheetData>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4787.05812744079</v>
+        <v>4787.058127266449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1219351372112079</v>
+        <v>0.1219351372190108</v>
       </c>
     </row>
     <row r="3">
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-142.8770763317327</v>
+        <v>-142.877076323715</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6928148031876844</v>
+        <v>0.6928148031877271</v>
       </c>
     </row>
     <row r="4">
@@ -3023,10 +3023,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.4170030616167</v>
+        <v>64.41700313761771</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9019177912032732</v>
+        <v>0.901917791079392</v>
       </c>
     </row>
     <row r="5">
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08219875797726856</v>
+        <v>-8.219875796390966</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4801175037114157</v>
+        <v>0.4801175037340589</v>
       </c>
     </row>
     <row r="6">
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.765517331111784e-05</v>
+        <v>-17.65517327309746</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9055922156826266</v>
+        <v>0.905592215897963</v>
       </c>
     </row>
     <row r="7">
@@ -3062,10 +3062,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.678321628302768</v>
+        <v>5.678321628303067</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7345984686875207</v>
+        <v>0.7345984686875078</v>
       </c>
     </row>
     <row r="8">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5040.442126232532</v>
+        <v>-50.40442126232561</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07126998308956091</v>
+        <v>0.0712699830895604</v>
       </c>
     </row>
     <row r="9">
@@ -3088,10 +3088,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1680.943033821726</v>
+        <v>-16.80943033821758</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3945458418183578</v>
+        <v>0.39454584181835</v>
       </c>
     </row>
     <row r="10">
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5986.661404323408</v>
+        <v>59.86661404323416</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2790953075303828</v>
+        <v>0.2790953075303826</v>
       </c>
     </row>
     <row r="11">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.361613591906121</v>
+        <v>-1.36161359190524</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9767949964301617</v>
+        <v>0.9767949964301765</v>
       </c>
     </row>
   </sheetData>
@@ -3163,10 +3163,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4237.541608932901</v>
+        <v>4237.541609291036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06370964051965868</v>
+        <v>0.06370964050721126</v>
       </c>
     </row>
     <row r="3">
@@ -3176,10 +3176,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-168.4283189429025</v>
+        <v>-168.428318968286</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5755146988272385</v>
+        <v>0.5755146988272752</v>
       </c>
     </row>
     <row r="4">
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>308.9257893876407</v>
+        <v>308.9257894053836</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4494991575798948</v>
+        <v>0.4494991575422789</v>
       </c>
     </row>
     <row r="5">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1117864312494654</v>
+        <v>-11.17864312403427</v>
       </c>
       <c r="C5" t="n">
-        <v>0.213075277968568</v>
+        <v>0.2130752779771912</v>
       </c>
     </row>
     <row r="6">
@@ -3215,10 +3215,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.039909487813588e-05</v>
+        <v>20.39909476888083</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8718061570181389</v>
+        <v>0.8718061576703415</v>
       </c>
     </row>
     <row r="7">
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.873004554336248</v>
+        <v>4.873004554337435</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7519950471512806</v>
+        <v>0.7519950471512196</v>
       </c>
     </row>
     <row r="8">
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4287.483637865656</v>
+        <v>-42.87483637865687</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05798330932097083</v>
+        <v>0.05798330932096996</v>
       </c>
     </row>
     <row r="9">
@@ -3254,10 +3254,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-760.1080192138033</v>
+        <v>-7.60108019213849</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6505292165122742</v>
+        <v>0.6505292165122583</v>
       </c>
     </row>
     <row r="10">
@@ -3267,10 +3267,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8589.803157969673</v>
+        <v>85.89803157969718</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04806956519353059</v>
+        <v>0.0480695651935295</v>
       </c>
     </row>
     <row r="11">
@@ -3280,10 +3280,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18.44403773370166</v>
+        <v>-18.44403773370092</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6642160428480886</v>
+        <v>0.6642160428481009</v>
       </c>
     </row>
   </sheetData>
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3011.568621696111</v>
+        <v>3011.568622283929</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2248758857412429</v>
+        <v>0.2248758856615909</v>
       </c>
     </row>
     <row r="3">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-381.7840455813434</v>
+        <v>-381.7840455738822</v>
       </c>
       <c r="C3" t="n">
-        <v>0.41984412181189</v>
+        <v>0.4198441218120537</v>
       </c>
     </row>
     <row r="4">
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.4895455143278</v>
+        <v>245.4895454709699</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6400596629058142</v>
+        <v>0.6400596629808691</v>
       </c>
     </row>
     <row r="5">
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1710870070777532</v>
+        <v>-17.10870070677346</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1084491862927136</v>
+        <v>0.1084491862932134</v>
       </c>
     </row>
     <row r="6">
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001175573617657765</v>
+        <v>117.5573617820201</v>
       </c>
       <c r="C6" t="n">
-        <v>0.391656742778672</v>
+        <v>0.3916567427387921</v>
       </c>
     </row>
     <row r="7">
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.62195929836591</v>
+        <v>13.62195929836662</v>
       </c>
       <c r="C7" t="n">
-        <v>0.452369182487439</v>
+        <v>0.4523691824874104</v>
       </c>
     </row>
     <row r="8">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4318.002733327482</v>
+        <v>-43.18002733327547</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09804782881909357</v>
+        <v>0.09804782881909169</v>
       </c>
     </row>
     <row r="9">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.96481957920605</v>
+        <v>0.4296481957915503</v>
       </c>
       <c r="C9" t="n">
-        <v>0.982291574273108</v>
+        <v>0.9822915742731291</v>
       </c>
     </row>
     <row r="10">
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10084.93065067109</v>
+        <v>100.8493065067107</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04740050568595543</v>
+        <v>0.04740050568595607</v>
       </c>
     </row>
     <row r="11">
@@ -3446,10 +3446,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-15.65747225712305</v>
+        <v>-15.6574722571205</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7479920123094154</v>
+        <v>0.747992012309454</v>
       </c>
     </row>
   </sheetData>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2998.852458642689</v>
+        <v>-2998.852458892537</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3793564419479486</v>
+        <v>0.3793564419235207</v>
       </c>
     </row>
     <row r="3">
@@ -3508,10 +3508,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191.8025022624931</v>
+        <v>191.8025022762404</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4459164035965565</v>
+        <v>0.4459164035961026</v>
       </c>
     </row>
     <row r="4">
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>549.5036183414852</v>
+        <v>549.5036184024875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1039995290737274</v>
+        <v>0.1039995290739098</v>
       </c>
     </row>
     <row r="5">
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0253783006747928</v>
+        <v>2.537830066226483</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7308698573264074</v>
+        <v>0.7308698574276309</v>
       </c>
     </row>
     <row r="6">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.653003671970649e-05</v>
+        <v>-46.53003678751242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6026518066657409</v>
+        <v>0.6026518060384668</v>
       </c>
     </row>
     <row r="7">
@@ -3560,10 +3560,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6026944310211064</v>
+        <v>0.6026944310210638</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9589480410138549</v>
+        <v>0.9589480410138578</v>
       </c>
     </row>
     <row r="8">
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2611.12883253654</v>
+        <v>-26.11128832536536</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1413628546587362</v>
+        <v>0.1413628546587376</v>
       </c>
     </row>
     <row r="9">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2130.165411664983</v>
+        <v>-21.30165411664981</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1389918182247357</v>
+        <v>0.1389918182247373</v>
       </c>
     </row>
     <row r="10">
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2851.037956814102</v>
+        <v>-28.51037956814087</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4583583952767124</v>
+        <v>0.4583583952767154</v>
       </c>
     </row>
     <row r="11">
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.8657934601663</v>
+        <v>177.8657934601662</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01082282297216204</v>
+        <v>0.0108228229721619</v>
       </c>
     </row>
   </sheetData>
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2683.490140318153</v>
+        <v>2683.490140324395</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2408275928075604</v>
+        <v>0.2408275928090217</v>
       </c>
     </row>
     <row r="3">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-41.54713261314777</v>
+        <v>-41.54713260663635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9000778564904574</v>
+        <v>0.9000778564904806</v>
       </c>
     </row>
     <row r="4">
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.8126290476805</v>
+        <v>290.8126290476214</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5935273592301482</v>
+        <v>0.5935273592301</v>
       </c>
     </row>
     <row r="5">
@@ -3700,10 +3700,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1198640085371631</v>
+        <v>-11.98640085395824</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2544517958774594</v>
+        <v>0.2544517958863611</v>
       </c>
     </row>
     <row r="6">
@@ -3713,10 +3713,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.547561091988318e-05</v>
+        <v>45.47561093862343</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7141013358197728</v>
+        <v>0.7141013357353458</v>
       </c>
     </row>
     <row r="7">
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.758496163618421</v>
+        <v>5.758496163619117</v>
       </c>
       <c r="C7" t="n">
-        <v>0.738380246758727</v>
+        <v>0.7383802467586953</v>
       </c>
     </row>
     <row r="8">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2825.082564079225</v>
+        <v>-28.25082564079212</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2430972491414349</v>
+        <v>0.2430972491414363</v>
       </c>
     </row>
     <row r="9">
@@ -3752,10 +3752,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-79.04065561472135</v>
+        <v>-0.7904065561475555</v>
       </c>
       <c r="C9" t="n">
-        <v>0.965382283897889</v>
+        <v>0.9653822838978745</v>
       </c>
     </row>
     <row r="10">
@@ -3765,10 +3765,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10489.40294879453</v>
+        <v>104.8940294879453</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02606274663891218</v>
+        <v>0.02606274663891216</v>
       </c>
     </row>
     <row r="11">
@@ -3778,10 +3778,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12.6562601417271</v>
+        <v>-12.65626014172656</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7571691053878394</v>
+        <v>0.7571691053878493</v>
       </c>
     </row>
   </sheetData>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5146.4658165796</v>
+        <v>5146.465817228624</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09448028940901937</v>
+        <v>0.09448028938814075</v>
       </c>
     </row>
     <row r="3">
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-605.8425419940636</v>
+        <v>-605.8425420040347</v>
       </c>
       <c r="C3" t="n">
-        <v>0.168706759012164</v>
+        <v>0.1687067590121458</v>
       </c>
     </row>
     <row r="4">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-94.20910841088744</v>
+        <v>-94.20910842801231</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8560820798630221</v>
+        <v>0.8560820798387456</v>
       </c>
     </row>
     <row r="5">
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1682971079089716</v>
+        <v>-16.82971079496476</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1405692538223384</v>
+        <v>0.1405692537754694</v>
       </c>
     </row>
     <row r="6">
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001190350979228186</v>
+        <v>119.0350979784893</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4522447868033638</v>
+        <v>0.4522447866352759</v>
       </c>
     </row>
     <row r="7">
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.55169283291106</v>
+        <v>26.55169283291147</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1953295475348044</v>
+        <v>0.1953295475347957</v>
       </c>
     </row>
     <row r="8">
@@ -3905,10 +3905,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6542.967759922329</v>
+        <v>-65.42967759922361</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03639284348659795</v>
+        <v>0.03639284348659813</v>
       </c>
     </row>
     <row r="9">
@@ -3918,10 +3918,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1923.536156022801</v>
+        <v>-19.23536156022811</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4148896576934592</v>
+        <v>0.4148896576934561</v>
       </c>
     </row>
     <row r="10">
@@ -3931,10 +3931,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9221.100417456382</v>
+        <v>92.2110041745639</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09801928988565038</v>
+        <v>0.09801928988565006</v>
       </c>
     </row>
     <row r="11">
@@ -3944,10 +3944,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-30.63238721589953</v>
+        <v>-30.63238721589954</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5116013396337344</v>
+        <v>0.5116013396337337</v>
       </c>
     </row>
   </sheetData>
@@ -3993,10 +3993,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5655.363755351287</v>
+        <v>5655.363755645671</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01509619469786687</v>
+        <v>0.01509619469739141</v>
       </c>
     </row>
     <row r="3">
@@ -4006,10 +4006,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-202.2883416246963</v>
+        <v>-202.2883415705392</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4766124355803255</v>
+        <v>0.4766124355800232</v>
       </c>
     </row>
     <row r="4">
@@ -4019,10 +4019,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.5451739253766</v>
+        <v>298.5451739259082</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4411646827966306</v>
+        <v>0.4411646827954623</v>
       </c>
     </row>
     <row r="5">
@@ -4032,10 +4032,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1933473302945014</v>
+        <v>-19.33473302942772</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07637477991942815</v>
+        <v>0.07637477991924101</v>
       </c>
     </row>
     <row r="6">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001542160583127278</v>
+        <v>154.2160583781217</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3337603130294989</v>
+        <v>0.3337603128856618</v>
       </c>
     </row>
     <row r="7">
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.331447291055401</v>
+        <v>7.331447291057188</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5816509557354168</v>
+        <v>0.5816509557353221</v>
       </c>
     </row>
     <row r="8">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5845.041520958388</v>
+        <v>-58.45041520958327</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0162937715853946</v>
+        <v>0.01629377158539528</v>
       </c>
     </row>
     <row r="9">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-921.4577837292525</v>
+        <v>-9.214577837293749</v>
       </c>
       <c r="C9" t="n">
-        <v>0.539394407864606</v>
+        <v>0.5393944078645587</v>
       </c>
     </row>
     <row r="10">
@@ -4097,10 +4097,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4576.787662787545</v>
+        <v>45.76787662787547</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2070254687117217</v>
+        <v>0.2070254687117227</v>
       </c>
     </row>
     <row r="11">
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-41.56326557907799</v>
+        <v>-41.56326557907605</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2986900547580228</v>
+        <v>0.2986900547580413</v>
       </c>
     </row>
   </sheetData>
@@ -4159,10 +4159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4946.93785426072</v>
+        <v>4946.937854377526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0840336684710936</v>
+        <v>0.08403366846962036</v>
       </c>
     </row>
     <row r="3">
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-254.1712405155527</v>
+        <v>-254.1712404440435</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5032683871384156</v>
+        <v>0.5032683871384872</v>
       </c>
     </row>
     <row r="4">
@@ -4185,10 +4185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360.4190122057621</v>
+        <v>360.4190121762585</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5518271727961639</v>
+        <v>0.5518271728362637</v>
       </c>
     </row>
     <row r="5">
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1755918777359383</v>
+        <v>-17.55918777062362</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1875618309989678</v>
+        <v>0.1875618310096043</v>
       </c>
     </row>
     <row r="6">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001034584245842018</v>
+        <v>103.4584245906173</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4991004335461098</v>
+        <v>0.499100433462831</v>
       </c>
     </row>
     <row r="7">
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.177641084179893</v>
+        <v>6.177641084180376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7392536973065618</v>
+        <v>0.7392536973065416</v>
       </c>
     </row>
     <row r="8">
@@ -4237,10 +4237,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5485.220751706053</v>
+        <v>-54.8522075170606</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05167536154308717</v>
+        <v>0.05167536154308711</v>
       </c>
     </row>
     <row r="9">
@@ -4250,10 +4250,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-703.040015739376</v>
+        <v>-7.030400157394155</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7347635447065529</v>
+        <v>0.7347635447065397</v>
       </c>
     </row>
     <row r="10">
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5677.236302379435</v>
+        <v>56.7723630237947</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2531317587751891</v>
+        <v>0.253131758775184</v>
       </c>
     </row>
     <row r="11">
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-29.31855216623239</v>
+        <v>-29.318552166232</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5915787806894006</v>
+        <v>0.5915787806894055</v>
       </c>
     </row>
   </sheetData>
@@ -4325,10 +4325,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3326.03565864597</v>
+        <v>3326.035658640549</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2171596810839719</v>
+        <v>0.2171596810847447</v>
       </c>
     </row>
     <row r="3">
@@ -4338,10 +4338,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-365.1329547902487</v>
+        <v>-365.1329547257626</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3769376135965634</v>
+        <v>0.3769376135965274</v>
       </c>
     </row>
     <row r="4">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>332.0652109938651</v>
+        <v>332.0652110123667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4966790709353195</v>
+        <v>0.4966790709072714</v>
       </c>
     </row>
     <row r="5">
@@ -4364,10 +4364,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1174930810575567</v>
+        <v>-11.74930811033388</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2625413719660378</v>
+        <v>0.2625413718666676</v>
       </c>
     </row>
     <row r="6">
@@ -4377,10 +4377,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.437662359655885e-05</v>
+        <v>54.3766236484299</v>
       </c>
       <c r="C6" t="n">
-        <v>0.683412385170409</v>
+        <v>0.6834123849688578</v>
       </c>
     </row>
     <row r="7">
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.922954515591883</v>
+        <v>4.922954515592927</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7662809128098023</v>
+        <v>0.766280912809753</v>
       </c>
     </row>
     <row r="8">
@@ -4403,10 +4403,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5028.524472651953</v>
+        <v>-50.28524472651954</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04749023799878978</v>
+        <v>0.04749023799878958</v>
       </c>
     </row>
     <row r="9">
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-525.9036680009231</v>
+        <v>-5.259036680009597</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7811018818794937</v>
+        <v>0.7811018818794814</v>
       </c>
     </row>
     <row r="10">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8009.276391263329</v>
+        <v>80.09276391263307</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08803381747590848</v>
+        <v>0.08803381747591017</v>
       </c>
     </row>
     <row r="11">
@@ -4442,10 +4442,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.085183580977429</v>
+        <v>7.085183580978835</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9002031077617</v>
+        <v>0.9002031077616794</v>
       </c>
     </row>
   </sheetData>
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4860.806385044621</v>
+        <v>4860.806385386614</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04273222965412567</v>
+        <v>0.04273222965000408</v>
       </c>
     </row>
     <row r="3">
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-178.1580858153859</v>
+        <v>-178.1580858007285</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5569011068367034</v>
+        <v>0.5569011068360823</v>
       </c>
     </row>
     <row r="4">
@@ -4517,10 +4517,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>441.427613014126</v>
+        <v>441.4276129915074</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3655647026663241</v>
+        <v>0.3655647027056294</v>
       </c>
     </row>
     <row r="5">
@@ -4530,10 +4530,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1617054353636173</v>
+        <v>-16.17054353619364</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1380348627687049</v>
+        <v>0.1380348627702783</v>
       </c>
     </row>
     <row r="6">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.180801810720557e-05</v>
+        <v>41.80801814030423</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7539887985692608</v>
+        <v>0.75398879835982</v>
       </c>
     </row>
     <row r="7">
@@ -4556,10 +4556,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.48104502771508</v>
+        <v>-5.48104502771395</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7289004365143101</v>
+        <v>0.7289004365143621</v>
       </c>
     </row>
     <row r="8">
@@ -4569,10 +4569,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5015.722806679873</v>
+        <v>-50.15722806679869</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03407781504337482</v>
+        <v>0.03407781504337477</v>
       </c>
     </row>
     <row r="9">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-687.251831450254</v>
+        <v>-6.872518314503424</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6974089346662575</v>
+        <v>0.6974089346662233</v>
       </c>
     </row>
     <row r="10">
@@ -4595,10 +4595,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6901.408471851547</v>
+        <v>69.01408471851565</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09357757941841523</v>
+        <v>0.09357757941841446</v>
       </c>
     </row>
     <row r="11">
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.715825343372323</v>
+        <v>-3.715825343370945</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9304427424332036</v>
+        <v>0.9304427424332291</v>
       </c>
     </row>
   </sheetData>
@@ -4657,10 +4657,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3967.309568935383</v>
+        <v>-3967.309569178859</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3431573694898822</v>
+        <v>0.3431573695015104</v>
       </c>
     </row>
     <row r="3">
@@ -4670,10 +4670,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.4765469264229</v>
+        <v>130.4765469682326</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7130673730293793</v>
+        <v>0.7130673730293684</v>
       </c>
     </row>
     <row r="4">
@@ -4683,10 +4683,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>433.753734300366</v>
+        <v>433.753734262729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3096429414709755</v>
+        <v>0.3096429414493457</v>
       </c>
     </row>
     <row r="5">
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005003752536245631</v>
+        <v>0.5003752547904412</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9578914162433999</v>
+        <v>0.9578914161514711</v>
       </c>
     </row>
     <row r="6">
@@ -4709,10 +4709,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.537485700583969e-05</v>
+        <v>-15.37485708149305</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8901699602280629</v>
+        <v>0.8901699596870644</v>
       </c>
     </row>
     <row r="7">
@@ -4722,10 +4722,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.28974604339749</v>
+        <v>15.28974604339733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2923164249443303</v>
+        <v>0.2923164249443327</v>
       </c>
     </row>
     <row r="8">
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1087.993856128357</v>
+        <v>-10.87993856128362</v>
       </c>
       <c r="C8" t="n">
-        <v>0.677240245085609</v>
+        <v>0.6772402450856077</v>
       </c>
     </row>
     <row r="9">
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-76.34050236070652</v>
+        <v>-0.7634050236068433</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9687052756484416</v>
+        <v>0.9687052756484509</v>
       </c>
     </row>
     <row r="10">
@@ -4761,10 +4761,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1393.397848023671</v>
+        <v>13.93397848023722</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7846978697729933</v>
+        <v>0.7846978697729855</v>
       </c>
     </row>
     <row r="11">
@@ -4774,10 +4774,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127.0002140206353</v>
+        <v>127.0002140206346</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08636622691993281</v>
+        <v>0.08636622691993244</v>
       </c>
     </row>
   </sheetData>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4367.490481890683</v>
+        <v>4367.490482494733</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1026814765308728</v>
+        <v>0.1026814764728614</v>
       </c>
     </row>
     <row r="3">
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-475.636616543379</v>
+        <v>-475.6366165011925</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2211467373060898</v>
+        <v>0.2211467373060751</v>
       </c>
     </row>
     <row r="4">
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.71023803065435</v>
+        <v>90.71023802706713</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8210383203078608</v>
+        <v>0.8210383203152259</v>
       </c>
     </row>
     <row r="5">
@@ -4862,10 +4862,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2448744306591362</v>
+        <v>-24.48744306585264</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02983555962532493</v>
+        <v>0.02983555962553789</v>
       </c>
     </row>
     <row r="6">
@@ -4875,10 +4875,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002932027106596814</v>
+        <v>293.20271069775</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1108845271795559</v>
+        <v>0.1108845271350041</v>
       </c>
     </row>
     <row r="7">
@@ -4888,10 +4888,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.38552418537631</v>
+        <v>31.38552418537649</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1149918718507967</v>
+        <v>0.1149918718507938</v>
       </c>
     </row>
     <row r="8">
@@ -4901,10 +4901,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7282.141448715465</v>
+        <v>-72.82141448715494</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00938888492917167</v>
+        <v>0.009388884929171636</v>
       </c>
     </row>
     <row r="9">
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-234.4988080092353</v>
+        <v>-2.34498808009247</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8918192884558165</v>
+        <v>0.8918192884558114</v>
       </c>
     </row>
     <row r="10">
@@ -4927,10 +4927,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10865.50389565905</v>
+        <v>108.65503895659</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07266272151834069</v>
+        <v>0.07266272151834177</v>
       </c>
     </row>
     <row r="11">
@@ -4940,10 +4940,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-73.28997113622904</v>
+        <v>-73.28997113622916</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1538277189958842</v>
+        <v>0.1538277189958839</v>
       </c>
     </row>
   </sheetData>
@@ -4989,10 +4989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5520.355326933066</v>
+        <v>5520.35532690675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0150860604855427</v>
+        <v>0.01508606048516318</v>
       </c>
     </row>
     <row r="3">
@@ -5002,10 +5002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-106.6627343092248</v>
+        <v>-106.6627343030448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7304005628695154</v>
+        <v>0.730400562869525</v>
       </c>
     </row>
     <row r="4">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143.9978047313861</v>
+        <v>143.9978047251431</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7127352885953734</v>
+        <v>0.7127352886116131</v>
       </c>
     </row>
     <row r="5">
@@ -5028,10 +5028,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06994651154678738</v>
+        <v>-6.994651154354976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4833917922349024</v>
+        <v>0.4833917922328501</v>
       </c>
     </row>
     <row r="6">
@@ -5041,10 +5041,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.23021875262106e-06</v>
+        <v>-3.230218654824853</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9777125202849377</v>
+        <v>0.9777125209574073</v>
       </c>
     </row>
     <row r="7">
@@ -5054,10 +5054,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4094490334837957</v>
+        <v>-0.4094490334832415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.977181634791416</v>
+        <v>0.9771816347914467</v>
       </c>
     </row>
     <row r="8">
@@ -5067,10 +5067,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4948.036021403471</v>
+        <v>-49.48036021403464</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02377654204176754</v>
+        <v>0.0237765420417676</v>
       </c>
     </row>
     <row r="9">
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3181.898101467305</v>
+        <v>-31.81898101467318</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06814805383595059</v>
+        <v>0.06814805383594991</v>
       </c>
     </row>
     <row r="10">
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3940.753632991691</v>
+        <v>39.40753632991706</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2700903830816286</v>
+        <v>0.2700903830816269</v>
       </c>
     </row>
     <row r="11">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.878638537972904</v>
+        <v>8.878638537973131</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8131523640821442</v>
+        <v>0.81315236408214</v>
       </c>
     </row>
   </sheetData>
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3159.228424519391</v>
+        <v>3159.228424783458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1923750834140343</v>
+        <v>0.1923750833780129</v>
       </c>
     </row>
     <row r="3">
@@ -5168,10 +5168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-378.1755781927035</v>
+        <v>-378.1755781793935</v>
       </c>
       <c r="C3" t="n">
-        <v>0.31760443634256</v>
+        <v>0.3176044363425636</v>
       </c>
     </row>
     <row r="4">
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-116.0400170861694</v>
+        <v>-116.0400172272723</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8216621363765848</v>
+        <v>0.8216621361774014</v>
       </c>
     </row>
     <row r="5">
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1168069541685039</v>
+        <v>-11.68069541420338</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2809462671595485</v>
+        <v>0.2809462672113838</v>
       </c>
     </row>
     <row r="6">
@@ -5207,10 +5207,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.930369602399582e-05</v>
+        <v>49.30369614044943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7111772950165396</v>
+        <v>0.7111772943806242</v>
       </c>
     </row>
     <row r="7">
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.6561001145263</v>
+        <v>16.65610011452667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3082261561241703</v>
+        <v>0.308226156124161</v>
       </c>
     </row>
     <row r="8">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4347.462619331898</v>
+        <v>-43.47462619331921</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08070863498904213</v>
+        <v>0.08070863498903942</v>
       </c>
     </row>
     <row r="9">
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1013.862946850461</v>
+        <v>-10.13862946850463</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5774225820710295</v>
+        <v>0.5774225820710267</v>
       </c>
     </row>
     <row r="10">
@@ -5259,10 +5259,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7679.619707599797</v>
+        <v>76.7961970759977</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07671042501972622</v>
+        <v>0.07671042501972912</v>
       </c>
     </row>
     <row r="11">
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.22370275693121</v>
+        <v>11.22370275693132</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8024981560658013</v>
+        <v>0.8024981560658001</v>
       </c>
     </row>
   </sheetData>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3722.90356500738</v>
+        <v>3722.903565005904</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1583084229639551</v>
+        <v>0.1583084229646985</v>
       </c>
     </row>
     <row r="3">
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.0025155649208</v>
+        <v>43.0025155776236</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9035829061423438</v>
+        <v>0.9035829061423507</v>
       </c>
     </row>
     <row r="4">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309.2562012577453</v>
+        <v>309.2562012343251</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5396999679537995</v>
+        <v>0.5396999679392722</v>
       </c>
     </row>
     <row r="5">
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1094765432659833</v>
+        <v>-10.94765432679042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.36423324930162</v>
+        <v>0.3642332492871252</v>
       </c>
     </row>
     <row r="6">
@@ -5373,10 +5373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.675588593991069e-05</v>
+        <v>26.75588587916032</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8537795117344186</v>
+        <v>0.8537795120745698</v>
       </c>
     </row>
     <row r="7">
@@ -5386,10 +5386,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.370854851671666</v>
+        <v>1.370854851672426</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9310206231386717</v>
+        <v>0.9310206231386333</v>
       </c>
     </row>
     <row r="8">
@@ -5399,10 +5399,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2643.209763137484</v>
+        <v>-26.43209763137503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4971460561828411</v>
+        <v>0.497146056182839</v>
       </c>
     </row>
     <row r="9">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-876.5146589552296</v>
+        <v>-8.765146589552725</v>
       </c>
       <c r="C9" t="n">
-        <v>0.650644410248904</v>
+        <v>0.6506444102488922</v>
       </c>
     </row>
     <row r="10">
@@ -5425,10 +5425,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8354.12160992132</v>
+        <v>83.54121609921306</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0788536761169064</v>
+        <v>0.07885367611690752</v>
       </c>
     </row>
     <row r="11">
@@ -5438,10 +5438,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-13.42868291276434</v>
+        <v>-13.42868291276341</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7522010429555538</v>
+        <v>0.7522010429555706</v>
       </c>
     </row>
   </sheetData>
@@ -5487,10 +5487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3916.475553513914</v>
+        <v>-3916.475553296317</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2437435130501532</v>
+        <v>0.2437435130462117</v>
       </c>
     </row>
     <row r="3">
@@ -5500,10 +5500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.6212327199029</v>
+        <v>142.6212327102082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6171932051969835</v>
+        <v>0.617193205197037</v>
       </c>
     </row>
     <row r="4">
@@ -5513,10 +5513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8654781613023</v>
+        <v>222.8654781330683</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6204030022649277</v>
+        <v>0.6204030022915643</v>
       </c>
     </row>
     <row r="5">
@@ -5526,10 +5526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04338813149288329</v>
+        <v>-4.338813148362856</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6480953050027212</v>
+        <v>0.6480953050939324</v>
       </c>
     </row>
     <row r="6">
@@ -5539,10 +5539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001025560291475027</v>
+        <v>102.5560291234929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4874989662042736</v>
+        <v>0.4874989663073959</v>
       </c>
     </row>
     <row r="7">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.74403416404056</v>
+        <v>23.74403416404107</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09696495177132781</v>
+        <v>0.09696495177131867</v>
       </c>
     </row>
     <row r="8">
@@ -5565,10 +5565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1736.425468557707</v>
+        <v>-17.36425468557709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4598947808002637</v>
+        <v>0.4598947808002625</v>
       </c>
     </row>
     <row r="9">
@@ -5578,10 +5578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>182.7068713583942</v>
+        <v>1.827068713583948</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9180090058503965</v>
+        <v>0.9180090058503964</v>
       </c>
     </row>
     <row r="10">
@@ -5591,10 +5591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1593.209024902393</v>
+        <v>15.93209024902379</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6661777447285464</v>
+        <v>0.6661777447285494</v>
       </c>
     </row>
     <row r="11">
@@ -5604,10 +5604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.3921736677488</v>
+        <v>107.392173667748</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08247900800972355</v>
+        <v>0.08247900800972595</v>
       </c>
     </row>
   </sheetData>
@@ -5653,10 +5653,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5802.286775498695</v>
+        <v>5802.286775218242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05299882270759122</v>
+        <v>0.05299882271598205</v>
       </c>
     </row>
     <row r="3">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-172.5881451455143</v>
+        <v>-172.5881451395211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6444457048665209</v>
+        <v>0.6444457048662465</v>
       </c>
     </row>
     <row r="4">
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>523.0125179477741</v>
+        <v>523.0125179641649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2648197568352495</v>
+        <v>0.2648197568067944</v>
       </c>
     </row>
     <row r="5">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.257262073629889</v>
+        <v>-25.72620736484988</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07361627542373424</v>
+        <v>0.07361627542244779</v>
       </c>
     </row>
     <row r="6">
@@ -5705,10 +5705,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001147873769003755</v>
+        <v>114.7873767659154</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4125263417969526</v>
+        <v>0.4125263424244915</v>
       </c>
     </row>
     <row r="7">
@@ -5718,10 +5718,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.767323225487303</v>
+        <v>-6.767323225486455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7151293107078946</v>
+        <v>0.7151293107079247</v>
       </c>
     </row>
     <row r="8">
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5892.38428596146</v>
+        <v>-58.92384285961453</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02918409931618056</v>
+        <v>0.02918409931618077</v>
       </c>
     </row>
     <row r="9">
@@ -5744,10 +5744,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-206.3713063531197</v>
+        <v>-2.063713063531647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9059787854299465</v>
+        <v>0.9059787854299262</v>
       </c>
     </row>
     <row r="10">
@@ -5757,10 +5757,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4922.754718848841</v>
+        <v>49.22754718848856</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3213018795319477</v>
+        <v>0.3213018795319462</v>
       </c>
     </row>
     <row r="11">
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21.67424069620824</v>
+        <v>-21.67424069620728</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6136187425238619</v>
+        <v>0.6136187425238788</v>
       </c>
     </row>
   </sheetData>
@@ -5819,10 +5819,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4847.297954768237</v>
+        <v>4847.29795460821</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04556499438996017</v>
+        <v>0.04556499439856265</v>
       </c>
     </row>
     <row r="3">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-319.7353245856523</v>
+        <v>-319.7353246011623</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4408155659770887</v>
+        <v>0.4408155659770394</v>
       </c>
     </row>
     <row r="4">
@@ -5845,10 +5845,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.3068820542353</v>
+        <v>194.306882091909</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6252026399727826</v>
+        <v>0.6252026398890032</v>
       </c>
     </row>
     <row r="5">
@@ -5858,10 +5858,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08512021847622517</v>
+        <v>-8.512021848960424</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4349169013359168</v>
+        <v>0.4349169013067399</v>
       </c>
     </row>
     <row r="6">
@@ -5871,10 +5871,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.070319041849289e-05</v>
+        <v>20.70319047335812</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8698934257532709</v>
+        <v>0.8698934254567963</v>
       </c>
     </row>
     <row r="7">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.100019021277063</v>
+        <v>-3.100019021277333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8691944954415924</v>
+        <v>0.869194495441582</v>
       </c>
     </row>
     <row r="8">
@@ -5897,10 +5897,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5449.316076081942</v>
+        <v>-54.49316076081921</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01281281383493622</v>
+        <v>0.01281281383493635</v>
       </c>
     </row>
     <row r="9">
@@ -5910,10 +5910,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2968.65499477613</v>
+        <v>-29.68654994776141</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1935576859719736</v>
+        <v>0.193557685971972</v>
       </c>
     </row>
     <row r="10">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4880.758188643156</v>
+        <v>48.80758188643135</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2680647242151985</v>
+        <v>0.2680647242152009</v>
       </c>
     </row>
     <row r="11">
@@ -5936,10 +5936,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35.97333020884662</v>
+        <v>35.9733302088473</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5109174214824241</v>
+        <v>0.5109174214824176</v>
       </c>
     </row>
   </sheetData>
@@ -5985,10 +5985,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3917.105961643359</v>
+        <v>3917.105961541209</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1604162509485949</v>
+        <v>0.1604162509489038</v>
       </c>
     </row>
     <row r="3">
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-179.5766161971837</v>
+        <v>-179.576616176902</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6149304392512125</v>
+        <v>0.6149304392514254</v>
       </c>
     </row>
     <row r="4">
@@ -6011,10 +6011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.3889693826982</v>
+        <v>297.3889693966864</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5710574843969118</v>
+        <v>0.5710574843697933</v>
       </c>
     </row>
     <row r="5">
@@ -6024,10 +6024,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1660105892967869</v>
+        <v>-16.60105893044327</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1575009600863248</v>
+        <v>0.1575009600818307</v>
       </c>
     </row>
     <row r="6">
@@ -6037,10 +6037,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001659667728621318</v>
+        <v>165.9667727927579</v>
       </c>
       <c r="C6" t="n">
-        <v>0.382629664126247</v>
+        <v>0.3826296643117054</v>
       </c>
     </row>
     <row r="7">
@@ -6050,10 +6050,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.0669395058229</v>
+        <v>10.06693950582324</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5714405157282041</v>
+        <v>0.5714405157281903</v>
       </c>
     </row>
     <row r="8">
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4868.855325702413</v>
+        <v>-48.68855325702435</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1006061161605712</v>
+        <v>0.1006061161605706</v>
       </c>
     </row>
     <row r="9">
@@ -6076,10 +6076,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-929.0954511228324</v>
+        <v>-9.290954511228165</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6450466038328246</v>
+        <v>0.6450466038328301</v>
       </c>
     </row>
     <row r="10">
@@ -6089,10 +6089,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8999.97425835204</v>
+        <v>89.99974258352029</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09598419715875529</v>
+        <v>0.09598419715875499</v>
       </c>
     </row>
     <row r="11">
@@ -6102,10 +6102,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-27.30867750499719</v>
+        <v>-27.30867750499712</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5444228869980718</v>
+        <v>0.5444228869980733</v>
       </c>
     </row>
   </sheetData>
@@ -6151,10 +6151,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5139.335700802279</v>
+        <v>5139.335701253176</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04492870384766954</v>
+        <v>0.04492870384112247</v>
       </c>
     </row>
     <row r="3">
@@ -6164,10 +6164,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-293.6446673564898</v>
+        <v>-293.6446673778476</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3692145438682652</v>
+        <v>0.3692145438682178</v>
       </c>
     </row>
     <row r="4">
@@ -6177,10 +6177,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.1373916390571</v>
+        <v>116.1373916330435</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7919637098576675</v>
+        <v>0.7919637098694925</v>
       </c>
     </row>
     <row r="5">
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1197015821056099</v>
+        <v>-11.97015821291258</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2206734443153802</v>
+        <v>0.2206734442680293</v>
       </c>
     </row>
     <row r="6">
@@ -6203,10 +6203,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.973044436221332e-05</v>
+        <v>59.73044438465294</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6678816554012748</v>
+        <v>0.6678816553201458</v>
       </c>
     </row>
     <row r="7">
@@ -6216,10 +6216,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.84793067246045</v>
+        <v>15.84793067246035</v>
       </c>
       <c r="C7" t="n">
-        <v>0.34670514673616</v>
+        <v>0.346705146736158</v>
       </c>
     </row>
     <row r="8">
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5114.26050073556</v>
+        <v>-51.14260500735588</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04132166736114135</v>
+        <v>0.04132166736114107</v>
       </c>
     </row>
     <row r="9">
@@ -6242,10 +6242,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1523.840709155204</v>
+        <v>-15.23840709155166</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3904632170034977</v>
+        <v>0.3904632170035077</v>
       </c>
     </row>
     <row r="10">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6193.48587753359</v>
+        <v>61.93485877533578</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1609492718334868</v>
+        <v>0.1609492718334873</v>
       </c>
     </row>
     <row r="11">
@@ -6268,10 +6268,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-35.19741705976708</v>
+        <v>-35.19741705976756</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4332650225610996</v>
+        <v>0.4332650225610931</v>
       </c>
     </row>
   </sheetData>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4283.329219495026</v>
+        <v>4283.329219586309</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04418363119534355</v>
+        <v>0.04418363119552528</v>
       </c>
     </row>
     <row r="3">
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-54.49269218873803</v>
+        <v>-54.49269218973296</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8365346380041883</v>
+        <v>0.8365346380047267</v>
       </c>
     </row>
     <row r="4">
@@ -6343,10 +6343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>632.5051047192906</v>
+        <v>632.5051047014183</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1592570603250578</v>
+        <v>0.1592570603646006</v>
       </c>
     </row>
     <row r="5">
@@ -6356,10 +6356,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.044335353041628</v>
+        <v>-4.433535303583781</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6010352956737941</v>
+        <v>0.6010352956839908</v>
       </c>
     </row>
     <row r="6">
@@ -6369,10 +6369,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.148322515857758e-06</v>
+        <v>-4.14832258222674</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9698128882357753</v>
+        <v>0.9698128877467023</v>
       </c>
     </row>
     <row r="7">
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.4417901370523</v>
+        <v>-14.44179013705075</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3593621654523897</v>
+        <v>0.359362165452438</v>
       </c>
     </row>
     <row r="8">
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4620.095799906655</v>
+        <v>-46.20095799906635</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02002713440856301</v>
+        <v>0.02002713440856314</v>
       </c>
     </row>
     <row r="9">
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2352.04414166921</v>
+        <v>-23.52044141669266</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1914950233843719</v>
+        <v>0.1914950233843643</v>
       </c>
     </row>
     <row r="10">
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6014.912961682578</v>
+        <v>60.14912961682614</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1079507044265415</v>
+        <v>0.1079507044265388</v>
       </c>
     </row>
     <row r="11">
@@ -6434,10 +6434,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.62834391443124</v>
+        <v>22.62834391443224</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5958693413379292</v>
+        <v>0.5958693413379129</v>
       </c>
     </row>
   </sheetData>
@@ -6483,10 +6483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6214.327368733001</v>
+        <v>6214.327368971821</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03644267478924264</v>
+        <v>0.03644267479110998</v>
       </c>
     </row>
     <row r="3">
@@ -6496,10 +6496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-282.5471424259241</v>
+        <v>-282.5471423547788</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4639106816598991</v>
+        <v>0.4639106816598499</v>
       </c>
     </row>
     <row r="4">
@@ -6509,10 +6509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.8162613842353</v>
+        <v>168.8162613221907</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7389909461393485</v>
+        <v>0.7389909462555715</v>
       </c>
     </row>
     <row r="5">
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1521415305009748</v>
+        <v>-15.21415304786065</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1821561531345818</v>
+        <v>0.1821561531847664</v>
       </c>
     </row>
     <row r="6">
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.345670712285114e-05</v>
+        <v>73.45670706524368</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5704865461199171</v>
+        <v>0.5704865463771591</v>
       </c>
     </row>
     <row r="7">
@@ -6548,10 +6548,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.356332535539778</v>
+        <v>8.356332535540119</v>
       </c>
       <c r="C7" t="n">
-        <v>0.679691555633131</v>
+        <v>0.6796915556331191</v>
       </c>
     </row>
     <row r="8">
@@ -6561,10 +6561,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5997.362966622071</v>
+        <v>-59.97362966622085</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02942302633203919</v>
+        <v>0.02942302633203945</v>
       </c>
     </row>
     <row r="9">
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1998.829031621377</v>
+        <v>-19.98829031621398</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3725872031615982</v>
+        <v>0.3725872031615962</v>
       </c>
     </row>
     <row r="10">
@@ -6587,10 +6587,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5193.978335686104</v>
+        <v>51.93978335686127</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2481216234408382</v>
+        <v>0.2481216234408369</v>
       </c>
     </row>
     <row r="11">
@@ -6600,10 +6600,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-29.49736759454149</v>
+        <v>-29.49736759454092</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5098799632762674</v>
+        <v>0.5098799632762749</v>
       </c>
     </row>
   </sheetData>
@@ -6649,10 +6649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3449.042025138236</v>
+        <v>3449.042025694742</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2013749479278128</v>
+        <v>0.2013749479024627</v>
       </c>
     </row>
     <row r="3">
@@ -6662,10 +6662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-276.3446899303641</v>
+        <v>-276.3446900462837</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5094267884965071</v>
+        <v>0.5094267884965267</v>
       </c>
     </row>
     <row r="4">
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>264.7534582819824</v>
+        <v>264.7534582350823</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5878737131868966</v>
+        <v>0.5878737132782587</v>
       </c>
     </row>
     <row r="5">
@@ -6688,10 +6688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1490875748342154</v>
+        <v>-14.90875749118823</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1547555819653776</v>
+        <v>0.1547555819524655</v>
       </c>
     </row>
     <row r="6">
@@ -6701,10 +6701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.743799378849609e-05</v>
+        <v>87.43799372439032</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5092639854702841</v>
+        <v>0.5092639858131334</v>
       </c>
     </row>
     <row r="7">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.83634337092028</v>
+        <v>11.83634337092063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4961064177436912</v>
+        <v>0.4961064177436781</v>
       </c>
     </row>
     <row r="8">
@@ -6727,10 +6727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4868.695687156403</v>
+        <v>-48.68695687156404</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1247628161064498</v>
+        <v>0.1247628161064513</v>
       </c>
     </row>
     <row r="9">
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-383.4715742587376</v>
+        <v>-3.834715742587626</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8511323429488247</v>
+        <v>0.851132342948816</v>
       </c>
     </row>
     <row r="10">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10344.06233749937</v>
+        <v>103.4406233749937</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06726183535533757</v>
+        <v>0.06726183535533763</v>
       </c>
     </row>
     <row r="11">
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21.29292292348623</v>
+        <v>-21.29292292348505</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6646950189685545</v>
+        <v>0.6646950189685721</v>
       </c>
     </row>
   </sheetData>
@@ -6815,10 +6815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4063.342716421456</v>
+        <v>4063.342716400612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09705320162505565</v>
+        <v>0.09705320162602932</v>
       </c>
     </row>
     <row r="3">
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-81.70761315965996</v>
+        <v>-81.70761317454819</v>
       </c>
       <c r="C3" t="n">
-        <v>0.784909633217264</v>
+        <v>0.7849096332169688</v>
       </c>
     </row>
     <row r="4">
@@ -6841,10 +6841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-332.0115509924888</v>
+        <v>-332.0115509810131</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4828881644028757</v>
+        <v>0.4828881644117879</v>
       </c>
     </row>
     <row r="5">
@@ -6854,10 +6854,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.115479186799697</v>
+        <v>-11.54791867923942</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2557315678527827</v>
+        <v>0.2557315678487857</v>
       </c>
     </row>
     <row r="6">
@@ -6867,10 +6867,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.687096307351247e-05</v>
+        <v>76.87096305956652</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6303236350145172</v>
+        <v>0.630323635077559</v>
       </c>
     </row>
     <row r="7">
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.12203612395155</v>
+        <v>19.12203612395277</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2145640229867455</v>
+        <v>0.2145640229867133</v>
       </c>
     </row>
     <row r="8">
@@ -6893,10 +6893,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3825.133228344051</v>
+        <v>-38.25133228344015</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1079959300488022</v>
+        <v>0.1079959300488035</v>
       </c>
     </row>
     <row r="9">
@@ -6906,10 +6906,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1680.38509265562</v>
+        <v>-16.80385092655635</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3030043830724714</v>
+        <v>0.3030043830724689</v>
       </c>
     </row>
     <row r="10">
@@ -6919,10 +6919,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5625.405553873959</v>
+        <v>56.25405553873961</v>
       </c>
       <c r="C10" t="n">
-        <v>0.177287328376184</v>
+        <v>0.1772873283761854</v>
       </c>
     </row>
     <row r="11">
@@ -6932,10 +6932,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.174912219509878</v>
+        <v>-7.174912219511327</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8609988347751134</v>
+        <v>0.8609988347750863</v>
       </c>
     </row>
   </sheetData>
@@ -6981,10 +6981,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1859.793025688762</v>
+        <v>-1859.793025873898</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5600750478833604</v>
+        <v>0.560075047822904</v>
       </c>
     </row>
     <row r="3">
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-109.0613675125364</v>
+        <v>-109.0613674734589</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7515820154396126</v>
+        <v>0.7515820154402189</v>
       </c>
     </row>
     <row r="4">
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>497.3005439768608</v>
+        <v>497.300543992385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2096928126718129</v>
+        <v>0.2096928126425703</v>
       </c>
     </row>
     <row r="5">
@@ -7020,10 +7020,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09996876502827501</v>
+        <v>-9.99687650178085</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3433167709598471</v>
+        <v>0.343316770926257</v>
       </c>
     </row>
     <row r="6">
@@ -7033,10 +7033,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.827380660135152e-05</v>
+        <v>58.27380658669951</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6422285116022677</v>
+        <v>0.6422285116224677</v>
       </c>
     </row>
     <row r="7">
@@ -7046,10 +7046,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.58111043480187</v>
+        <v>13.58111043480165</v>
       </c>
       <c r="C7" t="n">
-        <v>0.291190917369807</v>
+        <v>0.2911909173698167</v>
       </c>
     </row>
     <row r="8">
@@ -7059,10 +7059,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2481.570300766944</v>
+        <v>-24.81570300766952</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2465366361610872</v>
+        <v>0.2465366361610864</v>
       </c>
     </row>
     <row r="9">
@@ -7072,10 +7072,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-88.45754934683828</v>
+        <v>-0.8845754934684038</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9544259542569499</v>
+        <v>0.954425954256949</v>
       </c>
     </row>
     <row r="10">
@@ -7085,10 +7085,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>374.3935518102735</v>
+        <v>3.743935518102745</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9246920740802202</v>
+        <v>0.9246920740802198</v>
       </c>
     </row>
     <row r="11">
@@ -7098,10 +7098,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.7477705036801</v>
+        <v>101.7477705036802</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0890298614874841</v>
+        <v>0.08902986148748329</v>
       </c>
     </row>
   </sheetData>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4394.991805464278</v>
+        <v>4394.991805562805</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08503015193676126</v>
+        <v>0.0850301519285514</v>
       </c>
     </row>
     <row r="3">
@@ -7160,10 +7160,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-204.3445791285516</v>
+        <v>-204.3445790826307</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5742729967845606</v>
+        <v>0.5742729967845004</v>
       </c>
     </row>
     <row r="4">
@@ -7173,10 +7173,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.9842769144177</v>
+        <v>165.9842769531601</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7126132227348208</v>
+        <v>0.7126132226606462</v>
       </c>
     </row>
     <row r="5">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1104300110159392</v>
+        <v>-11.04300110004178</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2793031066647279</v>
+        <v>0.2793031066738862</v>
       </c>
     </row>
     <row r="6">
@@ -7199,10 +7199,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.46634532941154e-05</v>
+        <v>34.66345326832203</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7930868125053803</v>
+        <v>0.7930868126560695</v>
       </c>
     </row>
     <row r="7">
@@ -7212,10 +7212,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.640727649596315</v>
+        <v>7.640727649596229</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6131025372028105</v>
+        <v>0.6131025372028163</v>
       </c>
     </row>
     <row r="8">
@@ -7225,10 +7225,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4283.269717831804</v>
+        <v>-42.83269717831798</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05691571151485939</v>
+        <v>0.05691571151485866</v>
       </c>
     </row>
     <row r="9">
@@ -7238,10 +7238,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1106.399507310266</v>
+        <v>-11.06399507310277</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5379763224520611</v>
+        <v>0.5379763224520582</v>
       </c>
     </row>
     <row r="10">
@@ -7251,10 +7251,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6142.862718809045</v>
+        <v>61.42862718809025</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1255405122374735</v>
+        <v>0.1255405122374753</v>
       </c>
     </row>
     <row r="11">
@@ -7264,10 +7264,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11.69392823014525</v>
+        <v>-11.69392823014425</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8004836398991257</v>
+        <v>0.8004836398991428</v>
       </c>
     </row>
   </sheetData>
@@ -7313,10 +7313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7235.251674671523</v>
+        <v>7235.251674860049</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01098969267004409</v>
+        <v>0.01098969267064069</v>
       </c>
     </row>
     <row r="3">
@@ -7326,10 +7326,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-314.3015407340831</v>
+        <v>-314.3015406894443</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3719954423423056</v>
+        <v>0.3719954423420752</v>
       </c>
     </row>
     <row r="4">
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>394.7745543386807</v>
+        <v>394.7745543641247</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4201299204157297</v>
+        <v>0.4201299203768518</v>
       </c>
     </row>
     <row r="5">
@@ -7352,10 +7352,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.155206010991164</v>
+        <v>-15.52060109639634</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1465126453174576</v>
+        <v>0.1465126453316093</v>
       </c>
     </row>
     <row r="6">
@@ -7365,10 +7365,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.92476418320999e-05</v>
+        <v>79.24764169867439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5198236187149894</v>
+        <v>0.519823619354004</v>
       </c>
     </row>
     <row r="7">
@@ -7378,10 +7378,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.927142477020379</v>
+        <v>-5.927142477019892</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6855434007165004</v>
+        <v>0.6855434007165213</v>
       </c>
     </row>
     <row r="8">
@@ -7391,10 +7391,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6769.272478476289</v>
+        <v>-67.69272478476283</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01158831941836123</v>
+        <v>0.0115883194183613</v>
       </c>
     </row>
     <row r="9">
@@ -7404,10 +7404,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3138.87805512682</v>
+        <v>-31.38878055126833</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1678520177565689</v>
+        <v>0.1678520177565681</v>
       </c>
     </row>
     <row r="10">
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1685.139913359682</v>
+        <v>16.85139913359681</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6793820650709814</v>
+        <v>0.679382065070982</v>
       </c>
     </row>
     <row r="11">
@@ -7430,10 +7430,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.812267645317888</v>
+        <v>-5.812267645317291</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8967334412201424</v>
+        <v>0.8967334412201529</v>
       </c>
     </row>
   </sheetData>
@@ -7479,10 +7479,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4392.943202190371</v>
+        <v>4392.943202178731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1511232166641556</v>
+        <v>0.151123216665139</v>
       </c>
     </row>
     <row r="3">
@@ -7492,10 +7492,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-311.7660128103596</v>
+        <v>-311.7660127705444</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4096376901257762</v>
+        <v>0.4096376901257498</v>
       </c>
     </row>
     <row r="4">
@@ -7505,10 +7505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.4406532961945</v>
+        <v>276.4406532878442</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5722995566404844</v>
+        <v>0.5722995566547794</v>
       </c>
     </row>
     <row r="5">
@@ -7518,10 +7518,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1802081392767457</v>
+        <v>-18.02081392662118</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1344618647511643</v>
+        <v>0.1344618647591233</v>
       </c>
     </row>
     <row r="6">
@@ -7531,10 +7531,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001410484081463176</v>
+        <v>141.0484080737569</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4494665327656683</v>
+        <v>0.4494665329179617</v>
       </c>
     </row>
     <row r="7">
@@ -7544,10 +7544,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.625125006813619</v>
+        <v>8.625125006813949</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6380679312444174</v>
+        <v>0.6380679312444076</v>
       </c>
     </row>
     <row r="8">
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6453.42712620656</v>
+        <v>-64.53427126206562</v>
       </c>
       <c r="C8" t="n">
         <v>0.0259249016247689</v>
@@ -7570,10 +7570,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-599.2700089190703</v>
+        <v>-5.992700089190734</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7530197624337351</v>
+        <v>0.7530197624337338</v>
       </c>
     </row>
     <row r="10">
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8058.29830513426</v>
+        <v>80.58298305134267</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1854542339864491</v>
+        <v>0.1854542339864486</v>
       </c>
     </row>
     <row r="11">
@@ -7596,10 +7596,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-19.24385311057469</v>
+        <v>-19.24385311057458</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6847999223537793</v>
+        <v>0.6847999223537816</v>
       </c>
     </row>
   </sheetData>
@@ -7645,10 +7645,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5024.530736487591</v>
+        <v>5024.530736597602</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06970747421372556</v>
+        <v>0.06970747421134482</v>
       </c>
     </row>
     <row r="3">
@@ -7658,10 +7658,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-266.6382158854256</v>
+        <v>-266.6382158715007</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4548183242506995</v>
+        <v>0.4548183242506909</v>
       </c>
     </row>
     <row r="4">
@@ -7671,10 +7671,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.00668638566049</v>
+        <v>51.00668639355104</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9178561620381538</v>
+        <v>0.9178561620247924</v>
       </c>
     </row>
     <row r="5">
@@ -7684,10 +7684,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1231574023289998</v>
+        <v>-12.31574023264759</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2400058156990314</v>
+        <v>0.2400058157039744</v>
       </c>
     </row>
     <row r="6">
@@ -7697,10 +7697,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.350725975578703e-05</v>
+        <v>43.50725976297069</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7672514265027843</v>
+        <v>0.7672514264583034</v>
       </c>
     </row>
     <row r="7">
@@ -7710,10 +7710,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.07649207557011</v>
+        <v>16.07649207557054</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4070698237171484</v>
+        <v>0.4070698237171364</v>
       </c>
     </row>
     <row r="8">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4766.224895312119</v>
+        <v>-47.66224895312135</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0718457155078636</v>
+        <v>0.0718457155078633</v>
       </c>
     </row>
     <row r="9">
@@ -7736,10 +7736,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1446.150623175256</v>
+        <v>-14.46150623175295</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4693424723987821</v>
+        <v>0.4693424723987729</v>
       </c>
     </row>
     <row r="10">
@@ -7749,10 +7749,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6651.391843103516</v>
+        <v>66.51391843103517</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1679339412678635</v>
+        <v>0.1679339412678637</v>
       </c>
     </row>
     <row r="11">
@@ -7762,10 +7762,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-31.11002752653775</v>
+        <v>-31.11002752653646</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5702614184371915</v>
+        <v>0.5702614184372068</v>
       </c>
     </row>
   </sheetData>
@@ -7811,10 +7811,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5688.624878947926</v>
+        <v>5688.624878954691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004227239694287593</v>
+        <v>0.004227239694561317</v>
       </c>
     </row>
     <row r="3">
@@ -7824,10 +7824,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.43691333820766</v>
+        <v>5.436913338521549</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9798162733923517</v>
+        <v>0.9798162733923466</v>
       </c>
     </row>
     <row r="4">
@@ -7837,10 +7837,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391.0150001274625</v>
+        <v>391.0150001267999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1658267640429405</v>
+        <v>0.1658267640334085</v>
       </c>
     </row>
     <row r="5">
@@ -7850,10 +7850,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06575817742688078</v>
+        <v>-6.575817742692591</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2964898110878503</v>
+        <v>0.2964898110876706</v>
       </c>
     </row>
     <row r="6">
@@ -7863,10 +7863,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.821262728675149e-05</v>
+        <v>-18.21262722042943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8290499438423521</v>
+        <v>0.8290499444891971</v>
       </c>
     </row>
     <row r="7">
@@ -7876,10 +7876,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.905357767553049</v>
+        <v>-6.905357767552985</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5089917176509295</v>
+        <v>0.5089917176509331</v>
       </c>
     </row>
     <row r="8">
@@ -7889,10 +7889,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4618.612551135553</v>
+        <v>-46.18612551135561</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00380624955066107</v>
+        <v>0.003806249550661113</v>
       </c>
     </row>
     <row r="9">
@@ -7902,10 +7902,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2221.419620014569</v>
+        <v>-22.21419620014589</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08673884357876821</v>
+        <v>0.0867388435787667</v>
       </c>
     </row>
     <row r="10">
@@ -7915,10 +7915,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5022.433479974748</v>
+        <v>50.22433479974723</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1113355453209214</v>
+        <v>0.1113355453209235</v>
       </c>
     </row>
     <row r="11">
@@ -7928,10 +7928,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11.48559519319563</v>
+        <v>-11.48559519319518</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6870767625692471</v>
+        <v>0.6870767625692584</v>
       </c>
     </row>
   </sheetData>
@@ -7977,10 +7977,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1629.888616769696</v>
+        <v>-1629.888616772659</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5713925151223851</v>
+        <v>0.5713925151301615</v>
       </c>
     </row>
     <row r="3">
@@ -7990,10 +7990,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.185763441485051</v>
+        <v>3.185763441168092</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9899155615104878</v>
+        <v>0.9899155615106152</v>
       </c>
     </row>
     <row r="4">
@@ -8003,10 +8003,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223.8491538629823</v>
+        <v>223.8491538620498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5459545478159782</v>
+        <v>0.5459545477864032</v>
       </c>
     </row>
     <row r="5">
@@ -8016,10 +8016,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04523143399445692</v>
+        <v>-4.52314339945206</v>
       </c>
       <c r="C5" t="n">
-        <v>0.619570415429303</v>
+        <v>0.6195704154194659</v>
       </c>
     </row>
     <row r="6">
@@ -8029,10 +8029,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.362812291123556e-05</v>
+        <v>13.62812284084796</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8899946737097456</v>
+        <v>0.8899946742505271</v>
       </c>
     </row>
     <row r="7">
@@ -8042,10 +8042,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.64993078820332</v>
+        <v>16.64993078820365</v>
       </c>
       <c r="C7" t="n">
-        <v>0.238951709514938</v>
+        <v>0.2389517095149267</v>
       </c>
     </row>
     <row r="8">
@@ -8055,10 +8055,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1922.779926082129</v>
+        <v>-19.22779926082129</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3237982827969508</v>
+        <v>0.3237982827969513</v>
       </c>
     </row>
     <row r="9">
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-397.7053906232582</v>
+        <v>-3.977053906232584</v>
       </c>
       <c r="C9" t="n">
         <v>0.7687052172577225</v>
@@ -8081,10 +8081,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4217.495071815227</v>
+        <v>42.17495071815225</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3625125233742461</v>
+        <v>0.3625125233742464</v>
       </c>
     </row>
     <row r="11">
@@ -8094,10 +8094,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.14787315870792</v>
+        <v>84.14787315870748</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1535667711450632</v>
+        <v>0.1535667711450661</v>
       </c>
     </row>
   </sheetData>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4526.678413844904</v>
+        <v>4526.678413810186</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07971052592947581</v>
+        <v>0.07971052593005927</v>
       </c>
     </row>
     <row r="3">
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-134.0197560386325</v>
+        <v>-134.019756024884</v>
       </c>
       <c r="C3" t="n">
-        <v>0.693057545872112</v>
+        <v>0.6930575458720594</v>
       </c>
     </row>
     <row r="4">
@@ -8169,10 +8169,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>260.0893654439765</v>
+        <v>260.0893654407867</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5912017507196501</v>
+        <v>0.5912017507263705</v>
       </c>
     </row>
     <row r="5">
@@ -8182,10 +8182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08869013629961975</v>
+        <v>-8.869013629239177</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4240066185757687</v>
+        <v>0.4240066185858679</v>
       </c>
     </row>
     <row r="6">
@@ -8195,10 +8195,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.896736465644752e-06</v>
+        <v>8.896736480903286</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9531235338705708</v>
+        <v>0.9531235337873391</v>
       </c>
     </row>
     <row r="7">
@@ -8208,10 +8208,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.286376047741186</v>
+        <v>4.286376047741278</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8038361531588696</v>
+        <v>0.8038361531588654</v>
       </c>
     </row>
     <row r="8">
@@ -8221,10 +8221,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5522.514095660397</v>
+        <v>-55.22514095660419</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05744257945898269</v>
+        <v>0.05744257945898209</v>
       </c>
     </row>
     <row r="9">
@@ -8234,10 +8234,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1546.633725428079</v>
+        <v>-15.46633725428105</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4314411316528374</v>
+        <v>0.4314411316528302</v>
       </c>
     </row>
     <row r="10">
@@ -8247,10 +8247,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8121.252392116141</v>
+        <v>81.21252392116102</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1086036673099663</v>
+        <v>0.1086036673099687</v>
       </c>
     </row>
     <row r="11">
@@ -8260,10 +8260,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12.61899866806129</v>
+        <v>-12.6189986680612</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7790933428831771</v>
+        <v>0.779093342883179</v>
       </c>
     </row>
   </sheetData>
@@ -8309,10 +8309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4473.501330713252</v>
+        <v>4473.50133110462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08828557324385829</v>
+        <v>0.08828557320963509</v>
       </c>
     </row>
     <row r="3">
@@ -8322,10 +8322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-316.798419460087</v>
+        <v>-316.7984195119921</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3961721597957687</v>
+        <v>0.396172159795761</v>
       </c>
     </row>
     <row r="4">
@@ -8335,10 +8335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.0041432864431</v>
+        <v>352.0041433855805</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3527437089724101</v>
+        <v>0.3527437088145142</v>
       </c>
     </row>
     <row r="5">
@@ -8348,10 +8348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1131036520829575</v>
+        <v>-11.3103652080369</v>
       </c>
       <c r="C5" t="n">
-        <v>0.261845462151506</v>
+        <v>0.2618454621555632</v>
       </c>
     </row>
     <row r="6">
@@ -8361,10 +8361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.041453254596079e-05</v>
+        <v>40.41453257719593</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7341856597350831</v>
+        <v>0.7341856595328971</v>
       </c>
     </row>
     <row r="7">
@@ -8374,10 +8374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4969266538650885</v>
+        <v>-0.4969266538649109</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9708093786939747</v>
+        <v>0.9708093786939852</v>
       </c>
     </row>
     <row r="8">
@@ -8387,10 +8387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4946.834130988163</v>
+        <v>-49.46834130988155</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01794110550591094</v>
+        <v>0.01794110550591084</v>
       </c>
     </row>
     <row r="9">
@@ -8400,10 +8400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1450.027091659118</v>
+        <v>-14.50027091659111</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4386542895147902</v>
+        <v>0.438654289514793</v>
       </c>
     </row>
     <row r="10">
@@ -8413,10 +8413,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6388.481775389582</v>
+        <v>63.8848177538958</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1481140024024976</v>
+        <v>0.1481140024024979</v>
       </c>
     </row>
     <row r="11">
@@ -8426,10 +8426,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.567787770229529</v>
+        <v>6.567787770230098</v>
       </c>
       <c r="C11" t="n">
-        <v>0.874637395866063</v>
+        <v>0.8746373958660525</v>
       </c>
     </row>
   </sheetData>
@@ -8475,10 +8475,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1281.806882106498</v>
+        <v>-1281.806882233522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7118546633194216</v>
+        <v>0.711854663281362</v>
       </c>
     </row>
     <row r="3">
@@ -8488,10 +8488,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-96.63241174722384</v>
+        <v>-96.63241172152391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7648124807884489</v>
+        <v>0.7648124807886401</v>
       </c>
     </row>
     <row r="4">
@@ -8501,10 +8501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.6396710961827</v>
+        <v>194.639671109608</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6886891476100729</v>
+        <v>0.6886891475780547</v>
       </c>
     </row>
     <row r="5">
@@ -8514,10 +8514,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07245254917117398</v>
+        <v>-7.24525491754609</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4559485821139007</v>
+        <v>0.4559485821134441</v>
       </c>
     </row>
     <row r="6">
@@ -8527,10 +8527,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.21289641428355e-05</v>
+        <v>42.12896412736274</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7215172629622786</v>
+        <v>0.7215172630774505</v>
       </c>
     </row>
     <row r="7">
@@ -8540,10 +8540,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.77005059989789</v>
+        <v>24.77005059989793</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1798095885504483</v>
+        <v>0.1798095885504487</v>
       </c>
     </row>
     <row r="8">
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2646.386300415996</v>
+        <v>-26.46386300415996</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2298973154684275</v>
+        <v>0.2298973154684267</v>
       </c>
     </row>
     <row r="9">
@@ -8566,10 +8566,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-175.352207903924</v>
+        <v>-1.753522079039215</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9185489355065326</v>
+        <v>0.9185489355065339</v>
       </c>
     </row>
     <row r="10">
@@ -8579,10 +8579,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3373.064600386124</v>
+        <v>33.73064600386139</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5302111647574025</v>
+        <v>0.5302111647574005</v>
       </c>
     </row>
     <row r="11">
@@ -8592,10 +8592,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.84349358360245</v>
+        <v>68.8434935836022</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3606037017710798</v>
+        <v>0.3606037017710817</v>
       </c>
     </row>
   </sheetData>
@@ -8641,10 +8641,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4483.285335273935</v>
+        <v>4483.285335433736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03993105127696075</v>
+        <v>0.03993105127374339</v>
       </c>
     </row>
     <row r="3">
@@ -8654,10 +8654,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-274.4179179907632</v>
+        <v>-274.4179180000817</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3676097591252522</v>
+        <v>0.3676097591252839</v>
       </c>
     </row>
     <row r="4">
@@ -8667,10 +8667,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-19.39020307948965</v>
+        <v>-19.39020306648968</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9645508443291259</v>
+        <v>0.9645508443523841</v>
       </c>
     </row>
     <row r="5">
@@ -8680,10 +8680,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1702324311027939</v>
+        <v>-17.02324311031874</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08959657406770159</v>
+        <v>0.08959657406739596</v>
       </c>
     </row>
     <row r="6">
@@ -8693,10 +8693,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001791350301741868</v>
+        <v>179.1350301803662</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2669155821725009</v>
+        <v>0.266915582128781</v>
       </c>
     </row>
     <row r="7">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.68144183024292</v>
+        <v>19.68144183024346</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2161245794385575</v>
+        <v>0.216124579438543</v>
       </c>
     </row>
     <row r="8">
@@ -8719,10 +8719,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5546.247827301238</v>
+        <v>-55.46247827301238</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02425603575375197</v>
+        <v>0.02425603575375189</v>
       </c>
     </row>
     <row r="9">
@@ -8732,10 +8732,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1080.914987128085</v>
+        <v>-10.80914987128109</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4889060931624222</v>
+        <v>0.4889060931624116</v>
       </c>
     </row>
     <row r="10">
@@ -8745,10 +8745,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5876.064162291172</v>
+        <v>58.76064162291195</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1116563119319732</v>
+        <v>0.1116563119319709</v>
       </c>
     </row>
     <row r="11">
@@ -8758,10 +8758,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-32.43629872543636</v>
+        <v>-32.43629872543657</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4183454660698558</v>
+        <v>0.4183454660698546</v>
       </c>
     </row>
   </sheetData>
